--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="island" sheetId="3" r:id="rId4"/>
     <sheet name="paral" sheetId="4" r:id="rId5"/>
     <sheet name="paral-del" sheetId="7" r:id="rId6"/>
+    <sheet name="fix-paral" sheetId="8" r:id="rId7"/>
+    <sheet name="fix-paral-v2" sheetId="10" r:id="rId8"/>
+    <sheet name="fix2-paral" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="121">
   <si>
     <t>top</t>
   </si>
@@ -360,6 +363,33 @@
   </si>
   <si>
     <t>Hf-hollow</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Hf</t>
   </si>
 </sst>
 </file>
@@ -413,10 +443,10 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,6 +507,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>223038</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>181314</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9367038" y="121158"/>
+          <a:ext cx="4225476" cy="3168142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124824" y="3604494"/>
+          <a:ext cx="2696882" cy="1747523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -512,6 +618,120 @@
         <a:xfrm>
           <a:off x="4664320" y="48846"/>
           <a:ext cx="2975272" cy="2271346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68826</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110256</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>58869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4945626" y="2203451"/>
+          <a:ext cx="2479830" cy="1722568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>463551</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>307710</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7778751" y="69850"/>
+          <a:ext cx="2892159" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339886</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753351" y="2165350"/>
+          <a:ext cx="2949735" cy="2194560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,13 +793,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>402747</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:colOff>91185</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -596,8 +816,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="0"/>
-          <a:ext cx="4003197" cy="3011124"/>
+          <a:off x="4957856" y="1"/>
+          <a:ext cx="3709564" cy="2816412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223896</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157566</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>59932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124602" y="2807447"/>
+          <a:ext cx="3609199" cy="2481897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180855</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8710705" y="0"/>
+          <a:ext cx="3721915" cy="2816352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209179</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>197140</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8785414" y="2786529"/>
+          <a:ext cx="3663491" cy="2816352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,15 +948,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>155729</xdr:colOff>
+      <xdr:colOff>155730</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>546817</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38032</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -639,8 +973,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5032529" y="0"/>
-          <a:ext cx="5267888" cy="3962400"/>
+          <a:off x="5018016" y="0"/>
+          <a:ext cx="4136802" cy="3075214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442529</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526143</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5304815" y="2987817"/>
+          <a:ext cx="3730328" cy="2526842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>416234</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9261929" y="0"/>
+          <a:ext cx="3917805" cy="3072384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>526029</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>51598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9116785" y="2966357"/>
+          <a:ext cx="4172744" cy="3072384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -960,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,7 +1438,7 @@
       <c r="D2">
         <v>-0.47390528999999937</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1010,7 +1458,7 @@
       <c r="D3">
         <v>-0.2174370699999546</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1476,7 @@
       <c r="D4">
         <v>-0.14964087999998732</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1494,7 @@
       <c r="D5">
         <v>-0.46813244999997927</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1512,7 @@
       <c r="D6">
         <v>-0.85262562000002085</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1084,7 +1532,7 @@
       <c r="D7">
         <v>-0.2269436999999872</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1102,7 +1550,7 @@
       <c r="D8">
         <v>-0.20223598000000642</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1568,7 @@
       <c r="D9">
         <v>-0.89434942999997169</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1586,7 @@
       <c r="D10">
         <v>-0.86357551000002708</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1158,7 +1606,7 @@
       <c r="D11">
         <v>-6.6925000000370716E-3</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1176,7 +1624,7 @@
       <c r="D12">
         <v>-6.8335939999991879E-2</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1642,7 @@
       <c r="D13">
         <v>-0.86053233000000695</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1212,7 +1660,7 @@
       <c r="D14">
         <v>-0.26818239999999527</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1232,7 +1680,7 @@
       <c r="D15">
         <v>-0.11620982000004609</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1698,7 @@
       <c r="D16">
         <v>-9.8632580000009185E-2</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1716,7 @@
       <c r="D17">
         <v>-0.26599593000002564</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +1734,7 @@
       <c r="D18">
         <v>-9.815918000003343E-2</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1306,7 +1754,7 @@
       <c r="D19">
         <v>-5.3214160000033317E-2</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1324,7 +1772,7 @@
       <c r="D20">
         <v>-4.8406859999994722E-2</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1790,7 @@
       <c r="D21">
         <v>-5.4062390000007454E-2</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1360,7 +1808,7 @@
       <c r="D22">
         <v>-0.89082682999997509</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1380,7 +1828,7 @@
       <c r="D23">
         <v>-0.1189346599999741</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1398,7 +1846,7 @@
       <c r="D24">
         <v>-7.2080819999991164E-2</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1416,7 +1864,7 @@
       <c r="D25">
         <v>-0.88030807000000699</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1882,7 @@
       <c r="D26">
         <v>-0.12092018999998722</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1454,7 +1902,7 @@
       <c r="D27">
         <v>-0.21580672000004064</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1920,7 @@
       <c r="D28">
         <v>-0.16655131000003998</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1490,8 +1938,8 @@
       <c r="D29">
         <v>-0.40859361000002004</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1508,7 +1956,7 @@
       <c r="D30">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1528,7 +1976,7 @@
       <c r="D31">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1994,7 @@
       <c r="D32">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +2012,7 @@
       <c r="D33">
         <v>-0.16012846000000458</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1626,10 +2074,10 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1649,8 +2097,8 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1670,10 +2118,10 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1693,8 +2141,8 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1714,10 +2162,10 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1737,8 +2185,8 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1758,10 +2206,10 @@
       <c r="E8">
         <v>0.14226739000000999</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1781,8 +2229,8 @@
       <c r="E9">
         <v>4.2632153400000252</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1802,10 +2250,10 @@
       <c r="E10">
         <v>0.51245177000002196</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1825,8 +2273,8 @@
       <c r="E11">
         <v>8.3088318700000432</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1846,10 +2294,10 @@
       <c r="E12">
         <v>0.62535685999999169</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1869,8 +2317,8 @@
       <c r="E13">
         <v>6.3772676000000192</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1890,10 +2338,10 @@
       <c r="E14">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1913,8 +2361,8 @@
       <c r="E15">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1934,10 +2382,10 @@
       <c r="E16">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1957,8 +2405,8 @@
       <c r="E17">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1994,10 +2442,10 @@
       <c r="A20" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2005,24 +2453,25 @@
       <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2031,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2067,10 +2516,10 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2090,8 +2539,8 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2111,10 +2560,10 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2134,8 +2583,8 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2155,10 +2604,10 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2178,8 +2627,8 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2199,10 +2648,10 @@
       <c r="E8">
         <v>0.14226739000000999</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2222,10 +2671,10 @@
       <c r="E9">
         <v>0.51245177000002196</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2245,10 +2694,10 @@
       <c r="E10">
         <v>0.62535685999999169</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2268,10 +2717,10 @@
       <c r="E11">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2291,8 +2740,8 @@
       <c r="E12">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2312,10 +2761,10 @@
       <c r="E13">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2335,8 +2784,8 @@
       <c r="E14">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2385,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2421,10 +2870,10 @@
       <c r="E2">
         <v>1.2935858699999963</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2444,8 +2893,8 @@
       <c r="E3">
         <v>-3.3286741500000026</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2465,8 +2914,8 @@
       <c r="E4">
         <v>-3.1104937299999924</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2486,8 +2935,8 @@
       <c r="E5">
         <v>-3.1437701200000183</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2507,8 +2956,8 @@
       <c r="E6">
         <v>-3.4894202499999856</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2528,8 +2977,8 @@
       <c r="E7">
         <v>-3.421031649999994</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2549,10 +2998,10 @@
       <c r="E8">
         <v>1.0416510000008206E-2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2572,8 +3021,8 @@
       <c r="E9">
         <v>-4.2314792699999852</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2593,8 +3042,8 @@
       <c r="E10">
         <v>-4.2303015099999666</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2614,8 +3063,8 @@
       <c r="E11">
         <v>-2.9591973099999982</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2635,8 +3084,8 @@
       <c r="E12">
         <v>-4.2312478699999669</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2656,8 +3105,8 @@
       <c r="E13">
         <v>-4.2262306999999932</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2677,10 +3126,10 @@
       <c r="E14">
         <v>-8.0094700000095109E-3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2700,8 +3149,8 @@
       <c r="E15">
         <v>-3.2112205400000184</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2721,8 +3170,8 @@
       <c r="E16">
         <v>-3.5570871599999996</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2742,8 +3191,8 @@
       <c r="E17">
         <v>-2.2389596200000219</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2763,8 +3212,8 @@
       <c r="E18">
         <v>-3.8757445999999809</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2784,8 +3233,8 @@
       <c r="E19">
         <v>-3.2088812299999936</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2805,10 +3254,10 @@
       <c r="E20">
         <v>0.2912446800000148</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2828,8 +3277,8 @@
       <c r="E21">
         <v>-0.61553360000001112</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2849,8 +3298,8 @@
       <c r="E22">
         <v>0.69130318999996598</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2870,8 +3319,8 @@
       <c r="E23">
         <v>-2.8091360300000097</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2891,8 +3340,8 @@
       <c r="E24">
         <v>-0.61524676000001</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2912,8 +3361,8 @@
       <c r="E25">
         <v>-0.62828945000003023</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2933,10 +3382,10 @@
       <c r="E26">
         <v>0.46643433000000778</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2956,8 +3405,8 @@
       <c r="E27">
         <v>0.903472209999999</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2977,8 +3426,8 @@
       <c r="E28">
         <v>0.84148148000000811</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2998,8 +3447,8 @@
       <c r="E29">
         <v>0.39160640999998941</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3019,8 +3468,8 @@
       <c r="E30">
         <v>0.4598667300000252</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3040,8 +3489,8 @@
       <c r="E31">
         <v>0.43486789000000181</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3061,10 +3510,10 @@
       <c r="E32">
         <v>0.72828822000000537</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3084,8 +3533,8 @@
       <c r="E33">
         <v>-1.8093774300000027</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3105,8 +3554,8 @@
       <c r="E34">
         <v>-2.8888200299999958</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3126,8 +3575,8 @@
       <c r="E35">
         <v>-2.920528319999979</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="4"/>
+      <c r="G35" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3147,8 +3596,8 @@
       <c r="E36">
         <v>-3.7402288500000131</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3168,8 +3617,8 @@
       <c r="E37">
         <v>-3.7541400699999676</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3189,10 +3638,10 @@
       <c r="E38">
         <v>-0.10956448999998747</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3212,8 +3661,8 @@
       <c r="E39">
         <v>-3.3781302200000218</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3" t="s">
+      <c r="F39" s="4"/>
+      <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3233,8 +3682,8 @@
       <c r="E40">
         <v>-3.0962576600000111</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3254,8 +3703,8 @@
       <c r="E41">
         <v>-3.1365675500000143</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3" t="s">
+      <c r="F41" s="4"/>
+      <c r="G41" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3275,8 +3724,8 @@
       <c r="E42">
         <v>-3.4310350099999787</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="4"/>
+      <c r="G42" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3296,8 +3745,8 @@
       <c r="E43">
         <v>-3.2458180800000114</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3317,10 +3766,10 @@
       <c r="E44">
         <v>-0.72050734000000238</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3340,8 +3789,8 @@
       <c r="E45">
         <v>-3.5928139000000292</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3" t="s">
+      <c r="F45" s="4"/>
+      <c r="G45" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3361,8 +3810,8 @@
       <c r="E46">
         <v>-2.9767799400000476</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3" t="s">
+      <c r="F46" s="4"/>
+      <c r="G46" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3382,8 +3831,8 @@
       <c r="E47">
         <v>-2.9873096500000051</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="4"/>
+      <c r="G47" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3403,8 +3852,8 @@
       <c r="E48">
         <v>-3.5974591500000392</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="4"/>
+      <c r="G48" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3424,8 +3873,8 @@
       <c r="E49">
         <v>-3.6436352399999996</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3445,10 +3894,10 @@
       <c r="E50">
         <v>-2.3328917399999987</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3468,8 +3917,8 @@
       <c r="E51">
         <v>-3.4867817600000044</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3" t="s">
+      <c r="F51" s="4"/>
+      <c r="G51" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3489,8 +3938,8 @@
       <c r="E52">
         <v>-2.9845752900000284</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3" t="s">
+      <c r="F52" s="4"/>
+      <c r="G52" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3510,8 +3959,8 @@
       <c r="E53">
         <v>-2.9731511300000384</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3" t="s">
+      <c r="F53" s="4"/>
+      <c r="G53" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3531,8 +3980,8 @@
       <c r="E54">
         <v>-3.487692530000023</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="4"/>
+      <c r="G54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3552,8 +4001,8 @@
       <c r="E55">
         <v>-3.5815205400000045</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="4"/>
+      <c r="G55" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3606,8 +4055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3642,7 +4091,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -3665,7 +4114,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="4"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -3686,7 +4135,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -3707,7 +4156,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="4"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -3728,7 +4177,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="4"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -3749,7 +4198,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="4"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -3770,7 +4219,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -3793,7 +4242,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="4"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -3814,7 +4263,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="4"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -3835,7 +4284,7 @@
       <c r="E11">
         <v>0.58237949999998273</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="4"/>
       <c r="G11" t="s">
         <v>24</v>
       </c>
@@ -3856,7 +4305,7 @@
       <c r="E12">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>25</v>
       </c>
@@ -3877,7 +4326,7 @@
       <c r="E13">
         <v>1.573956569999988</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="4"/>
       <c r="G13" t="s">
         <v>26</v>
       </c>
@@ -3898,7 +4347,7 @@
       <c r="E14">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
@@ -3921,7 +4370,7 @@
       <c r="E15">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="4"/>
       <c r="G15" t="s">
         <v>21</v>
       </c>
@@ -3942,7 +4391,7 @@
       <c r="E16">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="4"/>
       <c r="G16" t="s">
         <v>22</v>
       </c>
@@ -3963,7 +4412,7 @@
       <c r="E17">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="4"/>
       <c r="G17" t="s">
         <v>24</v>
       </c>
@@ -3984,7 +4433,7 @@
       <c r="E18">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="4"/>
       <c r="G18" t="s">
         <v>25</v>
       </c>
@@ -4005,7 +4454,7 @@
       <c r="E19">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="4"/>
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -4026,7 +4475,7 @@
       <c r="E20">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
@@ -4049,7 +4498,7 @@
       <c r="E21">
         <v>3.3490576900000328</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="4"/>
       <c r="G21" t="s">
         <v>21</v>
       </c>
@@ -4070,7 +4519,7 @@
       <c r="E22">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="4"/>
       <c r="G22" t="s">
         <v>22</v>
       </c>
@@ -4091,7 +4540,7 @@
       <c r="E23">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="4"/>
       <c r="G23" t="s">
         <v>24</v>
       </c>
@@ -4112,7 +4561,7 @@
       <c r="E24">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="4"/>
       <c r="G24" t="s">
         <v>25</v>
       </c>
@@ -4133,7 +4582,7 @@
       <c r="E25">
         <v>2.0686931599999903</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="4"/>
       <c r="G25" t="s">
         <v>26</v>
       </c>
@@ -4154,7 +4603,7 @@
       <c r="E26">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G26" t="s">
@@ -4177,7 +4626,7 @@
       <c r="E27">
         <v>5.2405252600000072</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="4"/>
       <c r="G27" t="s">
         <v>21</v>
       </c>
@@ -4198,7 +4647,7 @@
       <c r="E28">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="4"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -4219,7 +4668,7 @@
       <c r="E29">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="4"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -4240,7 +4689,7 @@
       <c r="E30">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="4"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -4261,7 +4710,7 @@
       <c r="E31">
         <v>3.9270744799999684</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="4"/>
       <c r="G31" t="s">
         <v>26</v>
       </c>
@@ -4282,7 +4731,7 @@
       <c r="E32">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
@@ -4305,7 +4754,7 @@
       <c r="E33">
         <v>3.7204950799999588</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="4"/>
       <c r="G33" t="s">
         <v>21</v>
       </c>
@@ -4326,7 +4775,7 @@
       <c r="E34">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="4"/>
       <c r="G34" t="s">
         <v>22</v>
       </c>
@@ -4347,7 +4796,7 @@
       <c r="E35">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="4"/>
       <c r="G35" t="s">
         <v>24</v>
       </c>
@@ -4368,7 +4817,7 @@
       <c r="E36">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="4"/>
       <c r="G36" t="s">
         <v>25</v>
       </c>
@@ -4389,7 +4838,7 @@
       <c r="E37">
         <v>2.8620324599999472</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="4"/>
       <c r="G37" t="s">
         <v>26</v>
       </c>
@@ -4410,7 +4859,7 @@
       <c r="E38">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
@@ -4433,7 +4882,7 @@
       <c r="E39">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="4"/>
       <c r="G39" t="s">
         <v>21</v>
       </c>
@@ -4454,7 +4903,7 @@
       <c r="E40">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="4"/>
       <c r="G40" t="s">
         <v>22</v>
       </c>
@@ -4475,7 +4924,7 @@
       <c r="E41">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="4"/>
       <c r="G41" t="s">
         <v>24</v>
       </c>
@@ -4496,7 +4945,7 @@
       <c r="E42">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="4"/>
       <c r="G42" t="s">
         <v>25</v>
       </c>
@@ -4517,7 +4966,7 @@
       <c r="E43">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="4"/>
       <c r="G43" t="s">
         <v>26</v>
       </c>
@@ -4538,7 +4987,7 @@
       <c r="E44">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -4561,7 +5010,7 @@
       <c r="E45">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="4"/>
       <c r="G45" t="s">
         <v>21</v>
       </c>
@@ -4582,7 +5031,7 @@
       <c r="E46">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="4"/>
       <c r="G46" t="s">
         <v>22</v>
       </c>
@@ -4603,7 +5052,7 @@
       <c r="E47">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="4"/>
       <c r="G47" t="s">
         <v>24</v>
       </c>
@@ -4624,7 +5073,7 @@
       <c r="E48">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="4"/>
       <c r="G48" t="s">
         <v>25</v>
       </c>
@@ -4645,7 +5094,7 @@
       <c r="E49">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="4"/>
       <c r="G49" t="s">
         <v>26</v>
       </c>
@@ -4666,7 +5115,7 @@
       <c r="E50">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
@@ -4689,7 +5138,7 @@
       <c r="E51">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="4"/>
       <c r="G51" t="s">
         <v>21</v>
       </c>
@@ -4710,7 +5159,7 @@
       <c r="E52">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="4"/>
       <c r="G52" t="s">
         <v>22</v>
       </c>
@@ -4731,7 +5180,7 @@
       <c r="E53">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="4"/>
       <c r="G53" t="s">
         <v>24</v>
       </c>
@@ -4752,7 +5201,7 @@
       <c r="E54">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="4"/>
       <c r="G54" t="s">
         <v>25</v>
       </c>
@@ -4773,7 +5222,7 @@
       <c r="E55">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="4"/>
       <c r="G55" t="s">
         <v>26</v>
       </c>
@@ -4828,7 +5277,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4863,7 +5312,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -4886,7 +5335,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="4"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -4907,7 +5356,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -4928,7 +5377,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="4"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -4949,7 +5398,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="4"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -4970,7 +5419,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="4"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -4991,7 +5440,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -5014,7 +5463,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="4"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -5035,7 +5484,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="4"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -5056,7 +5505,7 @@
       <c r="E11">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="4"/>
       <c r="G11" t="s">
         <v>25</v>
       </c>
@@ -5077,7 +5526,7 @@
       <c r="E12">
         <v>1.573956569999988</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>26</v>
       </c>
@@ -5098,7 +5547,7 @@
       <c r="E13">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
@@ -5121,7 +5570,7 @@
       <c r="E14">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="4"/>
       <c r="G14" t="s">
         <v>21</v>
       </c>
@@ -5142,7 +5591,7 @@
       <c r="E15">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="4"/>
       <c r="G15" t="s">
         <v>22</v>
       </c>
@@ -5163,7 +5612,7 @@
       <c r="E16">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="4"/>
       <c r="G16" t="s">
         <v>24</v>
       </c>
@@ -5184,7 +5633,7 @@
       <c r="E17">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="4"/>
       <c r="G17" t="s">
         <v>25</v>
       </c>
@@ -5205,7 +5654,7 @@
       <c r="E18">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="4"/>
       <c r="G18" t="s">
         <v>26</v>
       </c>
@@ -5226,7 +5675,7 @@
       <c r="E19">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G19" t="s">
@@ -5249,7 +5698,7 @@
       <c r="E20">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="4"/>
       <c r="G20" t="s">
         <v>22</v>
       </c>
@@ -5270,7 +5719,7 @@
       <c r="E21">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="4"/>
       <c r="G21" t="s">
         <v>24</v>
       </c>
@@ -5291,7 +5740,7 @@
       <c r="E22">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="4"/>
       <c r="G22" t="s">
         <v>25</v>
       </c>
@@ -5312,7 +5761,7 @@
       <c r="E23">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -5335,7 +5784,7 @@
       <c r="E24">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="4"/>
       <c r="G24" t="s">
         <v>22</v>
       </c>
@@ -5356,7 +5805,7 @@
       <c r="E25">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="4"/>
       <c r="G25" t="s">
         <v>24</v>
       </c>
@@ -5377,7 +5826,7 @@
       <c r="E26">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="4"/>
       <c r="G26" t="s">
         <v>25</v>
       </c>
@@ -5398,7 +5847,7 @@
       <c r="E27">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
@@ -5421,7 +5870,7 @@
       <c r="E28">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="4"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -5442,7 +5891,7 @@
       <c r="E29">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="4"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -5463,7 +5912,7 @@
       <c r="E30">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="4"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -5484,7 +5933,7 @@
       <c r="E31">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G31" t="s">
@@ -5507,7 +5956,7 @@
       <c r="E32">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="4"/>
       <c r="G32" t="s">
         <v>21</v>
       </c>
@@ -5528,7 +5977,7 @@
       <c r="E33">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="4"/>
       <c r="G33" t="s">
         <v>22</v>
       </c>
@@ -5549,7 +5998,7 @@
       <c r="E34">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="4"/>
       <c r="G34" t="s">
         <v>24</v>
       </c>
@@ -5570,7 +6019,7 @@
       <c r="E35">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="4"/>
       <c r="G35" t="s">
         <v>25</v>
       </c>
@@ -5591,7 +6040,7 @@
       <c r="E36">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="4"/>
       <c r="G36" t="s">
         <v>26</v>
       </c>
@@ -5612,7 +6061,7 @@
       <c r="E37">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
@@ -5635,7 +6084,7 @@
       <c r="E38">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="4"/>
       <c r="G38" t="s">
         <v>21</v>
       </c>
@@ -5656,7 +6105,7 @@
       <c r="E39">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="4"/>
       <c r="G39" t="s">
         <v>22</v>
       </c>
@@ -5677,7 +6126,7 @@
       <c r="E40">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="4"/>
       <c r="G40" t="s">
         <v>24</v>
       </c>
@@ -5698,7 +6147,7 @@
       <c r="E41">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="4"/>
       <c r="G41" t="s">
         <v>25</v>
       </c>
@@ -5719,7 +6168,7 @@
       <c r="E42">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="4"/>
       <c r="G42" t="s">
         <v>26</v>
       </c>
@@ -5740,7 +6189,7 @@
       <c r="E43">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G43" t="s">
@@ -5763,7 +6212,7 @@
       <c r="E44">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="4"/>
       <c r="G44" t="s">
         <v>21</v>
       </c>
@@ -5784,7 +6233,7 @@
       <c r="E45">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="4"/>
       <c r="G45" t="s">
         <v>22</v>
       </c>
@@ -5805,7 +6254,7 @@
       <c r="E46">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="4"/>
       <c r="G46" t="s">
         <v>24</v>
       </c>
@@ -5826,7 +6275,7 @@
       <c r="E47">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="4"/>
       <c r="G47" t="s">
         <v>25</v>
       </c>
@@ -5847,7 +6296,7 @@
       <c r="E48">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="4"/>
       <c r="G48" t="s">
         <v>26</v>
       </c>
@@ -5895,4 +6344,550 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>0.62452137999996848</v>
+      </c>
+      <c r="C2">
+        <v>1.323293929999966</v>
+      </c>
+      <c r="D2">
+        <v>0.36317780999997318</v>
+      </c>
+      <c r="E2">
+        <v>1.549286209999972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>0.41667383000002856</v>
+      </c>
+      <c r="C3">
+        <v>1.2953661200000286</v>
+      </c>
+      <c r="D3">
+        <v>3.0238390000027593E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.8143199899999822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>0.65896191000000881</v>
+      </c>
+      <c r="C4">
+        <v>1.5321289799999707</v>
+      </c>
+      <c r="D4">
+        <v>-0.20865759000002448</v>
+      </c>
+      <c r="E4">
+        <v>1.327523439999974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>0.78109592000003358</v>
+      </c>
+      <c r="C5">
+        <v>5.0359819200000295</v>
+      </c>
+      <c r="D5">
+        <v>-0.26705097000000855</v>
+      </c>
+      <c r="E5">
+        <v>5.0758127800000157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0.90202276999996611</v>
+      </c>
+      <c r="C6">
+        <v>7.2495412800000061</v>
+      </c>
+      <c r="D6">
+        <v>-0.12154168000000176</v>
+      </c>
+      <c r="E6">
+        <v>1.0561932699999752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.67268275999997895</v>
+      </c>
+      <c r="C7">
+        <v>3.9371612999999459</v>
+      </c>
+      <c r="D7">
+        <v>2.1287157599999826</v>
+      </c>
+      <c r="E7">
+        <v>4.3027186099999799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>0.71400804999995371</v>
+      </c>
+      <c r="C8">
+        <v>1.4373770299999822</v>
+      </c>
+      <c r="D8">
+        <v>-0.11355877000004888</v>
+      </c>
+      <c r="E8">
+        <v>1.774847329999981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>0.77305366000000886</v>
+      </c>
+      <c r="C9">
+        <v>1.1534045499999936</v>
+      </c>
+      <c r="D9">
+        <v>-0.46480967000001705</v>
+      </c>
+      <c r="E9">
+        <v>0.62848226999998724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>1.0212113399999718</v>
+      </c>
+      <c r="C10">
+        <v>1.2981907700000082</v>
+      </c>
+      <c r="D10">
+        <v>-0.36277485999999648</v>
+      </c>
+      <c r="E10">
+        <v>0.72028104000001258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>0.51033649999998643</v>
+      </c>
+      <c r="C2">
+        <v>1.2091090499999839</v>
+      </c>
+      <c r="D2">
+        <v>0.24899292999999112</v>
+      </c>
+      <c r="E2">
+        <v>1.43510132999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>-10.940468019999976</v>
+      </c>
+      <c r="C3">
+        <v>-10.061775729999976</v>
+      </c>
+      <c r="D3">
+        <v>-11.326903459999977</v>
+      </c>
+      <c r="E3">
+        <v>-9.5428218600000232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>0.40476639000001269</v>
+      </c>
+      <c r="C4">
+        <v>1.2779334599999745</v>
+      </c>
+      <c r="D4">
+        <v>-0.46285311000002061</v>
+      </c>
+      <c r="E4">
+        <v>1.0733279199999779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>0.78064582000001037</v>
+      </c>
+      <c r="C5">
+        <v>5.0355318200000063</v>
+      </c>
+      <c r="D5">
+        <v>-0.26750107000003176</v>
+      </c>
+      <c r="E5">
+        <v>5.0753626799999925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0.90010909999994437</v>
+      </c>
+      <c r="C6">
+        <v>7.2476276099999843</v>
+      </c>
+      <c r="D6">
+        <v>-0.1234553500000235</v>
+      </c>
+      <c r="E6">
+        <v>1.0542795999999535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.6676904500000016</v>
+      </c>
+      <c r="C7">
+        <v>3.9321689899999686</v>
+      </c>
+      <c r="D7">
+        <v>2.1237234500000053</v>
+      </c>
+      <c r="E7">
+        <v>4.2977263000000026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>0.69297254999997149</v>
+      </c>
+      <c r="C8">
+        <v>1.41634153</v>
+      </c>
+      <c r="D8">
+        <v>-0.1345942700000311</v>
+      </c>
+      <c r="E8">
+        <v>1.7538118299999987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>0.77127965999999715</v>
+      </c>
+      <c r="C9">
+        <v>1.1516305499999819</v>
+      </c>
+      <c r="D9">
+        <v>-0.46658367000002876</v>
+      </c>
+      <c r="E9">
+        <v>0.62670826999997553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>1.0206506000000029</v>
+      </c>
+      <c r="C10">
+        <v>1.2976300300000392</v>
+      </c>
+      <c r="D10">
+        <v>-0.36333559999996545</v>
+      </c>
+      <c r="E10">
+        <v>0.71972030000004361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>0.58226802000000744</v>
+      </c>
+      <c r="C2">
+        <v>1.0930377099999649</v>
+      </c>
+      <c r="D2">
+        <v>-0.18068025000001775</v>
+      </c>
+      <c r="E2">
+        <v>1.5477201599999639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>0.13987530999997189</v>
+      </c>
+      <c r="C3">
+        <v>0.6802157899999659</v>
+      </c>
+      <c r="D3">
+        <v>-0.93048923000002937</v>
+      </c>
+      <c r="E3">
+        <v>1.1374481199999686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>0.18016113999998806</v>
+      </c>
+      <c r="C4">
+        <v>0.44667221999997109</v>
+      </c>
+      <c r="D4">
+        <v>-1.1917401200000146</v>
+      </c>
+      <c r="E4">
+        <v>4.4326209999989263E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>3.2322689999993326E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.41171435000000001</v>
+      </c>
+      <c r="D5">
+        <v>-1.4666577900000508</v>
+      </c>
+      <c r="E5">
+        <v>0.48577454000000353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>-2.6472780000013518E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.41179347999996052</v>
+      </c>
+      <c r="D6">
+        <v>-1.5510065600000136</v>
+      </c>
+      <c r="E6">
+        <v>0.64357913999996663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>-2.9619099999998344E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.46497584000001124</v>
+      </c>
+      <c r="D7">
+        <v>-1.4133659500000082</v>
+      </c>
+      <c r="E7">
+        <v>0.84848458000002802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>0.50685440000000126</v>
+      </c>
+      <c r="C8">
+        <v>1.0980333799999928</v>
+      </c>
+      <c r="D8">
+        <v>0.67547224000003858</v>
+      </c>
+      <c r="E8">
+        <v>1.8920219400000442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>0.51406407000001009</v>
+      </c>
+      <c r="C9">
+        <v>0.58375331000000896</v>
+      </c>
+      <c r="D9">
+        <v>-0.84183633999998086</v>
+      </c>
+      <c r="E9">
+        <v>-0.13092220000000543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>0.42569059999998826</v>
+      </c>
+      <c r="C10">
+        <v>0.16428871000003964</v>
+      </c>
+      <c r="D10">
+        <v>-0.91122442999999897</v>
+      </c>
+      <c r="E10">
+        <v>-0.58508040000000028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="123">
   <si>
     <t>top</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>Hf</t>
+  </si>
+  <si>
+    <t>fix-all surface and intial structures are all the same</t>
+  </si>
+  <si>
+    <t>Pure</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1415,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2834,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4055,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6351,7 +6357,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6712,15 +6718,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -6733,8 +6739,11 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -6751,7 +6760,7 @@
         <v>1.5477201599999639</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6768,7 +6777,7 @@
         <v>1.1374481199999686</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -6785,7 +6794,7 @@
         <v>4.4326209999989263E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -6802,7 +6811,7 @@
         <v>0.48577454000000353</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -6819,7 +6828,7 @@
         <v>0.64357913999996663</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -6836,7 +6845,7 @@
         <v>0.84848458000002802</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -6853,7 +6862,7 @@
         <v>1.8920219400000442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -6870,7 +6879,7 @@
         <v>-0.13092220000000543</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -6885,6 +6894,23 @@
       </c>
       <c r="E10">
         <v>-0.58508040000000028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11">
+        <v>0.80330677000005535</v>
+      </c>
+      <c r="C11">
+        <v>1.2431470200000265</v>
+      </c>
+      <c r="D11">
+        <v>-8.6857719999949623E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.6138856100000489</v>
       </c>
     </row>
   </sheetData>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
     <sheet name="overlayer" sheetId="2" r:id="rId2"/>
     <sheet name="overlayer-del" sheetId="6" r:id="rId3"/>
     <sheet name="island" sheetId="3" r:id="rId4"/>
-    <sheet name="paral" sheetId="4" r:id="rId5"/>
-    <sheet name="paral-del" sheetId="7" r:id="rId6"/>
-    <sheet name="fix-paral" sheetId="8" r:id="rId7"/>
-    <sheet name="fix-paral-v2" sheetId="10" r:id="rId8"/>
-    <sheet name="fix2-paral" sheetId="13" r:id="rId9"/>
+    <sheet name="island-del" sheetId="14" r:id="rId5"/>
+    <sheet name="paral" sheetId="4" r:id="rId6"/>
+    <sheet name="paral-stable" sheetId="15" r:id="rId7"/>
+    <sheet name="paral-del" sheetId="7" r:id="rId8"/>
+    <sheet name="fix-paral" sheetId="8" r:id="rId9"/>
+    <sheet name="fix-paral-v2" sheetId="10" r:id="rId10"/>
+    <sheet name="fix2-paral" sheetId="13" r:id="rId11"/>
+    <sheet name="paral-new" sheetId="16" r:id="rId12"/>
+    <sheet name="island-new" sheetId="17" r:id="rId13"/>
+    <sheet name="overly-new" sheetId="18" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="141">
   <si>
     <t>top</t>
   </si>
@@ -396,6 +401,60 @@
   </si>
   <si>
     <t>Pure</t>
+  </si>
+  <si>
+    <t>Note: single for both top and near sites</t>
+  </si>
+  <si>
+    <t>Note: for top2, top3, hollow1 and hollow2 the initial structures are optimized pure surface of each doped system.</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>intial structures are all the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor. *HOCO  </t>
+  </si>
+  <si>
+    <t>Cor. *CO</t>
+  </si>
+  <si>
+    <t>Cor. *OH</t>
+  </si>
+  <si>
+    <t>Cor. *H</t>
   </si>
 </sst>
 </file>
@@ -411,12 +470,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -446,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -456,6 +521,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,8 +988,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>197140</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>186705</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -950,6 +1020,163 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91185</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="1"/>
+          <a:ext cx="3691635" cy="2777191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223896</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157566</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5100696" y="2768226"/>
+          <a:ext cx="3591270" cy="2447906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180855</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8668870" y="0"/>
+          <a:ext cx="3703985" cy="2777131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209179</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>197140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743579" y="2749923"/>
+          <a:ext cx="3645561" cy="2775666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1106,7 +1333,164 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155730</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38032</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5032530" y="0"/>
+          <a:ext cx="4149502" cy="3118757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220279</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303893</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5097079" y="3352800"/>
+          <a:ext cx="3741214" cy="2564942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>416234</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9289143" y="0"/>
+          <a:ext cx="3928691" cy="3115927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>468879</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086849" y="3041650"/>
+          <a:ext cx="4183630" cy="3118648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1412,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,7 +1828,7 @@
       <c r="D2">
         <v>-0.47390528999999937</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1464,7 +1848,7 @@
       <c r="D3">
         <v>-0.2174370699999546</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1866,7 @@
       <c r="D4">
         <v>-0.14964087999998732</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1884,7 @@
       <c r="D5">
         <v>-0.46813244999997927</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1902,7 @@
       <c r="D6">
         <v>-0.85262562000002085</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1538,7 +1922,7 @@
       <c r="D7">
         <v>-0.2269436999999872</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1940,7 @@
       <c r="D8">
         <v>-0.20223598000000642</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1958,7 @@
       <c r="D9">
         <v>-0.89434942999997169</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1976,7 @@
       <c r="D10">
         <v>-0.86357551000002708</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1612,7 +1996,7 @@
       <c r="D11">
         <v>-6.6925000000370716E-3</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +2014,7 @@
       <c r="D12">
         <v>-6.8335939999991879E-2</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +2032,7 @@
       <c r="D13">
         <v>-0.86053233000000695</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1666,7 +2050,7 @@
       <c r="D14">
         <v>-0.26818239999999527</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1686,7 +2070,7 @@
       <c r="D15">
         <v>-0.11620982000004609</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1704,7 +2088,7 @@
       <c r="D16">
         <v>-9.8632580000009185E-2</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1722,7 +2106,7 @@
       <c r="D17">
         <v>-0.26599593000002564</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1740,7 +2124,7 @@
       <c r="D18">
         <v>-9.815918000003343E-2</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1760,7 +2144,7 @@
       <c r="D19">
         <v>-5.3214160000033317E-2</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1778,7 +2162,7 @@
       <c r="D20">
         <v>-4.8406859999994722E-2</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +2180,7 @@
       <c r="D21">
         <v>-5.4062390000007454E-2</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +2198,7 @@
       <c r="D22">
         <v>-0.89082682999997509</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1834,7 +2218,7 @@
       <c r="D23">
         <v>-0.1189346599999741</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +2236,7 @@
       <c r="D24">
         <v>-7.2080819999991164E-2</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1870,7 +2254,7 @@
       <c r="D25">
         <v>-0.88030807000000699</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1888,7 +2272,7 @@
       <c r="D26">
         <v>-0.12092018999998722</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1908,7 +2292,7 @@
       <c r="D27">
         <v>-0.21580672000004064</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1926,7 +2310,7 @@
       <c r="D28">
         <v>-0.16655131000003998</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +2328,7 @@
       <c r="D29">
         <v>-0.40859361000002004</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +2346,7 @@
       <c r="D30">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1982,7 +2366,7 @@
       <c r="D31">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2000,12 +2384,12 @@
       <c r="D32">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -2018,9 +2402,14 @@
       <c r="D33">
         <v>-0.16012846000000458</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2040,12 +2429,2013 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>1.3224046999999817</v>
+      </c>
+      <c r="C2">
+        <v>0.36228857999998887</v>
+      </c>
+      <c r="D2">
+        <v>0.62363214999998418</v>
+      </c>
+      <c r="E2">
+        <v>1.5483969799999877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>1.2558818000000431</v>
+      </c>
+      <c r="C3">
+        <v>-9.2459299999578803E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.37718951000004308</v>
+      </c>
+      <c r="E3">
+        <v>1.7748356699999968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>1.3157190599999811</v>
+      </c>
+      <c r="C4">
+        <v>-0.42506751000001408</v>
+      </c>
+      <c r="D4">
+        <v>0.44255199000001921</v>
+      </c>
+      <c r="E4">
+        <v>1.1111135199999844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>5.0359887900000224</v>
+      </c>
+      <c r="C5">
+        <v>-0.26704410000001566</v>
+      </c>
+      <c r="D5">
+        <v>0.78110279000002647</v>
+      </c>
+      <c r="E5">
+        <v>5.0758196500000086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>7.2494961999999994</v>
+      </c>
+      <c r="C6">
+        <v>-0.12158676000000845</v>
+      </c>
+      <c r="D6">
+        <v>0.90197768999995942</v>
+      </c>
+      <c r="E6">
+        <v>1.0561481899999685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>3.9371756899999926</v>
+      </c>
+      <c r="C7">
+        <v>2.1287301500000293</v>
+      </c>
+      <c r="D7">
+        <v>0.67269715000002561</v>
+      </c>
+      <c r="E7">
+        <v>4.3027330000000266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>1.4372809499999906</v>
+      </c>
+      <c r="C8">
+        <v>-0.1136548500000405</v>
+      </c>
+      <c r="D8">
+        <v>0.71391196999996209</v>
+      </c>
+      <c r="E8">
+        <v>1.7747512499999893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>1.1533683300000237</v>
+      </c>
+      <c r="C9">
+        <v>-0.46484588999998699</v>
+      </c>
+      <c r="D9">
+        <v>0.77301744000003891</v>
+      </c>
+      <c r="E9">
+        <v>0.6284460500000173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>1.2980777600000013</v>
+      </c>
+      <c r="C10">
+        <v>-0.36288787000000333</v>
+      </c>
+      <c r="D10">
+        <v>1.021098329999965</v>
+      </c>
+      <c r="E10">
+        <v>0.72016803000000573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>1.0930377099999649</v>
+      </c>
+      <c r="C2">
+        <v>-0.18068025000001775</v>
+      </c>
+      <c r="D2">
+        <v>0.58226802000000744</v>
+      </c>
+      <c r="E2">
+        <v>1.5477201599999639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>0.6802157899999659</v>
+      </c>
+      <c r="C3">
+        <v>-0.93048923000002937</v>
+      </c>
+      <c r="D3">
+        <v>0.13987530999997189</v>
+      </c>
+      <c r="E3">
+        <v>1.1374481199999686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>0.44667221999997109</v>
+      </c>
+      <c r="C4">
+        <v>-1.1917401200000146</v>
+      </c>
+      <c r="D4">
+        <v>0.18016113999998806</v>
+      </c>
+      <c r="E4">
+        <v>4.4326209999989263E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>0.41171435000000001</v>
+      </c>
+      <c r="C5">
+        <v>-1.4666577900000508</v>
+      </c>
+      <c r="D5">
+        <v>3.2322689999993326E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.48577454000000353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0.41179347999996052</v>
+      </c>
+      <c r="C6">
+        <v>-1.5510065600000136</v>
+      </c>
+      <c r="D6">
+        <v>-2.6472780000013518E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.64357913999996663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.46497584000001124</v>
+      </c>
+      <c r="C7">
+        <v>-1.4133659500000082</v>
+      </c>
+      <c r="D7">
+        <v>-2.9619099999998344E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.84848458000002802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>1.0980333799999928</v>
+      </c>
+      <c r="C8">
+        <v>0.67547224000003858</v>
+      </c>
+      <c r="D8">
+        <v>0.50685440000000126</v>
+      </c>
+      <c r="E8">
+        <v>1.8920219400000442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>0.58375331000000896</v>
+      </c>
+      <c r="C9">
+        <v>-0.84183633999998086</v>
+      </c>
+      <c r="D9">
+        <v>0.51406407000001009</v>
+      </c>
+      <c r="E9">
+        <v>-0.13092220000000543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>0.16428871000003964</v>
+      </c>
+      <c r="C10">
+        <v>-0.91122442999999897</v>
+      </c>
+      <c r="D10">
+        <v>0.42569059999998826</v>
+      </c>
+      <c r="E10">
+        <v>-0.58508040000000028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11">
+        <v>1.2431470200000265</v>
+      </c>
+      <c r="C11">
+        <v>-8.6857719999949623E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.80330677000005535</v>
+      </c>
+      <c r="E11">
+        <v>2.6138856100000489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C2">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E2">
+        <v>1.4792290899999707</v>
+      </c>
+      <c r="F2">
+        <v>0.32753287999996727</v>
+      </c>
+      <c r="G2">
+        <v>-0.67229998999999374</v>
+      </c>
+      <c r="H2">
+        <v>0.46962667000001757</v>
+      </c>
+      <c r="I2">
+        <v>1.408078190000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>-0.20907174000002415</v>
+      </c>
+      <c r="C3">
+        <v>-0.87727053999997828</v>
+      </c>
+      <c r="D3">
+        <v>0.281680849999979</v>
+      </c>
+      <c r="E3">
+        <v>-1.6635917900000172</v>
+      </c>
+      <c r="F3">
+        <v>-1.2442060100000387</v>
+      </c>
+      <c r="G3">
+        <v>-0.62952824999995904</v>
+      </c>
+      <c r="H3">
+        <v>0.14427075999997596</v>
+      </c>
+      <c r="I3">
+        <v>-1.9718484399999929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>9.4676059999972306E-2</v>
+      </c>
+      <c r="C4">
+        <v>-0.72374954000002312</v>
+      </c>
+      <c r="D4">
+        <v>0.6455431900000046</v>
+      </c>
+      <c r="E4">
+        <v>-0.55343082000003596</v>
+      </c>
+      <c r="F4">
+        <v>-0.93754771000000092</v>
+      </c>
+      <c r="G4">
+        <v>-0.87450112999999341</v>
+      </c>
+      <c r="H4">
+        <v>0.51519477999999408</v>
+      </c>
+      <c r="I4">
+        <v>-1.4442760900000358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0.17855065000002268</v>
+      </c>
+      <c r="C5">
+        <v>-0.91048215000000177</v>
+      </c>
+      <c r="D5">
+        <v>0.47335465000002541</v>
+      </c>
+      <c r="E5">
+        <v>-0.1212371599999833</v>
+      </c>
+      <c r="F5">
+        <v>-0.64982373999999909</v>
+      </c>
+      <c r="G5">
+        <v>-1.2691390600000378</v>
+      </c>
+      <c r="H5">
+        <v>0.31154147000000121</v>
+      </c>
+      <c r="I5">
+        <v>-1.0279575799999825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>9.1546350000033083E-2</v>
+      </c>
+      <c r="C6">
+        <v>-1.2006317699999673</v>
+      </c>
+      <c r="D6">
+        <v>0.16462313999999578</v>
+      </c>
+      <c r="E6">
+        <v>0.52850589000000037</v>
+      </c>
+      <c r="F6">
+        <v>-1.0028811499999617</v>
+      </c>
+      <c r="G6">
+        <v>-1.9006452400000118</v>
+      </c>
+      <c r="H6">
+        <v>-8.1290500000439359E-3</v>
+      </c>
+      <c r="I6">
+        <v>-0.94947126000001481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.4771517399999996</v>
+      </c>
+      <c r="C7">
+        <v>-1.2387180599999912</v>
+      </c>
+      <c r="D7">
+        <v>0.30282821000002214</v>
+      </c>
+      <c r="E7">
+        <v>0.66190549000001875</v>
+      </c>
+      <c r="F7">
+        <v>2.5132729999984615E-2</v>
+      </c>
+      <c r="G7">
+        <v>-2.0845421999999818</v>
+      </c>
+      <c r="H7">
+        <v>-8.2156349999998657E-2</v>
+      </c>
+      <c r="I7">
+        <v>-0.2206903099999713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>0.21401460999998134</v>
+      </c>
+      <c r="C8">
+        <v>-1.1046020400000263</v>
+      </c>
+      <c r="D8">
+        <v>0.19173605999997489</v>
+      </c>
+      <c r="E8">
+        <v>0.76648327000001837</v>
+      </c>
+      <c r="F8">
+        <v>-0.18136762000001427</v>
+      </c>
+      <c r="G8">
+        <v>-1.7528062600000514</v>
+      </c>
+      <c r="H8">
+        <v>7.4059859999969557E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.18106297000000859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>0.6332342100000008</v>
+      </c>
+      <c r="C9">
+        <v>-0.54400558000002697</v>
+      </c>
+      <c r="D9">
+        <v>0.6103417099999926</v>
+      </c>
+      <c r="E9">
+        <v>1.2677218799999914</v>
+      </c>
+      <c r="F9">
+        <v>0.12213422000000973</v>
+      </c>
+      <c r="G9">
+        <v>-1.129300730000006</v>
+      </c>
+      <c r="H9">
+        <v>0.48796076000001376</v>
+      </c>
+      <c r="I9">
+        <v>0.80671528000002946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>1.2030278100000262</v>
+      </c>
+      <c r="C10">
+        <v>-0.20606281999999432</v>
+      </c>
+      <c r="D10">
+        <v>0.59273791000003184</v>
+      </c>
+      <c r="E10">
+        <v>1.2816491899999769</v>
+      </c>
+      <c r="F10">
+        <v>0.86870337000003728</v>
+      </c>
+      <c r="G10">
+        <v>-0.64019848999998352</v>
+      </c>
+      <c r="H10">
+        <v>0.1452859000000255</v>
+      </c>
+      <c r="I10">
+        <v>0.13304903999998396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0.43932067000001807</v>
+      </c>
+      <c r="C11">
+        <v>-0.16780110000001436</v>
+      </c>
+      <c r="D11">
+        <v>0.49108611999996965</v>
+      </c>
+      <c r="E11">
+        <v>0.25009572999997909</v>
+      </c>
+      <c r="F11">
+        <v>-0.47642840999999381</v>
+      </c>
+      <c r="G11">
+        <v>-0.12472618999998453</v>
+      </c>
+      <c r="H11">
+        <v>-0.27441047000002827</v>
+      </c>
+      <c r="I11">
+        <v>-0.44537363000002506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>-0.48236713000001119</v>
+      </c>
+      <c r="C12">
+        <v>-0.46473922000000734</v>
+      </c>
+      <c r="D12">
+        <v>0.86292896000002584</v>
+      </c>
+      <c r="E12">
+        <v>-1.0514199599999947</v>
+      </c>
+      <c r="F12">
+        <v>-1.6754570499999883</v>
+      </c>
+      <c r="G12">
+        <v>-0.48652057999998455</v>
+      </c>
+      <c r="H12">
+        <v>-0.15612454999996617</v>
+      </c>
+      <c r="I12">
+        <v>-2.2723194099999851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>0.20238396000000902</v>
+      </c>
+      <c r="C13">
+        <v>-0.69836635000000946</v>
+      </c>
+      <c r="D13">
+        <v>0.63594735000003011</v>
+      </c>
+      <c r="E13">
+        <v>-1.1041934599999954</v>
+      </c>
+      <c r="F13">
+        <v>-1.461039709999977</v>
+      </c>
+      <c r="G13">
+        <v>-0.80664298000004386</v>
+      </c>
+      <c r="H13">
+        <v>0.22181323000000175</v>
+      </c>
+      <c r="I13">
+        <v>-2.2132419600000239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0.12731257000000396</v>
+      </c>
+      <c r="C14">
+        <v>-0.7783340999999897</v>
+      </c>
+      <c r="D14">
+        <v>0.45073336999995872</v>
+      </c>
+      <c r="E14">
+        <v>-0.36898894000002747</v>
+      </c>
+      <c r="F14">
+        <v>-0.84600715999995346</v>
+      </c>
+      <c r="G14">
+        <v>-1.2214633199999927</v>
+      </c>
+      <c r="H14">
+        <v>0.25528392000000322</v>
+      </c>
+      <c r="I14">
+        <v>-1.7300939400000366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>-8.1079419999991575E-2</v>
+      </c>
+      <c r="C15">
+        <v>-1.0638068200000195</v>
+      </c>
+      <c r="D15">
+        <v>0.20672167999997937</v>
+      </c>
+      <c r="E15">
+        <v>0.20267458999999599</v>
+      </c>
+      <c r="F15">
+        <v>-0.93119288999998817</v>
+      </c>
+      <c r="G15">
+        <v>-1.7109974900000058</v>
+      </c>
+      <c r="H15">
+        <v>-6.3408330000023216E-2</v>
+      </c>
+      <c r="I15">
+        <v>-0.85105846999996038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0.29668052999999217</v>
+      </c>
+      <c r="C16">
+        <v>-1.3398479800000533</v>
+      </c>
+      <c r="D16">
+        <v>-9.7033170000039082E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.96402385999997842</v>
+      </c>
+      <c r="F16">
+        <v>-0.22593761999997897</v>
+      </c>
+      <c r="G16">
+        <v>-2.0626854100000234</v>
+      </c>
+      <c r="H16">
+        <v>-0.3032589900000251</v>
+      </c>
+      <c r="I16">
+        <v>0.52909068000000525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.49376295999995845</v>
+      </c>
+      <c r="C17">
+        <v>-0.73753684000001307</v>
+      </c>
+      <c r="D17">
+        <v>0.18362994999994653</v>
+      </c>
+      <c r="E17">
+        <v>1.4440940399999627</v>
+      </c>
+      <c r="F17">
+        <v>-0.21578098999999584</v>
+      </c>
+      <c r="G17">
+        <v>-1.6957887199999906</v>
+      </c>
+      <c r="H17">
+        <v>4.3952699999674216E-3</v>
+      </c>
+      <c r="I17">
+        <v>1.048753739999976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>1.5608885500000045</v>
+      </c>
+      <c r="C18">
+        <v>-0.1035354999999587</v>
+      </c>
+      <c r="D18">
+        <v>0.72725107000001499</v>
+      </c>
+      <c r="E18">
+        <v>1.7310061000000396</v>
+      </c>
+      <c r="F18">
+        <v>1.4272948899999736</v>
+      </c>
+      <c r="G18">
+        <v>-0.10421939999997143</v>
+      </c>
+      <c r="H18">
+        <v>-2.4622060000020429E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.98088866999999391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C2">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E2">
+        <v>1.4792290899999707</v>
+      </c>
+      <c r="F2">
+        <v>0.32753287999996727</v>
+      </c>
+      <c r="G2">
+        <v>-0.67229998999999374</v>
+      </c>
+      <c r="H2">
+        <v>0.46962667000001757</v>
+      </c>
+      <c r="I2">
+        <v>1.408078190000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>-0.38781861000002182</v>
+      </c>
+      <c r="C3">
+        <v>-0.53887365000002241</v>
+      </c>
+      <c r="D3">
+        <v>0.8334788399999904</v>
+      </c>
+      <c r="E3">
+        <v>-1.1664817500000217</v>
+      </c>
+      <c r="F3">
+        <v>-1.5319765699999945</v>
+      </c>
+      <c r="G3">
+        <v>-0.60765136000002862</v>
+      </c>
+      <c r="H3">
+        <v>-0.44221555999997308</v>
+      </c>
+      <c r="I3">
+        <v>-2.5214690099999948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>0.10669346999997087</v>
+      </c>
+      <c r="C4">
+        <v>-0.79540719999999432</v>
+      </c>
+      <c r="D4">
+        <v>0.63232099999998281</v>
+      </c>
+      <c r="E4">
+        <v>-0.75137249000001338</v>
+      </c>
+      <c r="F4">
+        <v>-0.60948184000001193</v>
+      </c>
+      <c r="G4">
+        <v>-0.94881198000001099</v>
+      </c>
+      <c r="H4">
+        <v>0.44002328999999163</v>
+      </c>
+      <c r="I4">
+        <v>-1.5196847200000057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>8.057561000002833E-2</v>
+      </c>
+      <c r="C5">
+        <v>-1.0797074600000034</v>
+      </c>
+      <c r="D5">
+        <v>0.27143843000003853</v>
+      </c>
+      <c r="E5">
+        <v>-0.20255842999997276</v>
+      </c>
+      <c r="F5">
+        <v>-0.63957160999997287</v>
+      </c>
+      <c r="G5">
+        <v>-1.3245080500000146</v>
+      </c>
+      <c r="H5">
+        <v>0.2137763699999975</v>
+      </c>
+      <c r="I5">
+        <v>-0.79589939000000731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>-0.28851254999996145</v>
+      </c>
+      <c r="C6">
+        <v>-1.3103844799999766</v>
+      </c>
+      <c r="D6">
+        <v>-9.8751220000004469E-2</v>
+      </c>
+      <c r="E6">
+        <v>-0.45127994999997645</v>
+      </c>
+      <c r="F6">
+        <v>-0.85071588999995784</v>
+      </c>
+      <c r="G6">
+        <v>-1.099591630000015</v>
+      </c>
+      <c r="H6">
+        <v>1.7746899999830923E-3</v>
+      </c>
+      <c r="I6">
+        <v>-0.64106690000001754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>-0.15955723000002964</v>
+      </c>
+      <c r="C7">
+        <v>-1.357516900000002</v>
+      </c>
+      <c r="D7">
+        <v>5.6392789999953674E-2</v>
+      </c>
+      <c r="E7">
+        <v>-2.8004680000000004E-2</v>
+      </c>
+      <c r="F7">
+        <v>-0.90778002000002944</v>
+      </c>
+      <c r="G7">
+        <v>-1.7930089799999624</v>
+      </c>
+      <c r="H7">
+        <v>-7.8368230000031236E-2</v>
+      </c>
+      <c r="I7">
+        <v>-0.24764780000000064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>0.47024493000002421</v>
+      </c>
+      <c r="C8">
+        <v>-0.90030351000000941</v>
+      </c>
+      <c r="D8">
+        <v>0.25367177000003194</v>
+      </c>
+      <c r="E8">
+        <v>0.8515528100000247</v>
+      </c>
+      <c r="F8">
+        <v>-6.9105339999975701E-2</v>
+      </c>
+      <c r="G8">
+        <v>-1.7312430200000168</v>
+      </c>
+      <c r="H8">
+        <v>8.7259730000020408E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.23358058000000392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>0.67499473999997717</v>
+      </c>
+      <c r="C9">
+        <v>-0.49399451999999577</v>
+      </c>
+      <c r="D9">
+        <v>0.6823573599999615</v>
+      </c>
+      <c r="E9">
+        <v>1.2971274999999687</v>
+      </c>
+      <c r="F9">
+        <v>0.13813594000002949</v>
+      </c>
+      <c r="G9">
+        <v>-1.0773507299999725</v>
+      </c>
+      <c r="H9">
+        <v>0.51028068999999432</v>
+      </c>
+      <c r="I9">
+        <v>0.73098485000000801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>1.2211955700000092</v>
+      </c>
+      <c r="C10">
+        <v>-0.25260202999998604</v>
+      </c>
+      <c r="D10">
+        <v>-0.3149625099999942</v>
+      </c>
+      <c r="E10">
+        <v>1.313962540000015</v>
+      </c>
+      <c r="F10">
+        <v>1.0117901000000304</v>
+      </c>
+      <c r="G10">
+        <v>-0.66684531999998775</v>
+      </c>
+      <c r="H10">
+        <v>-3.1020419099999761</v>
+      </c>
+      <c r="I10">
+        <v>0.386793520000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0.54101516000001793</v>
+      </c>
+      <c r="C11">
+        <v>-0.11389156000000789</v>
+      </c>
+      <c r="D11">
+        <v>0.69812883000002257</v>
+      </c>
+      <c r="E11">
+        <v>0.49900720000003185</v>
+      </c>
+      <c r="F11">
+        <v>-0.46244990999998636</v>
+      </c>
+      <c r="G11">
+        <v>-0.11454839000003325</v>
+      </c>
+      <c r="H11">
+        <v>-0.25020237999996953</v>
+      </c>
+      <c r="I11">
+        <v>-0.32701070999998683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>-2.7684356900000009</v>
+      </c>
+      <c r="C12">
+        <v>-2.8162229899999662</v>
+      </c>
+      <c r="D12">
+        <v>-1.3810041499999746</v>
+      </c>
+      <c r="E12">
+        <v>-2.6493337999999844</v>
+      </c>
+      <c r="F12">
+        <v>-1.8654243000000403</v>
+      </c>
+      <c r="G12">
+        <v>-0.47012813999998038</v>
+      </c>
+      <c r="H12">
+        <v>-0.12990530999997718</v>
+      </c>
+      <c r="I12">
+        <v>-2.7556925999999939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>-1.4495091499999941</v>
+      </c>
+      <c r="C13">
+        <v>-1.2740884800000405</v>
+      </c>
+      <c r="D13">
+        <v>-0.60284404000004388</v>
+      </c>
+      <c r="E13">
+        <v>-2.6112791200000252</v>
+      </c>
+      <c r="F13">
+        <v>-1.2363753699999731</v>
+      </c>
+      <c r="G13">
+        <v>-1.0350556300000395</v>
+      </c>
+      <c r="H13">
+        <v>-0.40586739000003336</v>
+      </c>
+      <c r="I13">
+        <v>-2.4933932899999909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0.14885378000001337</v>
+      </c>
+      <c r="C14">
+        <v>-0.94465296999998749</v>
+      </c>
+      <c r="D14">
+        <v>0.33234873000002763</v>
+      </c>
+      <c r="E14">
+        <v>-0.65930397999996648</v>
+      </c>
+      <c r="F14">
+        <v>-0.73745494000003164</v>
+      </c>
+      <c r="G14">
+        <v>-1.3953610500000142</v>
+      </c>
+      <c r="H14">
+        <v>7.0450970000016877E-2</v>
+      </c>
+      <c r="I14">
+        <v>-1.3372233199999832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0.12097152000000078</v>
+      </c>
+      <c r="C15">
+        <v>-0.76108612999996161</v>
+      </c>
+      <c r="D15">
+        <v>0.32452593000004226</v>
+      </c>
+      <c r="E15">
+        <v>-0.21816313999996373</v>
+      </c>
+      <c r="F15">
+        <v>-0.66912063000002009</v>
+      </c>
+      <c r="G15">
+        <v>-1.3410227900000056</v>
+      </c>
+      <c r="H15">
+        <v>0.12517029000002067</v>
+      </c>
+      <c r="I15">
+        <v>-1.0379530500000178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0.32770350999998099</v>
+      </c>
+      <c r="C16">
+        <v>-1.2081979100000186</v>
+      </c>
+      <c r="D16">
+        <v>-8.3344000000313834E-3</v>
+      </c>
+      <c r="E16">
+        <v>0.56544748999997774</v>
+      </c>
+      <c r="F16">
+        <v>-0.807931559999997</v>
+      </c>
+      <c r="G16">
+        <v>-2.265103250000033</v>
+      </c>
+      <c r="H16">
+        <v>-0.16826880000002875</v>
+      </c>
+      <c r="I16">
+        <v>9.7713779999973216E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.53514526999997569</v>
+      </c>
+      <c r="C17">
+        <v>-0.67420650000001991</v>
+      </c>
+      <c r="D17">
+        <v>0.26152698999998547</v>
+      </c>
+      <c r="E17">
+        <v>1.4022053700000279</v>
+      </c>
+      <c r="F17">
+        <v>-0.25557628000002497</v>
+      </c>
+      <c r="G17">
+        <v>-1.749524590000016</v>
+      </c>
+      <c r="H17">
+        <v>6.0258139999965987E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.82335751000003166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>1.5703051699999722</v>
+      </c>
+      <c r="C18">
+        <v>-9.2492750000014112E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.7453617199999978</v>
+      </c>
+      <c r="E18">
+        <v>-0.5604283400000063</v>
+      </c>
+      <c r="F18">
+        <v>1.41649091999999</v>
+      </c>
+      <c r="G18">
+        <v>-9.2389270000007073E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.5746911799999945</v>
+      </c>
+      <c r="I18">
+        <v>-2.886032500000018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C2">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E2">
+        <v>1.4792290899999707</v>
+      </c>
+      <c r="F2">
+        <v>0.32753287999996727</v>
+      </c>
+      <c r="G2">
+        <v>-0.67229998999999374</v>
+      </c>
+      <c r="H2">
+        <v>0.46962667000001757</v>
+      </c>
+      <c r="I2">
+        <v>1.408078190000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>-4.3438673199999691</v>
+      </c>
+      <c r="C3">
+        <v>-3.9108463999999632</v>
+      </c>
+      <c r="D3">
+        <v>-3.4633793999999587</v>
+      </c>
+      <c r="E3">
+        <v>-5.1614301599999717</v>
+      </c>
+      <c r="F3">
+        <v>-1.4081693700000071</v>
+      </c>
+      <c r="G3">
+        <v>-0.80558371999995337</v>
+      </c>
+      <c r="H3">
+        <v>-0.73233050999994775</v>
+      </c>
+      <c r="I3">
+        <v>-2.4722736099999643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>0.35867884999997868</v>
+      </c>
+      <c r="C4">
+        <v>-0.71073776000002375</v>
+      </c>
+      <c r="D4">
+        <v>0.79334990999995325</v>
+      </c>
+      <c r="E4">
+        <v>-0.61319269000002441</v>
+      </c>
+      <c r="F4">
+        <v>-0.63983961999998629</v>
+      </c>
+      <c r="G4">
+        <v>-0.9790504699999989</v>
+      </c>
+      <c r="H4">
+        <v>0.46789903999995586</v>
+      </c>
+      <c r="I4">
+        <v>-1.6258048699999867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0.18407494000000524</v>
+      </c>
+      <c r="C5">
+        <v>-0.92650837000001651</v>
+      </c>
+      <c r="D5">
+        <v>0.36663705000000091</v>
+      </c>
+      <c r="E5">
+        <v>-0.24708799999998154</v>
+      </c>
+      <c r="F5">
+        <v>-0.50602614000002832</v>
+      </c>
+      <c r="G5">
+        <v>-1.206210710000045</v>
+      </c>
+      <c r="H5">
+        <v>0.25705606000001735</v>
+      </c>
+      <c r="I5">
+        <v>-0.88002437999997118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>-0.21569508000000015</v>
+      </c>
+      <c r="C6">
+        <v>-1.5869512099999898</v>
+      </c>
+      <c r="D6">
+        <v>6.7274040000021795E-2</v>
+      </c>
+      <c r="E6">
+        <v>-0.61004850000002397</v>
+      </c>
+      <c r="F6">
+        <v>-0.8771793199999931</v>
+      </c>
+      <c r="G6">
+        <v>-1.8971270799999562</v>
+      </c>
+      <c r="H6">
+        <v>-6.896849999983079E-3</v>
+      </c>
+      <c r="I6">
+        <v>-0.61750697999999238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>-1.5655078099999966</v>
+      </c>
+      <c r="C7">
+        <v>-1.6387707199999628</v>
+      </c>
+      <c r="D7">
+        <v>-3.2582499999997072E-2</v>
+      </c>
+      <c r="E7">
+        <v>-5.7044750000007749E-2</v>
+      </c>
+      <c r="F7">
+        <v>-1.1696375999999984</v>
+      </c>
+      <c r="G7">
+        <v>-1.9576993999999619</v>
+      </c>
+      <c r="H7">
+        <v>-0.10208909000000022</v>
+      </c>
+      <c r="I7">
+        <v>-0.47468590000001631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>-0.73387263000001868</v>
+      </c>
+      <c r="C8">
+        <v>-1.2657133700000092</v>
+      </c>
+      <c r="D8">
+        <v>0.12634653999997836</v>
+      </c>
+      <c r="E8">
+        <v>0.20040155999996978</v>
+      </c>
+      <c r="F8">
+        <v>-0.92794552999999924</v>
+      </c>
+      <c r="G8">
+        <v>-1.7396563500000131</v>
+      </c>
+      <c r="H8">
+        <v>4.5555659999983344E-2</v>
+      </c>
+      <c r="I8">
+        <v>-0.10764647999999033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>-0.43849701000000296</v>
+      </c>
+      <c r="C9">
+        <v>-0.99902953999997557</v>
+      </c>
+      <c r="D9">
+        <v>0.38707785000001804</v>
+      </c>
+      <c r="E9">
+        <v>0.92983988000001228</v>
+      </c>
+      <c r="F9">
+        <v>-0.32043048999998947</v>
+      </c>
+      <c r="G9">
+        <v>-1.3418457499999992</v>
+      </c>
+      <c r="H9">
+        <v>0.38003903000002692</v>
+      </c>
+      <c r="I9">
+        <v>0.63691536999997789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>0.97426141999999372</v>
+      </c>
+      <c r="C10">
+        <v>-0.33272759999999302</v>
+      </c>
+      <c r="D10">
+        <v>1.2220835099999969</v>
+      </c>
+      <c r="E10">
+        <v>-0.10200532000000839</v>
+      </c>
+      <c r="F10">
+        <v>0.70530452999996696</v>
+      </c>
+      <c r="G10">
+        <v>-0.69882904000001567</v>
+      </c>
+      <c r="H10">
+        <v>1.1020942700000016</v>
+      </c>
+      <c r="I10">
+        <v>-0.42335687000003963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>-1.8984687899999924</v>
+      </c>
+      <c r="C11">
+        <v>-2.9733126300000041</v>
+      </c>
+      <c r="D11">
+        <v>-2.2996927999999817</v>
+      </c>
+      <c r="E11">
+        <v>-3.1554107600000143</v>
+      </c>
+      <c r="F11">
+        <v>0.20122116999998552</v>
+      </c>
+      <c r="G11">
+        <v>-0.15853783000002331</v>
+      </c>
+      <c r="H11">
+        <v>-0.27293974999998527</v>
+      </c>
+      <c r="I11">
+        <v>-1.2715316700000208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>-17.298802149999982</v>
+      </c>
+      <c r="C12">
+        <v>-9.8140458500000083</v>
+      </c>
+      <c r="D12">
+        <v>-15.120310050000008</v>
+      </c>
+      <c r="E12">
+        <v>-10.372831719999985</v>
+      </c>
+      <c r="F12">
+        <v>-1.7908969299999851</v>
+      </c>
+      <c r="G12">
+        <v>-1.2306495700000202</v>
+      </c>
+      <c r="H12">
+        <v>-1.2849941200000292</v>
+      </c>
+      <c r="I12">
+        <v>-2.3041859099999633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>-1.2524896100000089</v>
+      </c>
+      <c r="C13">
+        <v>-0.7486588800000451</v>
+      </c>
+      <c r="D13">
+        <v>-4.0701800000029653E-2</v>
+      </c>
+      <c r="E13">
+        <v>-1.9453657700000426</v>
+      </c>
+      <c r="F13">
+        <v>-1.7821494200000072</v>
+      </c>
+      <c r="G13">
+        <v>-1.1242173300000164</v>
+      </c>
+      <c r="H13">
+        <v>-0.59798846000001804</v>
+      </c>
+      <c r="I13">
+        <v>-2.5816604400000265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0.51947217000001755</v>
+      </c>
+      <c r="C14">
+        <v>-0.67962783999996113</v>
+      </c>
+      <c r="D14">
+        <v>0.3088068200000218</v>
+      </c>
+      <c r="E14">
+        <v>-0.46533319999999412</v>
+      </c>
+      <c r="F14">
+        <v>2.7944979999961372E-2</v>
+      </c>
+      <c r="G14">
+        <v>-1.0870236999999694</v>
+      </c>
+      <c r="H14">
+        <v>6.0956699999716868E-3</v>
+      </c>
+      <c r="I14">
+        <v>-1.396778540000033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0.3036590999999933</v>
+      </c>
+      <c r="C15">
+        <v>-1.1555867299999765</v>
+      </c>
+      <c r="D15">
+        <v>1.0455079999978079E-2</v>
+      </c>
+      <c r="E15">
+        <v>-0.17402517000001216</v>
+      </c>
+      <c r="F15">
+        <v>-5.8041959999979742E-2</v>
+      </c>
+      <c r="G15">
+        <v>-1.6600709699999872</v>
+      </c>
+      <c r="H15">
+        <v>-0.1539065000000126</v>
+      </c>
+      <c r="I15">
+        <v>-0.90011341000003631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>-2.7770149999991833E-2</v>
+      </c>
+      <c r="C16">
+        <v>-1.6305337499999784</v>
+      </c>
+      <c r="D16">
+        <v>-0.19441999999998716</v>
+      </c>
+      <c r="E16">
+        <v>0.62712786000001097</v>
+      </c>
+      <c r="F16">
+        <v>-0.2528645900000126</v>
+      </c>
+      <c r="G16">
+        <v>-2.0717989599999616</v>
+      </c>
+      <c r="H16">
+        <v>-0.30146715000001523</v>
+      </c>
+      <c r="I16">
+        <v>0.2736145400000205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.31295723999999181</v>
+      </c>
+      <c r="C17">
+        <v>-0.8096128999999852</v>
+      </c>
+      <c r="D17">
+        <v>0.17545718000001598</v>
+      </c>
+      <c r="E17">
+        <v>1.3497798900000171</v>
+      </c>
+      <c r="F17">
+        <v>-6.2121699999988511E-2</v>
+      </c>
+      <c r="G17">
+        <v>-1.5208988499999752</v>
+      </c>
+      <c r="H17">
+        <v>2.9486850000004505E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.083855689999988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>-1.06012740000001</v>
+      </c>
+      <c r="C18">
+        <v>-0.21840278000001412</v>
+      </c>
+      <c r="D18">
+        <v>1.5808018199999689</v>
+      </c>
+      <c r="E18">
+        <v>-1.085685290000034</v>
+      </c>
+      <c r="F18">
+        <v>-3.1845146099999906</v>
+      </c>
+      <c r="G18">
+        <v>-9.5289889999998323E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.6431593299999956</v>
+      </c>
+      <c r="I18">
+        <v>-3.1116073700000206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2080,7 +4470,7 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2103,7 +4493,7 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +4514,7 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2147,7 +4537,7 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2168,7 +4558,7 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2191,7 +4581,7 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2212,7 +4602,7 @@
       <c r="E8">
         <v>0.14226739000000999</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2235,7 +4625,7 @@
       <c r="E9">
         <v>4.2632153400000252</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2256,7 +4646,7 @@
       <c r="E10">
         <v>0.51245177000002196</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2279,7 +4669,7 @@
       <c r="E11">
         <v>8.3088318700000432</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2300,7 +4690,7 @@
       <c r="E12">
         <v>0.62535685999999169</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2323,7 +4713,7 @@
       <c r="E13">
         <v>6.3772676000000192</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2344,7 +4734,7 @@
       <c r="E14">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2367,7 +4757,7 @@
       <c r="E15">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +4778,7 @@
       <c r="E16">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2411,45 +4801,73 @@
       <c r="E17">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18">
-        <v>0.39819529000003895</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2.4138902600000089</v>
       </c>
       <c r="C18">
-        <v>0.40428681000001943</v>
+        <v>-3.1653412399999863</v>
       </c>
       <c r="D18">
-        <v>-0.36175536000001252</v>
+        <v>-0.91214769999998602</v>
+      </c>
+      <c r="E18">
+        <v>-1.8782816399999738</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B19">
-        <v>0.34333687000002255</v>
+        <v>-8.200206999999482E-2</v>
       </c>
       <c r="C19">
-        <v>0.41762293999999001</v>
+        <v>-1.3729135799999992</v>
       </c>
       <c r="D19">
-        <v>-0.16012846000000458</v>
+        <v>-0.9108394400000126</v>
+      </c>
+      <c r="E19">
+        <v>-1.8217238399999665</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>0.39819529000003895</v>
+      </c>
+      <c r="C20">
+        <v>0.40428681000001943</v>
+      </c>
+      <c r="D20">
+        <v>-0.36175536000001252</v>
+      </c>
+      <c r="E20">
+        <v>1.4798479900000339</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>17</v>
@@ -2457,19 +4875,32 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>0.34333687000002255</v>
+      </c>
+      <c r="C21">
+        <v>0.41762293999999001</v>
+      </c>
+      <c r="D21">
+        <v>-0.16012846000000458</v>
+      </c>
+      <c r="E21">
+        <v>2.0275838700000386</v>
+      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -2486,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2522,7 +4953,7 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2545,7 +4976,7 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2566,7 +4997,7 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2589,7 +5020,7 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2610,7 +5041,7 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2633,7 +5064,7 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2723,7 +5154,7 @@
       <c r="E11">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2746,7 +5177,7 @@
       <c r="E12">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2767,7 +5198,7 @@
       <c r="E13">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2790,7 +5221,7 @@
       <c r="E14">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2840,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2876,7 +5307,7 @@
       <c r="E2">
         <v>1.2935858699999963</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2899,7 +5330,7 @@
       <c r="E3">
         <v>-3.3286741500000026</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2920,7 +5351,7 @@
       <c r="E4">
         <v>-3.1104937299999924</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2941,7 +5372,7 @@
       <c r="E5">
         <v>-3.1437701200000183</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2962,7 +5393,7 @@
       <c r="E6">
         <v>-3.4894202499999856</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2983,7 +5414,7 @@
       <c r="E7">
         <v>-3.421031649999994</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
@@ -3004,7 +5435,7 @@
       <c r="E8">
         <v>1.0416510000008206E-2</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -3027,7 +5458,7 @@
       <c r="E9">
         <v>-4.2314792699999852</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
@@ -3048,7 +5479,7 @@
       <c r="E10">
         <v>-4.2303015099999666</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3069,7 +5500,7 @@
       <c r="E11">
         <v>-2.9591973099999982</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3090,7 +5521,7 @@
       <c r="E12">
         <v>-4.2312478699999669</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
@@ -3111,7 +5542,7 @@
       <c r="E13">
         <v>-4.2262306999999932</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
@@ -3132,7 +5563,7 @@
       <c r="E14">
         <v>-8.0094700000095109E-3</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3155,7 +5586,7 @@
       <c r="E15">
         <v>-3.2112205400000184</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
@@ -3176,7 +5607,7 @@
       <c r="E16">
         <v>-3.5570871599999996</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
@@ -3197,7 +5628,7 @@
       <c r="E17">
         <v>-2.2389596200000219</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
@@ -3218,7 +5649,7 @@
       <c r="E18">
         <v>-3.8757445999999809</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +5670,7 @@
       <c r="E19">
         <v>-3.2088812299999936</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
@@ -3260,7 +5691,7 @@
       <c r="E20">
         <v>0.2912446800000148</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3283,7 +5714,7 @@
       <c r="E21">
         <v>-0.61553360000001112</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3304,7 +5735,7 @@
       <c r="E22">
         <v>0.69130318999996598</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3325,7 +5756,7 @@
       <c r="E23">
         <v>-2.8091360300000097</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3346,7 +5777,7 @@
       <c r="E24">
         <v>-0.61524676000001</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
@@ -3367,7 +5798,7 @@
       <c r="E25">
         <v>-0.62828945000003023</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3388,7 +5819,7 @@
       <c r="E26">
         <v>0.46643433000000778</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3411,7 +5842,7 @@
       <c r="E27">
         <v>0.903472209999999</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3432,7 +5863,7 @@
       <c r="E28">
         <v>0.84148148000000811</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3453,7 +5884,7 @@
       <c r="E29">
         <v>0.39160640999998941</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
@@ -3474,7 +5905,7 @@
       <c r="E30">
         <v>0.4598667300000252</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
@@ -3495,7 +5926,7 @@
       <c r="E31">
         <v>0.43486789000000181</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="2" t="s">
         <v>25</v>
       </c>
@@ -3516,7 +5947,7 @@
       <c r="E32">
         <v>0.72828822000000537</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3539,7 +5970,7 @@
       <c r="E33">
         <v>-1.8093774300000027</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +5991,7 @@
       <c r="E34">
         <v>-2.8888200299999958</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="2" t="s">
         <v>22</v>
       </c>
@@ -3581,7 +6012,7 @@
       <c r="E35">
         <v>-2.920528319999979</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
         <v>23</v>
       </c>
@@ -3602,7 +6033,7 @@
       <c r="E36">
         <v>-3.7402288500000131</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
         <v>24</v>
       </c>
@@ -3623,7 +6054,7 @@
       <c r="E37">
         <v>-3.7541400699999676</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
         <v>25</v>
       </c>
@@ -3644,7 +6075,7 @@
       <c r="E38">
         <v>-0.10956448999998747</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3667,7 +6098,7 @@
       <c r="E39">
         <v>-3.3781302200000218</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
@@ -3688,7 +6119,7 @@
       <c r="E40">
         <v>-3.0962576600000111</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="2" t="s">
         <v>22</v>
       </c>
@@ -3709,7 +6140,7 @@
       <c r="E41">
         <v>-3.1365675500000143</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="2" t="s">
         <v>23</v>
       </c>
@@ -3730,7 +6161,7 @@
       <c r="E42">
         <v>-3.4310350099999787</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="2" t="s">
         <v>24</v>
       </c>
@@ -3751,7 +6182,7 @@
       <c r="E43">
         <v>-3.2458180800000114</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3772,7 +6203,7 @@
       <c r="E44">
         <v>-0.72050734000000238</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -3795,7 +6226,7 @@
       <c r="E45">
         <v>-3.5928139000000292</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="2" t="s">
         <v>21</v>
       </c>
@@ -3816,7 +6247,7 @@
       <c r="E46">
         <v>-2.9767799400000476</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="2" t="s">
         <v>22</v>
       </c>
@@ -3837,7 +6268,7 @@
       <c r="E47">
         <v>-2.9873096500000051</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="2" t="s">
         <v>23</v>
       </c>
@@ -3858,7 +6289,7 @@
       <c r="E48">
         <v>-3.5974591500000392</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="2" t="s">
         <v>24</v>
       </c>
@@ -3879,7 +6310,7 @@
       <c r="E49">
         <v>-3.6436352399999996</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="2" t="s">
         <v>25</v>
       </c>
@@ -3900,7 +6331,7 @@
       <c r="E50">
         <v>-2.3328917399999987</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -3923,7 +6354,7 @@
       <c r="E51">
         <v>-3.4867817600000044</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="2" t="s">
         <v>21</v>
       </c>
@@ -3944,7 +6375,7 @@
       <c r="E52">
         <v>-2.9845752900000284</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="2" t="s">
         <v>22</v>
       </c>
@@ -3965,7 +6396,7 @@
       <c r="E53">
         <v>-2.9731511300000384</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="2" t="s">
         <v>23</v>
       </c>
@@ -3986,7 +6417,7 @@
       <c r="E54">
         <v>-3.487692530000023</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="2" t="s">
         <v>24</v>
       </c>
@@ -4007,7 +6438,7 @@
       <c r="E55">
         <v>-3.5815205400000045</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="2" t="s">
         <v>25</v>
       </c>
@@ -4025,6 +6456,15 @@
       <c r="D56">
         <v>-0.36175536000001252</v>
       </c>
+      <c r="E56">
+        <v>1.4798479900000339</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -4039,9 +6479,17 @@
       <c r="D57">
         <v>-0.16012846000000458</v>
       </c>
+      <c r="E57">
+        <v>2.0275838700000386</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="F56:F57"/>
     <mergeCell ref="F38:F43"/>
     <mergeCell ref="F44:F49"/>
     <mergeCell ref="F50:F55"/>
@@ -4059,10 +6507,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4083,6 +6531,536 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>0.52909463999997497</v>
+      </c>
+      <c r="C2">
+        <v>0.11521397000000233</v>
+      </c>
+      <c r="D2">
+        <v>-0.89703549000000216</v>
+      </c>
+      <c r="E2">
+        <v>-8.0094700000095109E-3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>0.59258659999999663</v>
+      </c>
+      <c r="C3">
+        <v>0.82159746000000977</v>
+      </c>
+      <c r="D3">
+        <v>-0.34722054000001812</v>
+      </c>
+      <c r="E3">
+        <v>-3.2112205400000184</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0.81709783000001535</v>
+      </c>
+      <c r="C4">
+        <v>0.82967336000000413</v>
+      </c>
+      <c r="D4">
+        <v>-0.69308715999999926</v>
+      </c>
+      <c r="E4">
+        <v>-3.5570871599999996</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>2.3533267000000175</v>
+      </c>
+      <c r="C5">
+        <v>9.6500139999978085E-2</v>
+      </c>
+      <c r="D5">
+        <v>-0.36064843000002078</v>
+      </c>
+      <c r="E5">
+        <v>-3.8757445999999809</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.39988117000000711</v>
+      </c>
+      <c r="C6">
+        <v>0.39851039000000155</v>
+      </c>
+      <c r="D6">
+        <v>-0.90146645999998931</v>
+      </c>
+      <c r="E6">
+        <v>-3.2088812299999936</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>0.55006329000001797</v>
+      </c>
+      <c r="C7">
+        <v>0.581954850000034</v>
+      </c>
+      <c r="D7">
+        <v>-0.87950690999996972</v>
+      </c>
+      <c r="E7">
+        <v>0.46643433000000778</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>0.80922625999999509</v>
+      </c>
+      <c r="C8">
+        <v>0.81561882999999424</v>
+      </c>
+      <c r="D8">
+        <v>4.6668790000017779E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.84148148000000811</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>0.77175299999998215</v>
+      </c>
+      <c r="C9">
+        <v>0.83719989000001105</v>
+      </c>
+      <c r="D9">
+        <v>5.3982360000025764E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.39160640999998941</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>4.9608827599999969</v>
+      </c>
+      <c r="C10">
+        <v>0.90373871000001627</v>
+      </c>
+      <c r="D10">
+        <v>-0.88474699999999906</v>
+      </c>
+      <c r="E10">
+        <v>0.43486789000000181</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>0.66954960999998248</v>
+      </c>
+      <c r="C11">
+        <v>0.21053905999996259</v>
+      </c>
+      <c r="D11">
+        <v>-0.76978650000000393</v>
+      </c>
+      <c r="E11">
+        <v>-0.72050734000000238</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>0.60095146999997651</v>
+      </c>
+      <c r="C12">
+        <v>0.42926704999995335</v>
+      </c>
+      <c r="D12">
+        <v>-0.7293163000000451</v>
+      </c>
+      <c r="E12">
+        <v>-3.5928139000000292</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>0.10989591999997783</v>
+      </c>
+      <c r="C13">
+        <v>0.93007616999999554</v>
+      </c>
+      <c r="D13">
+        <v>-0.1131685600000143</v>
+      </c>
+      <c r="E13">
+        <v>-2.9767799400000476</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>0.92017715999997263</v>
+      </c>
+      <c r="C14">
+        <v>1.0310523999999535</v>
+      </c>
+      <c r="D14">
+        <v>-0.12343152000004842</v>
+      </c>
+      <c r="E14">
+        <v>-2.9873096500000051</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>0.63966034999997801</v>
+      </c>
+      <c r="C15">
+        <v>0.25337204999998475</v>
+      </c>
+      <c r="D15">
+        <v>-0.73360147000004794</v>
+      </c>
+      <c r="E15">
+        <v>-3.5974591500000392</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>0.65542941999995419</v>
+      </c>
+      <c r="C16">
+        <v>2.4437769999952064E-2</v>
+      </c>
+      <c r="D16">
+        <v>-0.78067624000004265</v>
+      </c>
+      <c r="E16">
+        <v>-3.6436352399999996</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17">
+        <v>-0.31867588000000824</v>
+      </c>
+      <c r="C17">
+        <v>0.1148679699999664</v>
+      </c>
+      <c r="D17">
+        <v>-0.71605023000000223</v>
+      </c>
+      <c r="E17">
+        <v>-2.3328917399999987</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>0.74641378000000413</v>
+      </c>
+      <c r="C18">
+        <v>-0.28549234000002999</v>
+      </c>
+      <c r="D18">
+        <v>-0.62266249000003349</v>
+      </c>
+      <c r="E18">
+        <v>-3.4867817600000044</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>1.1397924400000004</v>
+      </c>
+      <c r="C19">
+        <v>6.2152500000141053E-3</v>
+      </c>
+      <c r="D19">
+        <v>-0.12006500000000564</v>
+      </c>
+      <c r="E19">
+        <v>-2.9845752900000284</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20">
+        <v>1.0601308299999839</v>
+      </c>
+      <c r="C20">
+        <v>1.1119979599999854</v>
+      </c>
+      <c r="D20">
+        <v>-0.10880288000003624</v>
+      </c>
+      <c r="E20">
+        <v>-2.9731511300000384</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>1.0916419999993376E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.25293858999997409</v>
+      </c>
+      <c r="D21">
+        <v>-0.62317632000002199</v>
+      </c>
+      <c r="E21">
+        <v>-3.487692530000023</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>0.19046518999999007</v>
+      </c>
+      <c r="C22">
+        <v>-0.8198642699999934</v>
+      </c>
+      <c r="D22">
+        <v>-0.71752421000001654</v>
+      </c>
+      <c r="E22">
+        <v>-3.5815205400000045</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>0.39819529000003895</v>
+      </c>
+      <c r="C23">
+        <v>0.40428681000001943</v>
+      </c>
+      <c r="D23">
+        <v>-0.36175536000001252</v>
+      </c>
+      <c r="E23">
+        <v>1.4798479900000339</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>0.34333687000002255</v>
+      </c>
+      <c r="C24">
+        <v>0.41762293999999001</v>
+      </c>
+      <c r="D24">
+        <v>-0.16012846000000458</v>
+      </c>
+      <c r="E24">
+        <v>2.0275838700000386</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F7:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2">
@@ -4097,7 +7075,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -4120,7 +7098,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -4141,7 +7119,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -4162,7 +7140,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -4183,7 +7161,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -4204,7 +7182,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -4225,7 +7203,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -4248,7 +7226,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -4269,7 +7247,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -4290,7 +7268,7 @@
       <c r="E11">
         <v>0.58237949999998273</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" t="s">
         <v>24</v>
       </c>
@@ -4311,7 +7289,7 @@
       <c r="E12">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" t="s">
         <v>25</v>
       </c>
@@ -4332,7 +7310,7 @@
       <c r="E13">
         <v>1.573956569999988</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="G13" t="s">
         <v>26</v>
       </c>
@@ -4353,7 +7331,7 @@
       <c r="E14">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
@@ -4376,7 +7354,7 @@
       <c r="E15">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="G15" t="s">
         <v>21</v>
       </c>
@@ -4397,7 +7375,7 @@
       <c r="E16">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" t="s">
         <v>22</v>
       </c>
@@ -4418,7 +7396,7 @@
       <c r="E17">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="G17" t="s">
         <v>24</v>
       </c>
@@ -4439,7 +7417,7 @@
       <c r="E18">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="G18" t="s">
         <v>25</v>
       </c>
@@ -4460,7 +7438,7 @@
       <c r="E19">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -4481,7 +7459,7 @@
       <c r="E20">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
@@ -4504,7 +7482,7 @@
       <c r="E21">
         <v>3.3490576900000328</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="G21" t="s">
         <v>21</v>
       </c>
@@ -4525,7 +7503,7 @@
       <c r="E22">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
       <c r="G22" t="s">
         <v>22</v>
       </c>
@@ -4546,7 +7524,7 @@
       <c r="E23">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="5"/>
       <c r="G23" t="s">
         <v>24</v>
       </c>
@@ -4567,7 +7545,7 @@
       <c r="E24">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
       <c r="G24" t="s">
         <v>25</v>
       </c>
@@ -4588,7 +7566,7 @@
       <c r="E25">
         <v>2.0686931599999903</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" t="s">
         <v>26</v>
       </c>
@@ -4609,7 +7587,7 @@
       <c r="E26">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G26" t="s">
@@ -4632,7 +7610,7 @@
       <c r="E27">
         <v>5.2405252600000072</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" t="s">
         <v>21</v>
       </c>
@@ -4653,7 +7631,7 @@
       <c r="E28">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -4674,7 +7652,7 @@
       <c r="E29">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -4695,7 +7673,7 @@
       <c r="E30">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -4716,7 +7694,7 @@
       <c r="E31">
         <v>3.9270744799999684</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="G31" t="s">
         <v>26</v>
       </c>
@@ -4737,14 +7715,14 @@
       <c r="E32">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -4760,12 +7738,12 @@
       <c r="E33">
         <v>3.7204950799999588</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="5"/>
       <c r="G33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -4781,12 +7759,12 @@
       <c r="E34">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="5"/>
       <c r="G34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -4802,12 +7780,15 @@
       <c r="E35">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
       <c r="G35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -4823,12 +7804,12 @@
       <c r="E36">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="5"/>
       <c r="G36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4844,12 +7825,12 @@
       <c r="E37">
         <v>2.8620324599999472</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="5"/>
       <c r="G37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -4865,14 +7846,14 @@
       <c r="E38">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -4888,12 +7869,12 @@
       <c r="E39">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
       <c r="G39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -4909,12 +7890,12 @@
       <c r="E40">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="5"/>
       <c r="G40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -4930,12 +7911,12 @@
       <c r="E41">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="5"/>
       <c r="G41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -4951,12 +7932,12 @@
       <c r="E42">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="5"/>
       <c r="G42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>105</v>
       </c>
@@ -4972,12 +7953,12 @@
       <c r="E43">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="5"/>
       <c r="G43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -4993,14 +7974,14 @@
       <c r="E44">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -5016,12 +7997,12 @@
       <c r="E45">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="5"/>
       <c r="G45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -5037,12 +8018,12 @@
       <c r="E46">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="5"/>
       <c r="G46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -5058,12 +8039,12 @@
       <c r="E47">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="5"/>
       <c r="G47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -5079,7 +8060,7 @@
       <c r="E48">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="5"/>
       <c r="G48" t="s">
         <v>25</v>
       </c>
@@ -5100,7 +8081,7 @@
       <c r="E49">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="5"/>
       <c r="G49" t="s">
         <v>26</v>
       </c>
@@ -5121,7 +8102,7 @@
       <c r="E50">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
@@ -5144,7 +8125,7 @@
       <c r="E51">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="5"/>
       <c r="G51" t="s">
         <v>21</v>
       </c>
@@ -5165,7 +8146,7 @@
       <c r="E52">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="5"/>
       <c r="G52" t="s">
         <v>22</v>
       </c>
@@ -5186,7 +8167,7 @@
       <c r="E53">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="5"/>
       <c r="G53" t="s">
         <v>24</v>
       </c>
@@ -5207,7 +8188,7 @@
       <c r="E54">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="5"/>
       <c r="G54" t="s">
         <v>25</v>
       </c>
@@ -5228,7 +8209,7 @@
       <c r="E55">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="5"/>
       <c r="G55" t="s">
         <v>26</v>
       </c>
@@ -5246,6 +8227,15 @@
       <c r="D56">
         <v>-0.36175536000001252</v>
       </c>
+      <c r="E56">
+        <v>1.4798479900000339</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -5260,9 +8250,17 @@
       <c r="D57">
         <v>-0.16012846000000458</v>
       </c>
+      <c r="E57">
+        <v>2.0275838700000386</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="F56:F57"/>
     <mergeCell ref="F38:F43"/>
     <mergeCell ref="F44:F49"/>
     <mergeCell ref="F50:F55"/>
@@ -5278,7 +8276,255 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
+        <v>0.30880274999997637</v>
+      </c>
+      <c r="C2">
+        <v>0.42803430999997572</v>
+      </c>
+      <c r="D2">
+        <v>-0.60914288000003047</v>
+      </c>
+      <c r="E2">
+        <v>-0.11025560999998651</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>0.39247520999997887</v>
+      </c>
+      <c r="C3">
+        <v>0.2749350800000232</v>
+      </c>
+      <c r="D3">
+        <v>-1.0559062699999746</v>
+      </c>
+      <c r="E3">
+        <v>0.58237949999998273</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>0.19159297999998826</v>
+      </c>
+      <c r="C4">
+        <v>0.30265187000002269</v>
+      </c>
+      <c r="D4">
+        <v>-0.94618610000002867</v>
+      </c>
+      <c r="E4">
+        <v>-7.0613829999975675E-2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>0.26110365999999585</v>
+      </c>
+      <c r="C5">
+        <v>0.44244049000001295</v>
+      </c>
+      <c r="D5">
+        <v>-0.60128401999997472</v>
+      </c>
+      <c r="E5">
+        <v>2.4076566199999925</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>2.3585047199999774</v>
+      </c>
+      <c r="C6">
+        <v>0.79401803000000681</v>
+      </c>
+      <c r="D6">
+        <v>-0.72698954999997945</v>
+      </c>
+      <c r="E6">
+        <v>0.14794896999999674</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>0.75006715999995022</v>
+      </c>
+      <c r="C7">
+        <v>0.50803891999997886</v>
+      </c>
+      <c r="D7">
+        <v>-0.89810885000002294</v>
+      </c>
+      <c r="E7">
+        <v>-0.63753083000002198</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>0.23214134999999869</v>
+      </c>
+      <c r="C8">
+        <v>0.38989313999995856</v>
+      </c>
+      <c r="D8">
+        <v>-0.32964519000000259</v>
+      </c>
+      <c r="E8">
+        <v>1.6088602099999698</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>0.64353740000000625</v>
+      </c>
+      <c r="C9">
+        <v>8.6272329999974584E-2</v>
+      </c>
+      <c r="D9">
+        <v>-0.68670537000002163</v>
+      </c>
+      <c r="E9">
+        <v>-0.56529000000002361</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>0.58360837999997939</v>
+      </c>
+      <c r="C10">
+        <v>-0.18958799000001791</v>
+      </c>
+      <c r="D10">
+        <v>-0.76184023000001311</v>
+      </c>
+      <c r="E10">
+        <v>-1.2161505699999871</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0.39819529000003895</v>
+      </c>
+      <c r="C11">
+        <v>0.40428681000001943</v>
+      </c>
+      <c r="D11">
+        <v>-0.36175536000001252</v>
+      </c>
+      <c r="E11">
+        <v>1.4798479900000339</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
@@ -5318,7 +8564,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -5341,7 +8587,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -5362,7 +8608,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -5383,7 +8629,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -5404,7 +8650,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -5425,7 +8671,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -5446,7 +8692,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -5469,7 +8715,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -5490,7 +8736,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -5511,7 +8757,7 @@
       <c r="E11">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" t="s">
         <v>25</v>
       </c>
@@ -5532,7 +8778,7 @@
       <c r="E12">
         <v>1.573956569999988</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" t="s">
         <v>26</v>
       </c>
@@ -5553,7 +8799,7 @@
       <c r="E13">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
@@ -5576,7 +8822,7 @@
       <c r="E14">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" t="s">
         <v>21</v>
       </c>
@@ -5597,7 +8843,7 @@
       <c r="E15">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="G15" t="s">
         <v>22</v>
       </c>
@@ -5618,7 +8864,7 @@
       <c r="E16">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" t="s">
         <v>24</v>
       </c>
@@ -5639,7 +8885,7 @@
       <c r="E17">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="G17" t="s">
         <v>25</v>
       </c>
@@ -5660,7 +8906,7 @@
       <c r="E18">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="G18" t="s">
         <v>26</v>
       </c>
@@ -5681,7 +8927,7 @@
       <c r="E19">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G19" t="s">
@@ -5704,7 +8950,7 @@
       <c r="E20">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="G20" t="s">
         <v>22</v>
       </c>
@@ -5725,7 +8971,7 @@
       <c r="E21">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="G21" t="s">
         <v>24</v>
       </c>
@@ -5746,7 +8992,7 @@
       <c r="E22">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
       <c r="G22" t="s">
         <v>25</v>
       </c>
@@ -5767,7 +9013,7 @@
       <c r="E23">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -5790,7 +9036,7 @@
       <c r="E24">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
       <c r="G24" t="s">
         <v>22</v>
       </c>
@@ -5811,7 +9057,7 @@
       <c r="E25">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" t="s">
         <v>24</v>
       </c>
@@ -5832,7 +9078,7 @@
       <c r="E26">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5"/>
       <c r="G26" t="s">
         <v>25</v>
       </c>
@@ -5853,7 +9099,7 @@
       <c r="E27">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
@@ -5876,7 +9122,7 @@
       <c r="E28">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -5897,7 +9143,7 @@
       <c r="E29">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -5918,7 +9164,7 @@
       <c r="E30">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -5939,7 +9185,7 @@
       <c r="E31">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G31" t="s">
@@ -5962,7 +9208,7 @@
       <c r="E32">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5"/>
       <c r="G32" t="s">
         <v>21</v>
       </c>
@@ -5983,7 +9229,7 @@
       <c r="E33">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="5"/>
       <c r="G33" t="s">
         <v>22</v>
       </c>
@@ -6004,7 +9250,7 @@
       <c r="E34">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="5"/>
       <c r="G34" t="s">
         <v>24</v>
       </c>
@@ -6025,7 +9271,7 @@
       <c r="E35">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
       <c r="G35" t="s">
         <v>25</v>
       </c>
@@ -6046,7 +9292,7 @@
       <c r="E36">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="5"/>
       <c r="G36" t="s">
         <v>26</v>
       </c>
@@ -6067,7 +9313,7 @@
       <c r="E37">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
@@ -6090,7 +9336,7 @@
       <c r="E38">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="5"/>
       <c r="G38" t="s">
         <v>21</v>
       </c>
@@ -6111,7 +9357,7 @@
       <c r="E39">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
       <c r="G39" t="s">
         <v>22</v>
       </c>
@@ -6132,7 +9378,7 @@
       <c r="E40">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="5"/>
       <c r="G40" t="s">
         <v>24</v>
       </c>
@@ -6153,7 +9399,7 @@
       <c r="E41">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="5"/>
       <c r="G41" t="s">
         <v>25</v>
       </c>
@@ -6174,7 +9420,7 @@
       <c r="E42">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="5"/>
       <c r="G42" t="s">
         <v>26</v>
       </c>
@@ -6195,7 +9441,7 @@
       <c r="E43">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G43" t="s">
@@ -6218,7 +9464,7 @@
       <c r="E44">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="5"/>
       <c r="G44" t="s">
         <v>21</v>
       </c>
@@ -6239,7 +9485,7 @@
       <c r="E45">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="5"/>
       <c r="G45" t="s">
         <v>22</v>
       </c>
@@ -6260,7 +9506,7 @@
       <c r="E46">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="5"/>
       <c r="G46" t="s">
         <v>24</v>
       </c>
@@ -6281,7 +9527,7 @@
       <c r="E47">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="5"/>
       <c r="G47" t="s">
         <v>25</v>
       </c>
@@ -6302,7 +9548,7 @@
       <c r="E48">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="5"/>
       <c r="G48" t="s">
         <v>26</v>
       </c>
@@ -6352,25 +9598,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -6381,13 +9627,13 @@
         <v>112</v>
       </c>
       <c r="B2">
+        <v>1.323293929999966</v>
+      </c>
+      <c r="C2">
+        <v>0.36317780999997318</v>
+      </c>
+      <c r="D2">
         <v>0.62452137999996848</v>
-      </c>
-      <c r="C2">
-        <v>1.323293929999966</v>
-      </c>
-      <c r="D2">
-        <v>0.36317780999997318</v>
       </c>
       <c r="E2">
         <v>1.549286209999972</v>
@@ -6398,13 +9644,13 @@
         <v>113</v>
       </c>
       <c r="B3">
+        <v>1.2953661200000286</v>
+      </c>
+      <c r="C3">
+        <v>3.0238390000027593E-2</v>
+      </c>
+      <c r="D3">
         <v>0.41667383000002856</v>
-      </c>
-      <c r="C3">
-        <v>1.2953661200000286</v>
-      </c>
-      <c r="D3">
-        <v>3.0238390000027593E-2</v>
       </c>
       <c r="E3">
         <v>1.8143199899999822</v>
@@ -6415,13 +9661,13 @@
         <v>114</v>
       </c>
       <c r="B4">
+        <v>1.5321289799999707</v>
+      </c>
+      <c r="C4">
+        <v>-0.20865759000002448</v>
+      </c>
+      <c r="D4">
         <v>0.65896191000000881</v>
-      </c>
-      <c r="C4">
-        <v>1.5321289799999707</v>
-      </c>
-      <c r="D4">
-        <v>-0.20865759000002448</v>
       </c>
       <c r="E4">
         <v>1.327523439999974</v>
@@ -6432,13 +9678,13 @@
         <v>115</v>
       </c>
       <c r="B5">
+        <v>5.0359819200000295</v>
+      </c>
+      <c r="C5">
+        <v>-0.26705097000000855</v>
+      </c>
+      <c r="D5">
         <v>0.78109592000003358</v>
-      </c>
-      <c r="C5">
-        <v>5.0359819200000295</v>
-      </c>
-      <c r="D5">
-        <v>-0.26705097000000855</v>
       </c>
       <c r="E5">
         <v>5.0758127800000157</v>
@@ -6449,13 +9695,13 @@
         <v>116</v>
       </c>
       <c r="B6">
+        <v>7.2495412800000061</v>
+      </c>
+      <c r="C6">
+        <v>-0.12154168000000176</v>
+      </c>
+      <c r="D6">
         <v>0.90202276999996611</v>
-      </c>
-      <c r="C6">
-        <v>7.2495412800000061</v>
-      </c>
-      <c r="D6">
-        <v>-0.12154168000000176</v>
       </c>
       <c r="E6">
         <v>1.0561932699999752</v>
@@ -6466,13 +9712,13 @@
         <v>117</v>
       </c>
       <c r="B7">
+        <v>3.9371612999999459</v>
+      </c>
+      <c r="C7">
+        <v>2.1287157599999826</v>
+      </c>
+      <c r="D7">
         <v>0.67268275999997895</v>
-      </c>
-      <c r="C7">
-        <v>3.9371612999999459</v>
-      </c>
-      <c r="D7">
-        <v>2.1287157599999826</v>
       </c>
       <c r="E7">
         <v>4.3027186099999799</v>
@@ -6483,13 +9729,13 @@
         <v>118</v>
       </c>
       <c r="B8">
+        <v>1.4373770299999822</v>
+      </c>
+      <c r="C8">
+        <v>-0.11355877000004888</v>
+      </c>
+      <c r="D8">
         <v>0.71400804999995371</v>
-      </c>
-      <c r="C8">
-        <v>1.4373770299999822</v>
-      </c>
-      <c r="D8">
-        <v>-0.11355877000004888</v>
       </c>
       <c r="E8">
         <v>1.774847329999981</v>
@@ -6500,13 +9746,13 @@
         <v>119</v>
       </c>
       <c r="B9">
+        <v>1.1534045499999936</v>
+      </c>
+      <c r="C9">
+        <v>-0.46480967000001705</v>
+      </c>
+      <c r="D9">
         <v>0.77305366000000886</v>
-      </c>
-      <c r="C9">
-        <v>1.1534045499999936</v>
-      </c>
-      <c r="D9">
-        <v>-0.46480967000001705</v>
       </c>
       <c r="E9">
         <v>0.62848226999998724</v>
@@ -6517,400 +9763,16 @@
         <v>120</v>
       </c>
       <c r="B10">
+        <v>1.2981907700000082</v>
+      </c>
+      <c r="C10">
+        <v>-0.36277485999999648</v>
+      </c>
+      <c r="D10">
         <v>1.0212113399999718</v>
-      </c>
-      <c r="C10">
-        <v>1.2981907700000082</v>
-      </c>
-      <c r="D10">
-        <v>-0.36277485999999648</v>
       </c>
       <c r="E10">
         <v>0.72028104000001258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2">
-        <v>0.51033649999998643</v>
-      </c>
-      <c r="C2">
-        <v>1.2091090499999839</v>
-      </c>
-      <c r="D2">
-        <v>0.24899292999999112</v>
-      </c>
-      <c r="E2">
-        <v>1.43510132999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3">
-        <v>-10.940468019999976</v>
-      </c>
-      <c r="C3">
-        <v>-10.061775729999976</v>
-      </c>
-      <c r="D3">
-        <v>-11.326903459999977</v>
-      </c>
-      <c r="E3">
-        <v>-9.5428218600000232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4">
-        <v>0.40476639000001269</v>
-      </c>
-      <c r="C4">
-        <v>1.2779334599999745</v>
-      </c>
-      <c r="D4">
-        <v>-0.46285311000002061</v>
-      </c>
-      <c r="E4">
-        <v>1.0733279199999779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5">
-        <v>0.78064582000001037</v>
-      </c>
-      <c r="C5">
-        <v>5.0355318200000063</v>
-      </c>
-      <c r="D5">
-        <v>-0.26750107000003176</v>
-      </c>
-      <c r="E5">
-        <v>5.0753626799999925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6">
-        <v>0.90010909999994437</v>
-      </c>
-      <c r="C6">
-        <v>7.2476276099999843</v>
-      </c>
-      <c r="D6">
-        <v>-0.1234553500000235</v>
-      </c>
-      <c r="E6">
-        <v>1.0542795999999535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7">
-        <v>0.6676904500000016</v>
-      </c>
-      <c r="C7">
-        <v>3.9321689899999686</v>
-      </c>
-      <c r="D7">
-        <v>2.1237234500000053</v>
-      </c>
-      <c r="E7">
-        <v>4.2977263000000026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8">
-        <v>0.69297254999997149</v>
-      </c>
-      <c r="C8">
-        <v>1.41634153</v>
-      </c>
-      <c r="D8">
-        <v>-0.1345942700000311</v>
-      </c>
-      <c r="E8">
-        <v>1.7538118299999987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9">
-        <v>0.77127965999999715</v>
-      </c>
-      <c r="C9">
-        <v>1.1516305499999819</v>
-      </c>
-      <c r="D9">
-        <v>-0.46658367000002876</v>
-      </c>
-      <c r="E9">
-        <v>0.62670826999997553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10">
-        <v>1.0206506000000029</v>
-      </c>
-      <c r="C10">
-        <v>1.2976300300000392</v>
-      </c>
-      <c r="D10">
-        <v>-0.36333559999996545</v>
-      </c>
-      <c r="E10">
-        <v>0.71972030000004361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2">
-        <v>0.58226802000000744</v>
-      </c>
-      <c r="C2">
-        <v>1.0930377099999649</v>
-      </c>
-      <c r="D2">
-        <v>-0.18068025000001775</v>
-      </c>
-      <c r="E2">
-        <v>1.5477201599999639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3">
-        <v>0.13987530999997189</v>
-      </c>
-      <c r="C3">
-        <v>0.6802157899999659</v>
-      </c>
-      <c r="D3">
-        <v>-0.93048923000002937</v>
-      </c>
-      <c r="E3">
-        <v>1.1374481199999686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4">
-        <v>0.18016113999998806</v>
-      </c>
-      <c r="C4">
-        <v>0.44667221999997109</v>
-      </c>
-      <c r="D4">
-        <v>-1.1917401200000146</v>
-      </c>
-      <c r="E4">
-        <v>4.4326209999989263E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5">
-        <v>3.2322689999993326E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.41171435000000001</v>
-      </c>
-      <c r="D5">
-        <v>-1.4666577900000508</v>
-      </c>
-      <c r="E5">
-        <v>0.48577454000000353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6">
-        <v>-2.6472780000013518E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.41179347999996052</v>
-      </c>
-      <c r="D6">
-        <v>-1.5510065600000136</v>
-      </c>
-      <c r="E6">
-        <v>0.64357913999996663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7">
-        <v>-2.9619099999998344E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.46497584000001124</v>
-      </c>
-      <c r="D7">
-        <v>-1.4133659500000082</v>
-      </c>
-      <c r="E7">
-        <v>0.84848458000002802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8">
-        <v>0.50685440000000126</v>
-      </c>
-      <c r="C8">
-        <v>1.0980333799999928</v>
-      </c>
-      <c r="D8">
-        <v>0.67547224000003858</v>
-      </c>
-      <c r="E8">
-        <v>1.8920219400000442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9">
-        <v>0.51406407000001009</v>
-      </c>
-      <c r="C9">
-        <v>0.58375331000000896</v>
-      </c>
-      <c r="D9">
-        <v>-0.84183633999998086</v>
-      </c>
-      <c r="E9">
-        <v>-0.13092220000000543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10">
-        <v>0.42569059999998826</v>
-      </c>
-      <c r="C10">
-        <v>0.16428871000003964</v>
-      </c>
-      <c r="D10">
-        <v>-0.91122442999999897</v>
-      </c>
-      <c r="E10">
-        <v>-0.58508040000000028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11">
-        <v>0.80330677000005535</v>
-      </c>
-      <c r="C11">
-        <v>1.2431470200000265</v>
-      </c>
-      <c r="D11">
-        <v>-8.6857719999949623E-2</v>
-      </c>
-      <c r="E11">
-        <v>2.6138856100000489</v>
       </c>
     </row>
   </sheetData>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="fix-paral" sheetId="8" r:id="rId9"/>
     <sheet name="fix-paral-v2" sheetId="10" r:id="rId10"/>
     <sheet name="fix2-paral" sheetId="13" r:id="rId11"/>
-    <sheet name="paral-new" sheetId="16" r:id="rId12"/>
-    <sheet name="island-new" sheetId="17" r:id="rId13"/>
+    <sheet name="island-new" sheetId="17" r:id="rId12"/>
+    <sheet name="paral-new" sheetId="16" r:id="rId13"/>
     <sheet name="overly-new" sheetId="18" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -521,11 +521,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,15 +1062,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>223896</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>5976</xdr:rowOff>
+      <xdr:colOff>179446</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>157566</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>59932</xdr:rowOff>
+      <xdr:colOff>113116</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1087,7 +1087,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5100696" y="2768226"/>
+          <a:off x="5056246" y="3142876"/>
           <a:ext cx="3591270" cy="2447906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1138,15 +1138,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>209179</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171823</xdr:rowOff>
+      <xdr:colOff>285379</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>197140</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1090</xdr:rowOff>
+      <xdr:colOff>273340</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>64590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1163,8 +1163,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8743579" y="2749923"/>
-          <a:ext cx="3645561" cy="2775666"/>
+          <a:off x="8819779" y="2813423"/>
+          <a:ext cx="3645561" cy="2775667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,7 +1828,7 @@
       <c r="D2">
         <v>-0.47390528999999937</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1848,7 +1848,7 @@
       <c r="D3">
         <v>-0.2174370699999546</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="D4">
         <v>-0.14964087999998732</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="D5">
         <v>-0.46813244999997927</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="D6">
         <v>-0.85262562000002085</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1922,7 +1922,7 @@
       <c r="D7">
         <v>-0.2269436999999872</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="D8">
         <v>-0.20223598000000642</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="D9">
         <v>-0.89434942999997169</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="D10">
         <v>-0.86357551000002708</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1996,7 +1996,7 @@
       <c r="D11">
         <v>-6.6925000000370716E-3</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="D12">
         <v>-6.8335939999991879E-2</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="D13">
         <v>-0.86053233000000695</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="D14">
         <v>-0.26818239999999527</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2070,7 +2070,7 @@
       <c r="D15">
         <v>-0.11620982000004609</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="D16">
         <v>-9.8632580000009185E-2</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="D17">
         <v>-0.26599593000002564</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="D18">
         <v>-9.815918000003343E-2</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2144,7 +2144,7 @@
       <c r="D19">
         <v>-5.3214160000033317E-2</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="D20">
         <v>-4.8406859999994722E-2</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="D21">
         <v>-5.4062390000007454E-2</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="D22">
         <v>-0.89082682999997509</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2218,7 +2218,7 @@
       <c r="D23">
         <v>-0.1189346599999741</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="D24">
         <v>-7.2080819999991164E-2</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="D25">
         <v>-0.88030807000000699</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="D26">
         <v>-0.12092018999998722</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2292,7 +2292,7 @@
       <c r="D27">
         <v>-0.21580672000004064</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="D28">
         <v>-0.16655131000003998</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="D29">
         <v>-0.40859361000002004</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="D30">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2366,7 +2366,7 @@
       <c r="D31">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="D32">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="D33">
         <v>-0.16012846000000458</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2836,16 +2836,16 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2883,28 +2883,28 @@
         <v>126</v>
       </c>
       <c r="B3">
-        <v>-0.20907174000002415</v>
+        <v>-0.38781861000002182</v>
       </c>
       <c r="C3">
-        <v>-0.87727053999997828</v>
+        <v>-0.53887365000002241</v>
       </c>
       <c r="D3">
-        <v>0.281680849999979</v>
+        <v>0.8334788399999904</v>
       </c>
       <c r="E3">
-        <v>-1.6635917900000172</v>
+        <v>-1.1664817500000217</v>
       </c>
       <c r="F3">
-        <v>-1.2442060100000387</v>
+        <v>-1.5319765699999945</v>
       </c>
       <c r="G3">
-        <v>-0.62952824999995904</v>
+        <v>-0.60765136000002862</v>
       </c>
       <c r="H3">
-        <v>0.14427075999997596</v>
+        <v>-0.44221555999997308</v>
       </c>
       <c r="I3">
-        <v>-1.9718484399999929</v>
+        <v>-2.5214690099999948</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2912,28 +2912,28 @@
         <v>119</v>
       </c>
       <c r="B4">
-        <v>9.4676059999972306E-2</v>
+        <v>0.10669346999997087</v>
       </c>
       <c r="C4">
-        <v>-0.72374954000002312</v>
+        <v>-0.79540719999999432</v>
       </c>
       <c r="D4">
-        <v>0.6455431900000046</v>
+        <v>0.63232099999998281</v>
       </c>
       <c r="E4">
-        <v>-0.55343082000003596</v>
+        <v>-0.75137249000001338</v>
       </c>
       <c r="F4">
-        <v>-0.93754771000000092</v>
+        <v>-0.60948184000001193</v>
       </c>
       <c r="G4">
-        <v>-0.87450112999999341</v>
+        <v>-0.94881198000001099</v>
       </c>
       <c r="H4">
-        <v>0.51519477999999408</v>
+        <v>0.44002328999999163</v>
       </c>
       <c r="I4">
-        <v>-1.4442760900000358</v>
+        <v>-1.5196847200000057</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2941,28 +2941,28 @@
         <v>114</v>
       </c>
       <c r="B5">
-        <v>0.17855065000002268</v>
+        <v>8.057561000002833E-2</v>
       </c>
       <c r="C5">
-        <v>-0.91048215000000177</v>
+        <v>-1.0797074600000034</v>
       </c>
       <c r="D5">
-        <v>0.47335465000002541</v>
+        <v>0.27143843000003853</v>
       </c>
       <c r="E5">
-        <v>-0.1212371599999833</v>
+        <v>-0.20255842999997276</v>
       </c>
       <c r="F5">
-        <v>-0.64982373999999909</v>
+        <v>-0.63957160999997287</v>
       </c>
       <c r="G5">
-        <v>-1.2691390600000378</v>
+        <v>-1.3245080500000146</v>
       </c>
       <c r="H5">
-        <v>0.31154147000000121</v>
+        <v>0.2137763699999975</v>
       </c>
       <c r="I5">
-        <v>-1.0279575799999825</v>
+        <v>-0.79589939000000731</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -2970,28 +2970,28 @@
         <v>116</v>
       </c>
       <c r="B6">
-        <v>9.1546350000033083E-2</v>
+        <v>-0.28851254999996145</v>
       </c>
       <c r="C6">
-        <v>-1.2006317699999673</v>
+        <v>-1.3103844799999766</v>
       </c>
       <c r="D6">
-        <v>0.16462313999999578</v>
+        <v>-9.8751220000004469E-2</v>
       </c>
       <c r="E6">
-        <v>0.52850589000000037</v>
+        <v>-0.45127994999997645</v>
       </c>
       <c r="F6">
-        <v>-1.0028811499999617</v>
+        <v>-0.85071588999995784</v>
       </c>
       <c r="G6">
-        <v>-1.9006452400000118</v>
+        <v>-1.099591630000015</v>
       </c>
       <c r="H6">
-        <v>-8.1290500000439359E-3</v>
+        <v>1.7746899999830923E-3</v>
       </c>
       <c r="I6">
-        <v>-0.94947126000001481</v>
+        <v>-0.64106690000001754</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2999,28 +2999,28 @@
         <v>117</v>
       </c>
       <c r="B7">
-        <v>0.4771517399999996</v>
+        <v>-0.15955723000002964</v>
       </c>
       <c r="C7">
-        <v>-1.2387180599999912</v>
+        <v>-1.357516900000002</v>
       </c>
       <c r="D7">
-        <v>0.30282821000002214</v>
+        <v>5.6392789999953674E-2</v>
       </c>
       <c r="E7">
-        <v>0.66190549000001875</v>
+        <v>-2.8004680000000004E-2</v>
       </c>
       <c r="F7">
-        <v>2.5132729999984615E-2</v>
+        <v>-0.90778002000002944</v>
       </c>
       <c r="G7">
-        <v>-2.0845421999999818</v>
+        <v>-1.7930089799999624</v>
       </c>
       <c r="H7">
-        <v>-8.2156349999998657E-2</v>
+        <v>-7.8368230000031236E-2</v>
       </c>
       <c r="I7">
-        <v>-0.2206903099999713</v>
+        <v>-0.24764780000000064</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -3028,28 +3028,28 @@
         <v>113</v>
       </c>
       <c r="B8">
-        <v>0.21401460999998134</v>
+        <v>0.47024493000002421</v>
       </c>
       <c r="C8">
-        <v>-1.1046020400000263</v>
+        <v>-0.90030351000000941</v>
       </c>
       <c r="D8">
-        <v>0.19173605999997489</v>
+        <v>0.25367177000003194</v>
       </c>
       <c r="E8">
-        <v>0.76648327000001837</v>
+        <v>0.8515528100000247</v>
       </c>
       <c r="F8">
-        <v>-0.18136762000001427</v>
+        <v>-6.9105339999975701E-2</v>
       </c>
       <c r="G8">
-        <v>-1.7528062600000514</v>
+        <v>-1.7312430200000168</v>
       </c>
       <c r="H8">
-        <v>7.4059859999969557E-2</v>
+        <v>8.7259730000020408E-2</v>
       </c>
       <c r="I8">
-        <v>0.18106297000000859</v>
+        <v>0.23358058000000392</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -3057,28 +3057,28 @@
         <v>112</v>
       </c>
       <c r="B9">
-        <v>0.6332342100000008</v>
+        <v>0.67499473999997717</v>
       </c>
       <c r="C9">
-        <v>-0.54400558000002697</v>
+        <v>-0.49399451999999577</v>
       </c>
       <c r="D9">
-        <v>0.6103417099999926</v>
+        <v>0.6823573599999615</v>
       </c>
       <c r="E9">
-        <v>1.2677218799999914</v>
+        <v>1.2971274999999687</v>
       </c>
       <c r="F9">
-        <v>0.12213422000000973</v>
+        <v>0.13813594000002949</v>
       </c>
       <c r="G9">
-        <v>-1.129300730000006</v>
+        <v>-1.0773507299999725</v>
       </c>
       <c r="H9">
-        <v>0.48796076000001376</v>
+        <v>0.51028068999999432</v>
       </c>
       <c r="I9">
-        <v>0.80671528000002946</v>
+        <v>0.73098485000000801</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -3086,28 +3086,28 @@
         <v>127</v>
       </c>
       <c r="B10">
-        <v>1.2030278100000262</v>
+        <v>1.2211955700000092</v>
       </c>
       <c r="C10">
-        <v>-0.20606281999999432</v>
+        <v>-0.25260202999998604</v>
       </c>
       <c r="D10">
-        <v>0.59273791000003184</v>
+        <v>-0.3149625099999942</v>
       </c>
       <c r="E10">
-        <v>1.2816491899999769</v>
+        <v>1.313962540000015</v>
       </c>
       <c r="F10">
-        <v>0.86870337000003728</v>
+        <v>1.0117901000000304</v>
       </c>
       <c r="G10">
-        <v>-0.64019848999998352</v>
+        <v>-0.66684531999998775</v>
       </c>
       <c r="H10">
-        <v>0.1452859000000255</v>
+        <v>-3.1020419099999761</v>
       </c>
       <c r="I10">
-        <v>0.13304903999998396</v>
+        <v>0.386793520000007</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -3115,28 +3115,28 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>0.43932067000001807</v>
+        <v>0.54101516000001793</v>
       </c>
       <c r="C11">
-        <v>-0.16780110000001436</v>
+        <v>-0.11389156000000789</v>
       </c>
       <c r="D11">
-        <v>0.49108611999996965</v>
+        <v>0.69812883000002257</v>
       </c>
       <c r="E11">
-        <v>0.25009572999997909</v>
+        <v>0.49900720000003185</v>
       </c>
       <c r="F11">
-        <v>-0.47642840999999381</v>
+        <v>-0.46244990999998636</v>
       </c>
       <c r="G11">
-        <v>-0.12472618999998453</v>
+        <v>-0.11454839000003325</v>
       </c>
       <c r="H11">
-        <v>-0.27441047000002827</v>
+        <v>-0.25020237999996953</v>
       </c>
       <c r="I11">
-        <v>-0.44537363000002506</v>
+        <v>-0.32701070999998683</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -3144,28 +3144,28 @@
         <v>129</v>
       </c>
       <c r="B12">
-        <v>-0.48236713000001119</v>
+        <v>-2.7684356900000009</v>
       </c>
       <c r="C12">
-        <v>-0.46473922000000734</v>
+        <v>-2.8162229899999662</v>
       </c>
       <c r="D12">
-        <v>0.86292896000002584</v>
+        <v>-1.3810041499999746</v>
       </c>
       <c r="E12">
-        <v>-1.0514199599999947</v>
+        <v>-2.6493337999999844</v>
       </c>
       <c r="F12">
-        <v>-1.6754570499999883</v>
+        <v>-1.8654243000000403</v>
       </c>
       <c r="G12">
-        <v>-0.48652057999998455</v>
+        <v>-0.47012813999998038</v>
       </c>
       <c r="H12">
-        <v>-0.15612454999996617</v>
+        <v>-0.12990530999997718</v>
       </c>
       <c r="I12">
-        <v>-2.2723194099999851</v>
+        <v>-2.7556925999999939</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3173,28 +3173,28 @@
         <v>130</v>
       </c>
       <c r="B13">
-        <v>0.20238396000000902</v>
+        <v>-1.4495091499999941</v>
       </c>
       <c r="C13">
-        <v>-0.69836635000000946</v>
+        <v>-1.2740884800000405</v>
       </c>
       <c r="D13">
-        <v>0.63594735000003011</v>
+        <v>-0.60284404000004388</v>
       </c>
       <c r="E13">
-        <v>-1.1041934599999954</v>
+        <v>-2.6112791200000252</v>
       </c>
       <c r="F13">
-        <v>-1.461039709999977</v>
+        <v>-1.2363753699999731</v>
       </c>
       <c r="G13">
-        <v>-0.80664298000004386</v>
+        <v>-1.0350556300000395</v>
       </c>
       <c r="H13">
-        <v>0.22181323000000175</v>
+        <v>-0.40586739000003336</v>
       </c>
       <c r="I13">
-        <v>-2.2132419600000239</v>
+        <v>-2.4933932899999909</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -3202,28 +3202,28 @@
         <v>131</v>
       </c>
       <c r="B14">
-        <v>0.12731257000000396</v>
+        <v>0.14885378000001337</v>
       </c>
       <c r="C14">
-        <v>-0.7783340999999897</v>
+        <v>-0.94465296999998749</v>
       </c>
       <c r="D14">
-        <v>0.45073336999995872</v>
+        <v>0.33234873000002763</v>
       </c>
       <c r="E14">
-        <v>-0.36898894000002747</v>
+        <v>-0.65930397999996648</v>
       </c>
       <c r="F14">
-        <v>-0.84600715999995346</v>
+        <v>-0.73745494000003164</v>
       </c>
       <c r="G14">
-        <v>-1.2214633199999927</v>
+        <v>-1.3953610500000142</v>
       </c>
       <c r="H14">
-        <v>0.25528392000000322</v>
+        <v>7.0450970000016877E-2</v>
       </c>
       <c r="I14">
-        <v>-1.7300939400000366</v>
+        <v>-1.3372233199999832</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3231,28 +3231,28 @@
         <v>132</v>
       </c>
       <c r="B15">
-        <v>-8.1079419999991575E-2</v>
+        <v>0.12097152000000078</v>
       </c>
       <c r="C15">
-        <v>-1.0638068200000195</v>
+        <v>-0.76108612999996161</v>
       </c>
       <c r="D15">
-        <v>0.20672167999997937</v>
+        <v>0.32452593000004226</v>
       </c>
       <c r="E15">
-        <v>0.20267458999999599</v>
+        <v>-0.21816313999996373</v>
       </c>
       <c r="F15">
-        <v>-0.93119288999998817</v>
+        <v>-0.66912063000002009</v>
       </c>
       <c r="G15">
-        <v>-1.7109974900000058</v>
+        <v>-1.3410227900000056</v>
       </c>
       <c r="H15">
-        <v>-6.3408330000023216E-2</v>
+        <v>0.12517029000002067</v>
       </c>
       <c r="I15">
-        <v>-0.85105846999996038</v>
+        <v>-1.0379530500000178</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -3260,28 +3260,28 @@
         <v>133</v>
       </c>
       <c r="B16">
-        <v>0.29668052999999217</v>
+        <v>0.32770350999998099</v>
       </c>
       <c r="C16">
-        <v>-1.3398479800000533</v>
+        <v>-1.2081979100000186</v>
       </c>
       <c r="D16">
-        <v>-9.7033170000039082E-2</v>
+        <v>-8.3344000000313834E-3</v>
       </c>
       <c r="E16">
-        <v>0.96402385999997842</v>
+        <v>0.56544748999997774</v>
       </c>
       <c r="F16">
-        <v>-0.22593761999997897</v>
+        <v>-0.807931559999997</v>
       </c>
       <c r="G16">
-        <v>-2.0626854100000234</v>
+        <v>-2.265103250000033</v>
       </c>
       <c r="H16">
-        <v>-0.3032589900000251</v>
+        <v>-0.16826880000002875</v>
       </c>
       <c r="I16">
-        <v>0.52909068000000525</v>
+        <v>9.7713779999973216E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3289,28 +3289,28 @@
         <v>134</v>
       </c>
       <c r="B17">
-        <v>0.49376295999995845</v>
+        <v>0.53514526999997569</v>
       </c>
       <c r="C17">
-        <v>-0.73753684000001307</v>
+        <v>-0.67420650000001991</v>
       </c>
       <c r="D17">
-        <v>0.18362994999994653</v>
+        <v>0.26152698999998547</v>
       </c>
       <c r="E17">
-        <v>1.4440940399999627</v>
+        <v>1.4022053700000279</v>
       </c>
       <c r="F17">
-        <v>-0.21578098999999584</v>
+        <v>-0.25557628000002497</v>
       </c>
       <c r="G17">
-        <v>-1.6957887199999906</v>
+        <v>-1.749524590000016</v>
       </c>
       <c r="H17">
-        <v>4.3952699999674216E-3</v>
+        <v>6.0258139999965987E-2</v>
       </c>
       <c r="I17">
-        <v>1.048753739999976</v>
+        <v>0.82335751000003166</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -3318,28 +3318,28 @@
         <v>135</v>
       </c>
       <c r="B18">
-        <v>1.5608885500000045</v>
+        <v>1.5703051699999722</v>
       </c>
       <c r="C18">
-        <v>-0.1035354999999587</v>
+        <v>-9.2492750000014112E-2</v>
       </c>
       <c r="D18">
-        <v>0.72725107000001499</v>
+        <v>1.7453617199999978</v>
       </c>
       <c r="E18">
-        <v>1.7310061000000396</v>
+        <v>-0.5604283400000063</v>
       </c>
       <c r="F18">
-        <v>1.4272948899999736</v>
+        <v>1.41649091999999</v>
       </c>
       <c r="G18">
-        <v>-0.10421939999997143</v>
+        <v>-9.2389270000007073E-2</v>
       </c>
       <c r="H18">
-        <v>-2.4622060000020429E-2</v>
+        <v>1.5746911799999945</v>
       </c>
       <c r="I18">
-        <v>0.98088866999999391</v>
+        <v>-2.886032500000018</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3357,7 +3357,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3375,16 +3375,16 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3422,28 +3422,28 @@
         <v>126</v>
       </c>
       <c r="B3">
-        <v>-0.38781861000002182</v>
+        <v>-0.20907174000002415</v>
       </c>
       <c r="C3">
-        <v>-0.53887365000002241</v>
+        <v>-0.87727053999997828</v>
       </c>
       <c r="D3">
-        <v>0.8334788399999904</v>
+        <v>0.281680849999979</v>
       </c>
       <c r="E3">
-        <v>-1.1664817500000217</v>
+        <v>-1.6635917900000172</v>
       </c>
       <c r="F3">
-        <v>-1.5319765699999945</v>
+        <v>-1.2442060100000387</v>
       </c>
       <c r="G3">
-        <v>-0.60765136000002862</v>
+        <v>-0.62952824999995904</v>
       </c>
       <c r="H3">
-        <v>-0.44221555999997308</v>
+        <v>0.14427075999997596</v>
       </c>
       <c r="I3">
-        <v>-2.5214690099999948</v>
+        <v>-1.9718484399999929</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -3451,28 +3451,28 @@
         <v>119</v>
       </c>
       <c r="B4">
-        <v>0.10669346999997087</v>
+        <v>9.4676059999972306E-2</v>
       </c>
       <c r="C4">
-        <v>-0.79540719999999432</v>
+        <v>-0.72374954000002312</v>
       </c>
       <c r="D4">
-        <v>0.63232099999998281</v>
+        <v>0.6455431900000046</v>
       </c>
       <c r="E4">
-        <v>-0.75137249000001338</v>
+        <v>-0.55343082000003596</v>
       </c>
       <c r="F4">
-        <v>-0.60948184000001193</v>
+        <v>-0.93754771000000092</v>
       </c>
       <c r="G4">
-        <v>-0.94881198000001099</v>
+        <v>-0.87450112999999341</v>
       </c>
       <c r="H4">
-        <v>0.44002328999999163</v>
+        <v>0.51519477999999408</v>
       </c>
       <c r="I4">
-        <v>-1.5196847200000057</v>
+        <v>-1.4442760900000358</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -3480,28 +3480,28 @@
         <v>114</v>
       </c>
       <c r="B5">
-        <v>8.057561000002833E-2</v>
+        <v>0.17855065000002268</v>
       </c>
       <c r="C5">
-        <v>-1.0797074600000034</v>
+        <v>-0.91048215000000177</v>
       </c>
       <c r="D5">
-        <v>0.27143843000003853</v>
+        <v>0.47335465000002541</v>
       </c>
       <c r="E5">
-        <v>-0.20255842999997276</v>
+        <v>-0.1212371599999833</v>
       </c>
       <c r="F5">
-        <v>-0.63957160999997287</v>
+        <v>-0.64982373999999909</v>
       </c>
       <c r="G5">
-        <v>-1.3245080500000146</v>
+        <v>-1.2691390600000378</v>
       </c>
       <c r="H5">
-        <v>0.2137763699999975</v>
+        <v>0.31154147000000121</v>
       </c>
       <c r="I5">
-        <v>-0.79589939000000731</v>
+        <v>-1.0279575799999825</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3509,28 +3509,28 @@
         <v>116</v>
       </c>
       <c r="B6">
-        <v>-0.28851254999996145</v>
+        <v>9.1546350000033083E-2</v>
       </c>
       <c r="C6">
-        <v>-1.3103844799999766</v>
+        <v>-1.2006317699999673</v>
       </c>
       <c r="D6">
-        <v>-9.8751220000004469E-2</v>
+        <v>0.16462313999999578</v>
       </c>
       <c r="E6">
-        <v>-0.45127994999997645</v>
+        <v>0.52850589000000037</v>
       </c>
       <c r="F6">
-        <v>-0.85071588999995784</v>
+        <v>-1.0028811499999617</v>
       </c>
       <c r="G6">
-        <v>-1.099591630000015</v>
+        <v>-1.9006452400000118</v>
       </c>
       <c r="H6">
-        <v>1.7746899999830923E-3</v>
+        <v>-8.1290500000439359E-3</v>
       </c>
       <c r="I6">
-        <v>-0.64106690000001754</v>
+        <v>-0.94947126000001481</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3538,28 +3538,28 @@
         <v>117</v>
       </c>
       <c r="B7">
-        <v>-0.15955723000002964</v>
+        <v>0.4771517399999996</v>
       </c>
       <c r="C7">
-        <v>-1.357516900000002</v>
+        <v>-1.2387180599999912</v>
       </c>
       <c r="D7">
-        <v>5.6392789999953674E-2</v>
+        <v>0.30282821000002214</v>
       </c>
       <c r="E7">
-        <v>-2.8004680000000004E-2</v>
+        <v>0.66190549000001875</v>
       </c>
       <c r="F7">
-        <v>-0.90778002000002944</v>
+        <v>2.5132729999984615E-2</v>
       </c>
       <c r="G7">
-        <v>-1.7930089799999624</v>
+        <v>-2.0845421999999818</v>
       </c>
       <c r="H7">
-        <v>-7.8368230000031236E-2</v>
+        <v>-8.2156349999998657E-2</v>
       </c>
       <c r="I7">
-        <v>-0.24764780000000064</v>
+        <v>-0.2206903099999713</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -3567,28 +3567,28 @@
         <v>113</v>
       </c>
       <c r="B8">
-        <v>0.47024493000002421</v>
+        <v>0.21401460999998134</v>
       </c>
       <c r="C8">
-        <v>-0.90030351000000941</v>
+        <v>-1.1046020400000263</v>
       </c>
       <c r="D8">
-        <v>0.25367177000003194</v>
+        <v>0.19173605999997489</v>
       </c>
       <c r="E8">
-        <v>0.8515528100000247</v>
+        <v>0.76648327000001837</v>
       </c>
       <c r="F8">
-        <v>-6.9105339999975701E-2</v>
+        <v>-0.18136762000001427</v>
       </c>
       <c r="G8">
-        <v>-1.7312430200000168</v>
+        <v>-1.7528062600000514</v>
       </c>
       <c r="H8">
-        <v>8.7259730000020408E-2</v>
+        <v>7.4059859999969557E-2</v>
       </c>
       <c r="I8">
-        <v>0.23358058000000392</v>
+        <v>0.18106297000000859</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -3596,28 +3596,28 @@
         <v>112</v>
       </c>
       <c r="B9">
-        <v>0.67499473999997717</v>
+        <v>0.6332342100000008</v>
       </c>
       <c r="C9">
-        <v>-0.49399451999999577</v>
+        <v>-0.54400558000002697</v>
       </c>
       <c r="D9">
-        <v>0.6823573599999615</v>
+        <v>0.6103417099999926</v>
       </c>
       <c r="E9">
-        <v>1.2971274999999687</v>
+        <v>1.2677218799999914</v>
       </c>
       <c r="F9">
-        <v>0.13813594000002949</v>
+        <v>0.12213422000000973</v>
       </c>
       <c r="G9">
-        <v>-1.0773507299999725</v>
+        <v>-1.129300730000006</v>
       </c>
       <c r="H9">
-        <v>0.51028068999999432</v>
+        <v>0.48796076000001376</v>
       </c>
       <c r="I9">
-        <v>0.73098485000000801</v>
+        <v>0.80671528000002946</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -3625,28 +3625,28 @@
         <v>127</v>
       </c>
       <c r="B10">
-        <v>1.2211955700000092</v>
+        <v>1.2030278100000262</v>
       </c>
       <c r="C10">
-        <v>-0.25260202999998604</v>
+        <v>-0.20606281999999432</v>
       </c>
       <c r="D10">
-        <v>-0.3149625099999942</v>
+        <v>0.59273791000003184</v>
       </c>
       <c r="E10">
-        <v>1.313962540000015</v>
+        <v>1.2816491899999769</v>
       </c>
       <c r="F10">
-        <v>1.0117901000000304</v>
+        <v>0.86870337000003728</v>
       </c>
       <c r="G10">
-        <v>-0.66684531999998775</v>
+        <v>-0.64019848999998352</v>
       </c>
       <c r="H10">
-        <v>-3.1020419099999761</v>
+        <v>0.1452859000000255</v>
       </c>
       <c r="I10">
-        <v>0.386793520000007</v>
+        <v>0.13304903999998396</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -3654,28 +3654,28 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>0.54101516000001793</v>
+        <v>0.43932067000001807</v>
       </c>
       <c r="C11">
-        <v>-0.11389156000000789</v>
+        <v>-0.16780110000001436</v>
       </c>
       <c r="D11">
-        <v>0.69812883000002257</v>
+        <v>0.49108611999996965</v>
       </c>
       <c r="E11">
-        <v>0.49900720000003185</v>
+        <v>0.25009572999997909</v>
       </c>
       <c r="F11">
-        <v>-0.46244990999998636</v>
+        <v>-0.47642840999999381</v>
       </c>
       <c r="G11">
-        <v>-0.11454839000003325</v>
+        <v>-0.12472618999998453</v>
       </c>
       <c r="H11">
-        <v>-0.25020237999996953</v>
+        <v>-0.27441047000002827</v>
       </c>
       <c r="I11">
-        <v>-0.32701070999998683</v>
+        <v>-0.44537363000002506</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -3683,28 +3683,28 @@
         <v>129</v>
       </c>
       <c r="B12">
-        <v>-2.7684356900000009</v>
+        <v>-0.48236713000001119</v>
       </c>
       <c r="C12">
-        <v>-2.8162229899999662</v>
+        <v>-0.46473922000000734</v>
       </c>
       <c r="D12">
-        <v>-1.3810041499999746</v>
+        <v>0.86292896000002584</v>
       </c>
       <c r="E12">
-        <v>-2.6493337999999844</v>
+        <v>-1.0514199599999947</v>
       </c>
       <c r="F12">
-        <v>-1.8654243000000403</v>
+        <v>-1.6754570499999883</v>
       </c>
       <c r="G12">
-        <v>-0.47012813999998038</v>
+        <v>-0.48652057999998455</v>
       </c>
       <c r="H12">
-        <v>-0.12990530999997718</v>
+        <v>-0.15612454999996617</v>
       </c>
       <c r="I12">
-        <v>-2.7556925999999939</v>
+        <v>-2.2723194099999851</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3712,28 +3712,28 @@
         <v>130</v>
       </c>
       <c r="B13">
-        <v>-1.4495091499999941</v>
+        <v>0.20238396000000902</v>
       </c>
       <c r="C13">
-        <v>-1.2740884800000405</v>
+        <v>-0.69836635000000946</v>
       </c>
       <c r="D13">
-        <v>-0.60284404000004388</v>
+        <v>0.63594735000003011</v>
       </c>
       <c r="E13">
-        <v>-2.6112791200000252</v>
+        <v>-1.1041934599999954</v>
       </c>
       <c r="F13">
-        <v>-1.2363753699999731</v>
+        <v>-1.461039709999977</v>
       </c>
       <c r="G13">
-        <v>-1.0350556300000395</v>
+        <v>-0.80664298000004386</v>
       </c>
       <c r="H13">
-        <v>-0.40586739000003336</v>
+        <v>0.22181323000000175</v>
       </c>
       <c r="I13">
-        <v>-2.4933932899999909</v>
+        <v>-2.2132419600000239</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -3741,28 +3741,28 @@
         <v>131</v>
       </c>
       <c r="B14">
-        <v>0.14885378000001337</v>
+        <v>0.12731257000000396</v>
       </c>
       <c r="C14">
-        <v>-0.94465296999998749</v>
+        <v>-0.7783340999999897</v>
       </c>
       <c r="D14">
-        <v>0.33234873000002763</v>
+        <v>0.45073336999995872</v>
       </c>
       <c r="E14">
-        <v>-0.65930397999996648</v>
+        <v>-0.36898894000002747</v>
       </c>
       <c r="F14">
-        <v>-0.73745494000003164</v>
+        <v>-0.84600715999995346</v>
       </c>
       <c r="G14">
-        <v>-1.3953610500000142</v>
+        <v>-1.2214633199999927</v>
       </c>
       <c r="H14">
-        <v>7.0450970000016877E-2</v>
+        <v>0.25528392000000322</v>
       </c>
       <c r="I14">
-        <v>-1.3372233199999832</v>
+        <v>-1.7300939400000366</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3770,28 +3770,28 @@
         <v>132</v>
       </c>
       <c r="B15">
-        <v>0.12097152000000078</v>
+        <v>-8.1079419999991575E-2</v>
       </c>
       <c r="C15">
-        <v>-0.76108612999996161</v>
+        <v>-1.0638068200000195</v>
       </c>
       <c r="D15">
-        <v>0.32452593000004226</v>
+        <v>0.20672167999997937</v>
       </c>
       <c r="E15">
-        <v>-0.21816313999996373</v>
+        <v>0.20267458999999599</v>
       </c>
       <c r="F15">
-        <v>-0.66912063000002009</v>
+        <v>-0.93119288999998817</v>
       </c>
       <c r="G15">
-        <v>-1.3410227900000056</v>
+        <v>-1.7109974900000058</v>
       </c>
       <c r="H15">
-        <v>0.12517029000002067</v>
+        <v>-6.3408330000023216E-2</v>
       </c>
       <c r="I15">
-        <v>-1.0379530500000178</v>
+        <v>-0.85105846999996038</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -3799,28 +3799,28 @@
         <v>133</v>
       </c>
       <c r="B16">
-        <v>0.32770350999998099</v>
+        <v>0.29668052999999217</v>
       </c>
       <c r="C16">
-        <v>-1.2081979100000186</v>
+        <v>-1.3398479800000533</v>
       </c>
       <c r="D16">
-        <v>-8.3344000000313834E-3</v>
+        <v>-9.7033170000039082E-2</v>
       </c>
       <c r="E16">
-        <v>0.56544748999997774</v>
+        <v>0.96402385999997842</v>
       </c>
       <c r="F16">
-        <v>-0.807931559999997</v>
+        <v>-0.22593761999997897</v>
       </c>
       <c r="G16">
-        <v>-2.265103250000033</v>
+        <v>-2.0626854100000234</v>
       </c>
       <c r="H16">
-        <v>-0.16826880000002875</v>
+        <v>-0.3032589900000251</v>
       </c>
       <c r="I16">
-        <v>9.7713779999973216E-2</v>
+        <v>0.52909068000000525</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3828,28 +3828,28 @@
         <v>134</v>
       </c>
       <c r="B17">
-        <v>0.53514526999997569</v>
+        <v>0.49376295999995845</v>
       </c>
       <c r="C17">
-        <v>-0.67420650000001991</v>
+        <v>-0.73753684000001307</v>
       </c>
       <c r="D17">
-        <v>0.26152698999998547</v>
+        <v>0.18362994999994653</v>
       </c>
       <c r="E17">
-        <v>1.4022053700000279</v>
+        <v>1.4440940399999627</v>
       </c>
       <c r="F17">
-        <v>-0.25557628000002497</v>
+        <v>-0.21578098999999584</v>
       </c>
       <c r="G17">
-        <v>-1.749524590000016</v>
+        <v>-1.6957887199999906</v>
       </c>
       <c r="H17">
-        <v>6.0258139999965987E-2</v>
+        <v>4.3952699999674216E-3</v>
       </c>
       <c r="I17">
-        <v>0.82335751000003166</v>
+        <v>1.048753739999976</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -3857,28 +3857,28 @@
         <v>135</v>
       </c>
       <c r="B18">
-        <v>1.5703051699999722</v>
+        <v>1.5608885500000045</v>
       </c>
       <c r="C18">
-        <v>-9.2492750000014112E-2</v>
+        <v>-0.1035354999999587</v>
       </c>
       <c r="D18">
-        <v>1.7453617199999978</v>
+        <v>0.72725107000001499</v>
       </c>
       <c r="E18">
-        <v>-0.5604283400000063</v>
+        <v>1.7310061000000396</v>
       </c>
       <c r="F18">
-        <v>1.41649091999999</v>
+        <v>1.4272948899999736</v>
       </c>
       <c r="G18">
-        <v>-9.2389270000007073E-2</v>
+        <v>-0.10421939999997143</v>
       </c>
       <c r="H18">
-        <v>1.5746911799999945</v>
+        <v>-2.4622060000020429E-2</v>
       </c>
       <c r="I18">
-        <v>-2.886032500000018</v>
+        <v>0.98088866999999391</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3895,7 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -3914,16 +3914,16 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4493,7 +4493,7 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4537,7 +4537,7 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -4581,7 +4581,7 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="E8">
         <v>0.14226739000000999</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -4625,7 +4625,7 @@
       <c r="E9">
         <v>4.2632153400000252</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="E10">
         <v>0.51245177000002196</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -4669,7 +4669,7 @@
       <c r="E11">
         <v>8.3088318700000432</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="E12">
         <v>0.62535685999999169</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -4713,7 +4713,7 @@
       <c r="E13">
         <v>6.3772676000000192</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="E14">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -4757,7 +4757,7 @@
       <c r="E15">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="E16">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -4801,7 +4801,7 @@
       <c r="E17">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="A18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2.4138902600000089</v>
       </c>
       <c r="C18">
@@ -4822,7 +4822,7 @@
       <c r="E18">
         <v>-1.8782816399999738</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -4845,7 +4845,7 @@
       <c r="E19">
         <v>-1.8217238399999665</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="E20">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -4889,23 +4889,23 @@
       <c r="E21">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4953,7 +4953,7 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4976,7 +4976,7 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -5020,7 +5020,7 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -5041,7 +5041,7 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -5064,7 +5064,7 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="E11">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5177,7 +5177,7 @@
       <c r="E12">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="E13">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -5221,7 +5221,7 @@
       <c r="E14">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="E2">
         <v>1.2935858699999963</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -5330,7 +5330,7 @@
       <c r="E3">
         <v>-3.3286741500000026</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="E4">
         <v>-3.1104937299999924</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="E5">
         <v>-3.1437701200000183</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="E6">
         <v>-3.4894202499999856</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="E7">
         <v>-3.421031649999994</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="E8">
         <v>1.0416510000008206E-2</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5458,7 +5458,7 @@
       <c r="E9">
         <v>-4.2314792699999852</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
@@ -5479,7 +5479,7 @@
       <c r="E10">
         <v>-4.2303015099999666</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="E11">
         <v>-2.9591973099999982</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="E12">
         <v>-4.2312478699999669</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="E13">
         <v>-4.2262306999999932</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="E14">
         <v>-8.0094700000095109E-3</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -5586,7 +5586,7 @@
       <c r="E15">
         <v>-3.2112205400000184</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="E16">
         <v>-3.5570871599999996</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
@@ -5628,7 +5628,7 @@
       <c r="E17">
         <v>-2.2389596200000219</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="E18">
         <v>-3.8757445999999809</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="E19">
         <v>-3.2088812299999936</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="E20">
         <v>0.2912446800000148</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -5714,7 +5714,7 @@
       <c r="E21">
         <v>-0.61553360000001112</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="E22">
         <v>0.69130318999996598</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="2" t="s">
         <v>22</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="E23">
         <v>-2.8091360300000097</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="E24">
         <v>-0.61524676000001</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="E25">
         <v>-0.62828945000003023</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2" t="s">
         <v>25</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="E26">
         <v>0.46643433000000778</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -5842,7 +5842,7 @@
       <c r="E27">
         <v>0.903472209999999</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="E28">
         <v>0.84148148000000811</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="E29">
         <v>0.39160640999998941</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="E30">
         <v>0.4598667300000252</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="E31">
         <v>0.43486789000000181</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="2" t="s">
         <v>25</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="E32">
         <v>0.72828822000000537</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -5970,7 +5970,7 @@
       <c r="E33">
         <v>-1.8093774300000027</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="E34">
         <v>-2.8888200299999958</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2" t="s">
         <v>22</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="E35">
         <v>-2.920528319999979</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2" t="s">
         <v>23</v>
       </c>
@@ -6033,7 +6033,7 @@
       <c r="E36">
         <v>-3.7402288500000131</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2" t="s">
         <v>24</v>
       </c>
@@ -6054,7 +6054,7 @@
       <c r="E37">
         <v>-3.7541400699999676</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2" t="s">
         <v>25</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="E38">
         <v>-0.10956448999998747</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -6098,7 +6098,7 @@
       <c r="E39">
         <v>-3.3781302200000218</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="E40">
         <v>-3.0962576600000111</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="2" t="s">
         <v>22</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="E41">
         <v>-3.1365675500000143</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="2" t="s">
         <v>23</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="E42">
         <v>-3.4310350099999787</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="2" t="s">
         <v>24</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="E43">
         <v>-3.2458180800000114</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="E44">
         <v>-0.72050734000000238</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -6226,7 +6226,7 @@
       <c r="E45">
         <v>-3.5928139000000292</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="2" t="s">
         <v>21</v>
       </c>
@@ -6247,7 +6247,7 @@
       <c r="E46">
         <v>-2.9767799400000476</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="2" t="s">
         <v>22</v>
       </c>
@@ -6268,7 +6268,7 @@
       <c r="E47">
         <v>-2.9873096500000051</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="2" t="s">
         <v>23</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="E48">
         <v>-3.5974591500000392</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="2" t="s">
         <v>24</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="E49">
         <v>-3.6436352399999996</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="2" t="s">
         <v>25</v>
       </c>
@@ -6331,7 +6331,7 @@
       <c r="E50">
         <v>-2.3328917399999987</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -6354,7 +6354,7 @@
       <c r="E51">
         <v>-3.4867817600000044</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="2" t="s">
         <v>21</v>
       </c>
@@ -6375,7 +6375,7 @@
       <c r="E52">
         <v>-2.9845752900000284</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="2" t="s">
         <v>22</v>
       </c>
@@ -6396,7 +6396,7 @@
       <c r="E53">
         <v>-2.9731511300000384</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="2" t="s">
         <v>23</v>
       </c>
@@ -6417,7 +6417,7 @@
       <c r="E54">
         <v>-3.487692530000023</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="2" t="s">
         <v>24</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="E55">
         <v>-3.5815205400000045</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="2" t="s">
         <v>25</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="E56">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -6482,7 +6482,7 @@
       <c r="E57">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="2" t="s">
         <v>18</v>
       </c>
@@ -6510,7 +6510,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6545,7 +6545,7 @@
       <c r="E2">
         <v>-8.0094700000095109E-3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -6568,7 +6568,7 @@
       <c r="E3">
         <v>-3.2112205400000184</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="E4">
         <v>-3.5570871599999996</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="E5">
         <v>-3.8757445999999809</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="E6">
         <v>-3.2088812299999936</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="E7">
         <v>0.46643433000000778</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -6675,7 +6675,7 @@
       <c r="E8">
         <v>0.84148148000000811</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
@@ -6696,7 +6696,7 @@
       <c r="E9">
         <v>0.39160640999998941</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
@@ -6717,7 +6717,7 @@
       <c r="E10">
         <v>0.43486789000000181</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
@@ -6738,7 +6738,7 @@
       <c r="E11">
         <v>-0.72050734000000238</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -6761,7 +6761,7 @@
       <c r="E12">
         <v>-3.5928139000000292</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
@@ -6782,7 +6782,7 @@
       <c r="E13">
         <v>-2.9767799400000476</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2" t="s">
         <v>22</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="E14">
         <v>-2.9873096500000051</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="E15">
         <v>-3.5974591500000392</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="E16">
         <v>-3.6436352399999996</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
@@ -6866,7 +6866,7 @@
       <c r="E17">
         <v>-2.3328917399999987</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -6889,7 +6889,7 @@
       <c r="E18">
         <v>-3.4867817600000044</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
@@ -6910,7 +6910,7 @@
       <c r="E19">
         <v>-2.9845752900000284</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2" t="s">
         <v>22</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="E20">
         <v>-2.9731511300000384</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="E21">
         <v>-3.487692530000023</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="E22">
         <v>-3.5815205400000045</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
@@ -6994,7 +6994,7 @@
       <c r="E23">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -7017,7 +7017,7 @@
       <c r="E24">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2" t="s">
         <v>18</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -7098,7 +7098,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -7161,7 +7161,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -7182,7 +7182,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -7226,7 +7226,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -7247,7 +7247,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="E11">
         <v>0.58237949999998273</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11" t="s">
         <v>24</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="E12">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12" t="s">
         <v>25</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="E13">
         <v>1.573956569999988</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13" t="s">
         <v>26</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="E14">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
@@ -7354,7 +7354,7 @@
       <c r="E15">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="7"/>
       <c r="G15" t="s">
         <v>21</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="E16">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16" t="s">
         <v>22</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="E17">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
       <c r="G17" t="s">
         <v>24</v>
       </c>
@@ -7417,7 +7417,7 @@
       <c r="E18">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
       <c r="G18" t="s">
         <v>25</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="E19">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="7"/>
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="E20">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
@@ -7482,7 +7482,7 @@
       <c r="E21">
         <v>3.3490576900000328</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21" t="s">
         <v>21</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="E22">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22" t="s">
         <v>22</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="E23">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="7"/>
       <c r="G23" t="s">
         <v>24</v>
       </c>
@@ -7545,7 +7545,7 @@
       <c r="E24">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="7"/>
       <c r="G24" t="s">
         <v>25</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="E25">
         <v>2.0686931599999903</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="7"/>
       <c r="G25" t="s">
         <v>26</v>
       </c>
@@ -7587,7 +7587,7 @@
       <c r="E26">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G26" t="s">
@@ -7610,7 +7610,7 @@
       <c r="E27">
         <v>5.2405252600000072</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="7"/>
       <c r="G27" t="s">
         <v>21</v>
       </c>
@@ -7631,7 +7631,7 @@
       <c r="E28">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="7"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -7652,7 +7652,7 @@
       <c r="E29">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="7"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -7673,7 +7673,7 @@
       <c r="E30">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="7"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="E31">
         <v>3.9270744799999684</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="7"/>
       <c r="G31" t="s">
         <v>26</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="E32">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
@@ -7738,7 +7738,7 @@
       <c r="E33">
         <v>3.7204950799999588</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="7"/>
       <c r="G33" t="s">
         <v>21</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="E34">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="7"/>
       <c r="G34" t="s">
         <v>22</v>
       </c>
@@ -7780,7 +7780,7 @@
       <c r="E35">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="7"/>
       <c r="G35" t="s">
         <v>24</v>
       </c>
@@ -7804,7 +7804,7 @@
       <c r="E36">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="7"/>
       <c r="G36" t="s">
         <v>25</v>
       </c>
@@ -7825,7 +7825,7 @@
       <c r="E37">
         <v>2.8620324599999472</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="7"/>
       <c r="G37" t="s">
         <v>26</v>
       </c>
@@ -7846,7 +7846,7 @@
       <c r="E38">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
@@ -7869,7 +7869,7 @@
       <c r="E39">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="7"/>
       <c r="G39" t="s">
         <v>21</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="E40">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="7"/>
       <c r="G40" t="s">
         <v>22</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="E41">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="7"/>
       <c r="G41" t="s">
         <v>24</v>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="E42">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="7"/>
       <c r="G42" t="s">
         <v>25</v>
       </c>
@@ -7953,7 +7953,7 @@
       <c r="E43">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="7"/>
       <c r="G43" t="s">
         <v>26</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="E44">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -7997,7 +7997,7 @@
       <c r="E45">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="7"/>
       <c r="G45" t="s">
         <v>21</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="E46">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="7"/>
       <c r="G46" t="s">
         <v>22</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="E47">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="7"/>
       <c r="G47" t="s">
         <v>24</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="E48">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="7"/>
       <c r="G48" t="s">
         <v>25</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="E49">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="7"/>
       <c r="G49" t="s">
         <v>26</v>
       </c>
@@ -8102,7 +8102,7 @@
       <c r="E50">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
@@ -8125,7 +8125,7 @@
       <c r="E51">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="7"/>
       <c r="G51" t="s">
         <v>21</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="E52">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="7"/>
       <c r="G52" t="s">
         <v>22</v>
       </c>
@@ -8167,7 +8167,7 @@
       <c r="E53">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="7"/>
       <c r="G53" t="s">
         <v>24</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="E54">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="7"/>
       <c r="G54" t="s">
         <v>25</v>
       </c>
@@ -8209,7 +8209,7 @@
       <c r="E55">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="7"/>
       <c r="G55" t="s">
         <v>26</v>
       </c>
@@ -8230,7 +8230,7 @@
       <c r="E56">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -8253,7 +8253,7 @@
       <c r="E57">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="2" t="s">
         <v>18</v>
       </c>
@@ -8564,7 +8564,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -8587,7 +8587,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -8608,7 +8608,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -8650,7 +8650,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -8671,7 +8671,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -8715,7 +8715,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -8757,7 +8757,7 @@
       <c r="E11">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11" t="s">
         <v>25</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="E12">
         <v>1.573956569999988</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12" t="s">
         <v>26</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="E13">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
@@ -8822,7 +8822,7 @@
       <c r="E14">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14" t="s">
         <v>21</v>
       </c>
@@ -8843,7 +8843,7 @@
       <c r="E15">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="7"/>
       <c r="G15" t="s">
         <v>22</v>
       </c>
@@ -8864,7 +8864,7 @@
       <c r="E16">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16" t="s">
         <v>24</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="E17">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
       <c r="G17" t="s">
         <v>25</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="E18">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
       <c r="G18" t="s">
         <v>26</v>
       </c>
@@ -8927,7 +8927,7 @@
       <c r="E19">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G19" t="s">
@@ -8950,7 +8950,7 @@
       <c r="E20">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="7"/>
       <c r="G20" t="s">
         <v>22</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="E21">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21" t="s">
         <v>24</v>
       </c>
@@ -8992,7 +8992,7 @@
       <c r="E22">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22" t="s">
         <v>25</v>
       </c>
@@ -9013,7 +9013,7 @@
       <c r="E23">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -9036,7 +9036,7 @@
       <c r="E24">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="7"/>
       <c r="G24" t="s">
         <v>22</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="E25">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="7"/>
       <c r="G25" t="s">
         <v>24</v>
       </c>
@@ -9078,7 +9078,7 @@
       <c r="E26">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="7"/>
       <c r="G26" t="s">
         <v>25</v>
       </c>
@@ -9099,7 +9099,7 @@
       <c r="E27">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
@@ -9122,7 +9122,7 @@
       <c r="E28">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="7"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -9143,7 +9143,7 @@
       <c r="E29">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="7"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -9164,7 +9164,7 @@
       <c r="E30">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="7"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -9185,7 +9185,7 @@
       <c r="E31">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" t="s">
@@ -9208,7 +9208,7 @@
       <c r="E32">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="7"/>
       <c r="G32" t="s">
         <v>21</v>
       </c>
@@ -9229,7 +9229,7 @@
       <c r="E33">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="7"/>
       <c r="G33" t="s">
         <v>22</v>
       </c>
@@ -9250,7 +9250,7 @@
       <c r="E34">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="7"/>
       <c r="G34" t="s">
         <v>24</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="E35">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="7"/>
       <c r="G35" t="s">
         <v>25</v>
       </c>
@@ -9292,7 +9292,7 @@
       <c r="E36">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="7"/>
       <c r="G36" t="s">
         <v>26</v>
       </c>
@@ -9313,7 +9313,7 @@
       <c r="E37">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
@@ -9336,7 +9336,7 @@
       <c r="E38">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="7"/>
       <c r="G38" t="s">
         <v>21</v>
       </c>
@@ -9357,7 +9357,7 @@
       <c r="E39">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="7"/>
       <c r="G39" t="s">
         <v>22</v>
       </c>
@@ -9378,7 +9378,7 @@
       <c r="E40">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="7"/>
       <c r="G40" t="s">
         <v>24</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="E41">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="7"/>
       <c r="G41" t="s">
         <v>25</v>
       </c>
@@ -9420,7 +9420,7 @@
       <c r="E42">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="7"/>
       <c r="G42" t="s">
         <v>26</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="E43">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G43" t="s">
@@ -9464,7 +9464,7 @@
       <c r="E44">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="7"/>
       <c r="G44" t="s">
         <v>21</v>
       </c>
@@ -9485,7 +9485,7 @@
       <c r="E45">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="7"/>
       <c r="G45" t="s">
         <v>22</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="E46">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="7"/>
       <c r="G46" t="s">
         <v>24</v>
       </c>
@@ -9527,7 +9527,7 @@
       <c r="E47">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="7"/>
       <c r="G47" t="s">
         <v>25</v>
       </c>
@@ -9548,7 +9548,7 @@
       <c r="E48">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="7"/>
       <c r="G48" t="s">
         <v>26</v>
       </c>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="141">
   <si>
     <t>top</t>
   </si>
@@ -470,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -526,6 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2815,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3347,6 +3354,309 @@
         <v>136</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C22">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D22">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E22">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23">
+        <v>-7.312733000004501E-2</v>
+      </c>
+      <c r="C23">
+        <v>-0.53887365000002241</v>
+      </c>
+      <c r="D23">
+        <v>0.83333937999997643</v>
+      </c>
+      <c r="E23">
+        <v>-1.166291920000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <v>9.6771250000006415E-2</v>
+      </c>
+      <c r="C24">
+        <v>-0.79540719999999432</v>
+      </c>
+      <c r="D24">
+        <v>0.63232099999998281</v>
+      </c>
+      <c r="E24">
+        <v>-0.75137249000001338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <v>8.057561000002833E-2</v>
+      </c>
+      <c r="C25">
+        <v>-1.0797074600000034</v>
+      </c>
+      <c r="D25">
+        <v>0.27143843000003853</v>
+      </c>
+      <c r="E25">
+        <v>-0.20255842999997276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26">
+        <v>-0.28851254999996145</v>
+      </c>
+      <c r="C26">
+        <v>-1.3103844799999766</v>
+      </c>
+      <c r="D26">
+        <v>-9.8751220000004469E-2</v>
+      </c>
+      <c r="E26">
+        <v>-0.45127994999997645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27">
+        <v>-0.15955723000002964</v>
+      </c>
+      <c r="C27">
+        <v>-1.357516900000002</v>
+      </c>
+      <c r="D27">
+        <v>5.6392789999953674E-2</v>
+      </c>
+      <c r="E27">
+        <v>-2.8004680000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>0.47024493000002421</v>
+      </c>
+      <c r="C28">
+        <v>-0.90030351000000941</v>
+      </c>
+      <c r="D28">
+        <v>0.25367177000003194</v>
+      </c>
+      <c r="E28">
+        <v>0.8515528100000247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>0.67499473999997717</v>
+      </c>
+      <c r="C29">
+        <v>-0.49399451999999577</v>
+      </c>
+      <c r="D29">
+        <v>0.6823573599999615</v>
+      </c>
+      <c r="E29">
+        <v>1.2971274999999687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30">
+        <v>1.2211955700000092</v>
+      </c>
+      <c r="C30">
+        <v>-0.25260202999998604</v>
+      </c>
+      <c r="D30">
+        <v>0.53106705999999049</v>
+      </c>
+      <c r="E30">
+        <v>1.3093887599999712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31">
+        <v>0.54101516000001793</v>
+      </c>
+      <c r="C31">
+        <v>-0.11389156000000789</v>
+      </c>
+      <c r="D31">
+        <v>0.69812883000002257</v>
+      </c>
+      <c r="E31">
+        <v>0.49900720000003185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32">
+        <v>-2.7684356900000009</v>
+      </c>
+      <c r="C32">
+        <v>-2.8162229899999662</v>
+      </c>
+      <c r="D32">
+        <v>-1.3810041499999746</v>
+      </c>
+      <c r="E32">
+        <v>-2.6493337999999844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33">
+        <v>-1.4495091499999941</v>
+      </c>
+      <c r="C33">
+        <v>-1.2740884800000405</v>
+      </c>
+      <c r="D33">
+        <v>-0.60284404000004388</v>
+      </c>
+      <c r="E33">
+        <v>-2.6112791200000252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34">
+        <v>0.14885378000001337</v>
+      </c>
+      <c r="C34">
+        <v>-0.94465296999998749</v>
+      </c>
+      <c r="D34">
+        <v>0.33234873000002763</v>
+      </c>
+      <c r="E34">
+        <v>-0.65930397999996648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35">
+        <v>0.12097152000000078</v>
+      </c>
+      <c r="C35">
+        <v>-0.76108612999996161</v>
+      </c>
+      <c r="D35">
+        <v>0.32452593000004226</v>
+      </c>
+      <c r="E35">
+        <v>-0.21816313999996373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36">
+        <v>0.32770350999998099</v>
+      </c>
+      <c r="C36">
+        <v>-1.2081979100000186</v>
+      </c>
+      <c r="D36">
+        <v>-8.3344000000313834E-3</v>
+      </c>
+      <c r="E36">
+        <v>0.56544748999997774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37">
+        <v>0.53514526999997569</v>
+      </c>
+      <c r="C37">
+        <v>-0.67420650000001991</v>
+      </c>
+      <c r="D37">
+        <v>0.26152698999998547</v>
+      </c>
+      <c r="E37">
+        <v>1.4022053700000279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38">
+        <v>1.5711872200000019</v>
+      </c>
+      <c r="C38">
+        <v>-9.1203010000009854E-2</v>
+      </c>
+      <c r="D38">
+        <v>1.7453617199999978</v>
+      </c>
+      <c r="E38">
+        <v>1.3177451499999884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3354,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3886,6 +4196,309 @@
         <v>136</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C22">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D22">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E22">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23">
+        <v>-0.20907174000002415</v>
+      </c>
+      <c r="C23">
+        <v>-0.87727053999997828</v>
+      </c>
+      <c r="D23">
+        <v>0.281680849999979</v>
+      </c>
+      <c r="E23">
+        <v>-1.6635917900000172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <v>9.4676059999972306E-2</v>
+      </c>
+      <c r="C24">
+        <v>-0.72374954000002312</v>
+      </c>
+      <c r="D24">
+        <v>0.6455431900000046</v>
+      </c>
+      <c r="E24">
+        <v>-0.55343082000003596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <v>0.17855065000002268</v>
+      </c>
+      <c r="C25">
+        <v>-0.91048215000000177</v>
+      </c>
+      <c r="D25">
+        <v>0.47335465000002541</v>
+      </c>
+      <c r="E25">
+        <v>-0.1212371599999833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26">
+        <v>9.1546350000033083E-2</v>
+      </c>
+      <c r="C26">
+        <v>-1.2006317699999673</v>
+      </c>
+      <c r="D26">
+        <v>0.16462313999999578</v>
+      </c>
+      <c r="E26">
+        <v>0.52850589000000037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27">
+        <v>0.4771517399999996</v>
+      </c>
+      <c r="C27">
+        <v>-1.2387180599999912</v>
+      </c>
+      <c r="D27">
+        <v>0.30282821000002214</v>
+      </c>
+      <c r="E27">
+        <v>0.66190549000001875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>0.21401460999998134</v>
+      </c>
+      <c r="C28">
+        <v>-1.1046020400000263</v>
+      </c>
+      <c r="D28">
+        <v>0.19173605999997489</v>
+      </c>
+      <c r="E28">
+        <v>0.76648327000001837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>0.6332342100000008</v>
+      </c>
+      <c r="C29">
+        <v>-0.54400558000002697</v>
+      </c>
+      <c r="D29">
+        <v>0.6103417099999926</v>
+      </c>
+      <c r="E29">
+        <v>1.2677218799999914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30">
+        <v>1.2030278100000262</v>
+      </c>
+      <c r="C30">
+        <v>-0.20606281999999432</v>
+      </c>
+      <c r="D30">
+        <v>0.59273791000003184</v>
+      </c>
+      <c r="E30">
+        <v>1.2816491899999769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31">
+        <v>0.45454102000001084</v>
+      </c>
+      <c r="C31">
+        <v>-0.12410134000003303</v>
+      </c>
+      <c r="D31">
+        <v>0.49052082999997237</v>
+      </c>
+      <c r="E31">
+        <v>0.23187475000001223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32">
+        <v>-0.59872628000000505</v>
+      </c>
+      <c r="C32">
+        <v>-0.57492975000001856</v>
+      </c>
+      <c r="D32">
+        <v>0.51704162999998671</v>
+      </c>
+      <c r="E32">
+        <v>-1.3418272600000214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33">
+        <v>-1.5981389999990103E-2</v>
+      </c>
+      <c r="C33">
+        <v>-0.70133271999997682</v>
+      </c>
+      <c r="D33">
+        <v>0.5227679200000277</v>
+      </c>
+      <c r="E33">
+        <v>-1.1151017300000112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34">
+        <v>0.12731257000000396</v>
+      </c>
+      <c r="C34">
+        <v>-0.7783340999999897</v>
+      </c>
+      <c r="D34">
+        <v>0.45073336999995872</v>
+      </c>
+      <c r="E34">
+        <v>-0.36898894000002747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35">
+        <v>-8.1079419999991575E-2</v>
+      </c>
+      <c r="C35">
+        <v>-1.0638068200000195</v>
+      </c>
+      <c r="D35">
+        <v>0.20672167999997937</v>
+      </c>
+      <c r="E35">
+        <v>0.20267458999999599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36">
+        <v>0.29668052999999217</v>
+      </c>
+      <c r="C36">
+        <v>-1.3398479800000533</v>
+      </c>
+      <c r="D36">
+        <v>-9.7033170000039082E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.96402385999997842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37">
+        <v>0.49376295999995845</v>
+      </c>
+      <c r="C37">
+        <v>-0.73753684000001307</v>
+      </c>
+      <c r="D37">
+        <v>0.18362994999994653</v>
+      </c>
+      <c r="E37">
+        <v>1.4440940399999627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38">
+        <v>1.5608885500000045</v>
+      </c>
+      <c r="C38">
+        <v>-0.1035354999999587</v>
+      </c>
+      <c r="D38">
+        <v>0.72725107000001499</v>
+      </c>
+      <c r="E38">
+        <v>1.7310061000000396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3893,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4423,6 +5036,309 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C22">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D22">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E22">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23">
+        <v>-4.3434530399999964</v>
+      </c>
+      <c r="C23">
+        <v>-3.9117692599999661</v>
+      </c>
+      <c r="D23">
+        <v>-3.463529139999999</v>
+      </c>
+      <c r="E23">
+        <v>-5.161355260000013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <v>0.35867884999997868</v>
+      </c>
+      <c r="C24">
+        <v>-0.71073776000002375</v>
+      </c>
+      <c r="D24">
+        <v>0.79334990999995325</v>
+      </c>
+      <c r="E24">
+        <v>-0.61319269000002441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <v>0.18407494000000524</v>
+      </c>
+      <c r="C25">
+        <v>-0.92650837000001651</v>
+      </c>
+      <c r="D25">
+        <v>0.36663705000000091</v>
+      </c>
+      <c r="E25">
+        <v>-0.24708799999998154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26">
+        <v>-0.21569508000000015</v>
+      </c>
+      <c r="C26">
+        <v>-1.5869512099999898</v>
+      </c>
+      <c r="D26">
+        <v>6.7274040000021795E-2</v>
+      </c>
+      <c r="E26">
+        <v>-0.61004850000002397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27">
+        <v>-1.5655078099999966</v>
+      </c>
+      <c r="C27">
+        <v>-1.6387707199999628</v>
+      </c>
+      <c r="D27">
+        <v>-3.2582499999997072E-2</v>
+      </c>
+      <c r="E27">
+        <v>-5.7044750000007749E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>-0.73387263000001868</v>
+      </c>
+      <c r="C28">
+        <v>-1.2657133700000092</v>
+      </c>
+      <c r="D28">
+        <v>0.12634653999997836</v>
+      </c>
+      <c r="E28">
+        <v>0.20040155999996978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>-0.43849701000000296</v>
+      </c>
+      <c r="C29">
+        <v>-0.99902953999997557</v>
+      </c>
+      <c r="D29">
+        <v>0.38707785000001804</v>
+      </c>
+      <c r="E29">
+        <v>0.92983988000001228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30">
+        <v>0.97376396000003096</v>
+      </c>
+      <c r="C30">
+        <v>-0.33272759999999302</v>
+      </c>
+      <c r="D30">
+        <v>1.2220835099999969</v>
+      </c>
+      <c r="E30">
+        <v>1.4171589200000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31">
+        <v>-1.8984687899999924</v>
+      </c>
+      <c r="C31">
+        <v>-2.9733126300000041</v>
+      </c>
+      <c r="D31">
+        <v>-2.8571224799999944</v>
+      </c>
+      <c r="E31">
+        <v>-3.0746677199999985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32">
+        <v>-16.174328099999979</v>
+      </c>
+      <c r="C32">
+        <v>-10.378483560000001</v>
+      </c>
+      <c r="D32">
+        <v>-9.2785791100000168</v>
+      </c>
+      <c r="E32">
+        <v>-10.372659879999977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33">
+        <v>-0.74659743000001955</v>
+      </c>
+      <c r="C33">
+        <v>-0.74826831000000915</v>
+      </c>
+      <c r="D33">
+        <v>-4.0803530000012689E-2</v>
+      </c>
+      <c r="E33">
+        <v>-1.9449134199999967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34">
+        <v>0.51947217000001755</v>
+      </c>
+      <c r="C34">
+        <v>-0.67962783999996113</v>
+      </c>
+      <c r="D34">
+        <v>0.3088068200000218</v>
+      </c>
+      <c r="E34">
+        <v>-0.46533319999999412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35">
+        <v>0.3036590999999933</v>
+      </c>
+      <c r="C35">
+        <v>-1.1555867299999765</v>
+      </c>
+      <c r="D35">
+        <v>1.0455079999978079E-2</v>
+      </c>
+      <c r="E35">
+        <v>-0.17402517000001216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36">
+        <v>-2.7770149999991833E-2</v>
+      </c>
+      <c r="C36">
+        <v>-1.6305337499999784</v>
+      </c>
+      <c r="D36">
+        <v>-0.19441999999998716</v>
+      </c>
+      <c r="E36">
+        <v>0.62712786000001097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37">
+        <v>0.31295723999999181</v>
+      </c>
+      <c r="C37">
+        <v>-0.8096128999999852</v>
+      </c>
+      <c r="D37">
+        <v>0.17545718000001598</v>
+      </c>
+      <c r="E37">
+        <v>1.3497798900000171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38">
+        <v>1.3828378499999761</v>
+      </c>
+      <c r="C38">
+        <v>-0.30789399000001971</v>
+      </c>
+      <c r="D38">
+        <v>1.5808018199999689</v>
+      </c>
+      <c r="E38">
+        <v>1.5076586499999771</v>
       </c>
     </row>
   </sheetData>
@@ -4896,16 +5812,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="141">
   <si>
     <t>top</t>
   </si>
@@ -490,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -513,11 +513,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -529,10 +538,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1835,7 +1845,7 @@
       <c r="D2">
         <v>-0.47390528999999937</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1855,7 +1865,7 @@
       <c r="D3">
         <v>-0.2174370699999546</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1873,7 +1883,7 @@
       <c r="D4">
         <v>-0.14964087999998732</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1891,7 +1901,7 @@
       <c r="D5">
         <v>-0.46813244999997927</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1919,7 @@
       <c r="D6">
         <v>-0.85262562000002085</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1929,7 +1939,7 @@
       <c r="D7">
         <v>-0.2269436999999872</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1947,7 +1957,7 @@
       <c r="D8">
         <v>-0.20223598000000642</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1975,7 @@
       <c r="D9">
         <v>-0.89434942999997169</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1983,7 +1993,7 @@
       <c r="D10">
         <v>-0.86357551000002708</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2003,7 +2013,7 @@
       <c r="D11">
         <v>-6.6925000000370716E-3</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2031,7 @@
       <c r="D12">
         <v>-6.8335939999991879E-2</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2049,7 @@
       <c r="D13">
         <v>-0.86053233000000695</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2057,7 +2067,7 @@
       <c r="D14">
         <v>-0.26818239999999527</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2077,7 +2087,7 @@
       <c r="D15">
         <v>-0.11620982000004609</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2095,7 +2105,7 @@
       <c r="D16">
         <v>-9.8632580000009185E-2</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +2123,7 @@
       <c r="D17">
         <v>-0.26599593000002564</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2131,7 +2141,7 @@
       <c r="D18">
         <v>-9.815918000003343E-2</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2151,7 +2161,7 @@
       <c r="D19">
         <v>-5.3214160000033317E-2</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2169,7 +2179,7 @@
       <c r="D20">
         <v>-4.8406859999994722E-2</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2187,7 +2197,7 @@
       <c r="D21">
         <v>-5.4062390000007454E-2</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2205,7 +2215,7 @@
       <c r="D22">
         <v>-0.89082682999997509</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2225,7 +2235,7 @@
       <c r="D23">
         <v>-0.1189346599999741</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2253,7 @@
       <c r="D24">
         <v>-7.2080819999991164E-2</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2261,7 +2271,7 @@
       <c r="D25">
         <v>-0.88030807000000699</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2279,7 +2289,7 @@
       <c r="D26">
         <v>-0.12092018999998722</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2299,7 +2309,7 @@
       <c r="D27">
         <v>-0.21580672000004064</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2327,7 @@
       <c r="D28">
         <v>-0.16655131000003998</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2345,7 @@
       <c r="D29">
         <v>-0.40859361000002004</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,7 +2363,7 @@
       <c r="D30">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2373,7 +2383,7 @@
       <c r="D31">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2401,7 @@
       <c r="D32">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2409,7 +2419,7 @@
       <c r="D33">
         <v>-0.16012846000000458</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2623,7 +2633,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2822,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3386,7 +3396,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B23">
@@ -3403,7 +3413,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B24">
@@ -3505,7 +3515,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B30">
@@ -3641,7 +3651,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B38">
@@ -3655,6 +3665,310 @@
       </c>
       <c r="E38">
         <v>1.3177451499999884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C41">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D41">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E41">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>-8.2492090000027662E-2</v>
+      </c>
+      <c r="C42">
+        <v>-0.53887365000002241</v>
+      </c>
+      <c r="D42">
+        <v>0.83359824999995835</v>
+      </c>
+      <c r="E42">
+        <v>-1.166291920000011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43">
+        <v>9.6771250000006415E-2</v>
+      </c>
+      <c r="C43">
+        <v>-0.79540719999999432</v>
+      </c>
+      <c r="D43">
+        <v>0.63232099999998281</v>
+      </c>
+      <c r="E43">
+        <v>-0.75137249000001338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44">
+        <v>8.057561000002833E-2</v>
+      </c>
+      <c r="C44">
+        <v>-1.0797074600000034</v>
+      </c>
+      <c r="D44">
+        <v>0.27143843000003853</v>
+      </c>
+      <c r="E44">
+        <v>-0.20255842999997276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45">
+        <v>-0.28851254999996145</v>
+      </c>
+      <c r="C45">
+        <v>-1.3103844799999766</v>
+      </c>
+      <c r="D45">
+        <v>-9.8751220000004469E-2</v>
+      </c>
+      <c r="E45">
+        <v>-0.45127994999997645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>-0.15955723000002964</v>
+      </c>
+      <c r="C46">
+        <v>-1.357516900000002</v>
+      </c>
+      <c r="D46">
+        <v>5.6392789999953674E-2</v>
+      </c>
+      <c r="E46">
+        <v>-2.8004680000000004E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47">
+        <v>0.47024493000002421</v>
+      </c>
+      <c r="C47">
+        <v>-0.90030351000000941</v>
+      </c>
+      <c r="D47">
+        <v>0.25367177000003194</v>
+      </c>
+      <c r="E47">
+        <v>0.8515528100000247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>0.67499473999997717</v>
+      </c>
+      <c r="C48">
+        <v>-0.49399451999999577</v>
+      </c>
+      <c r="D48">
+        <v>0.6823573599999615</v>
+      </c>
+      <c r="E48">
+        <v>1.2971274999999687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49">
+        <v>1.2211955700000092</v>
+      </c>
+      <c r="C49">
+        <v>-0.25260202999998604</v>
+      </c>
+      <c r="D49">
+        <v>0.53106705999999049</v>
+      </c>
+      <c r="E49">
+        <v>1.3093887599999712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50">
+        <v>0.54101516000001793</v>
+      </c>
+      <c r="C50">
+        <v>-0.11389156000000789</v>
+      </c>
+      <c r="D50">
+        <v>0.69825789000002869</v>
+      </c>
+      <c r="E50">
+        <v>0.49971733999999879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51">
+        <v>-2.7684356900000009</v>
+      </c>
+      <c r="C51">
+        <v>-2.8162229899999662</v>
+      </c>
+      <c r="D51">
+        <v>-1.3810041499999746</v>
+      </c>
+      <c r="E51">
+        <v>-3.5177745299999592</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52">
+        <v>-1.4495091499999941</v>
+      </c>
+      <c r="C52">
+        <v>-0.10195565000003093</v>
+      </c>
+      <c r="D52">
+        <v>-0.60284404000004388</v>
+      </c>
+      <c r="E52">
+        <v>-2.6112791200000252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53">
+        <v>0.14885378000001337</v>
+      </c>
+      <c r="C53">
+        <v>-0.94465296999998749</v>
+      </c>
+      <c r="D53">
+        <v>0.33234873000002763</v>
+      </c>
+      <c r="E53">
+        <v>-0.65930397999996648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54">
+        <v>0.12097152000000078</v>
+      </c>
+      <c r="C54">
+        <v>-0.76108612999996161</v>
+      </c>
+      <c r="D54">
+        <v>0.32452593000004226</v>
+      </c>
+      <c r="E54">
+        <v>-0.21816313999996373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55">
+        <v>0.32770350999998099</v>
+      </c>
+      <c r="C55">
+        <v>-1.2081979100000186</v>
+      </c>
+      <c r="D55">
+        <v>-8.3344000000313834E-3</v>
+      </c>
+      <c r="E55">
+        <v>0.56544748999997774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56">
+        <v>0.53514526999997569</v>
+      </c>
+      <c r="C56">
+        <v>-0.67420650000001991</v>
+      </c>
+      <c r="D56">
+        <v>0.26152698999998547</v>
+      </c>
+      <c r="E56">
+        <v>1.4022053700000279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57">
+        <v>1.5711872200000019</v>
+      </c>
+      <c r="C57">
+        <v>-9.1203010000009854E-2</v>
+      </c>
+      <c r="D57">
+        <v>0.68100772999996861</v>
+      </c>
+      <c r="E57">
+        <v>1.3160303000000035</v>
       </c>
     </row>
   </sheetData>
@@ -3664,10 +3978,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4364,7 +4678,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B31">
@@ -4381,7 +4695,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B32">
@@ -4398,7 +4712,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B33">
@@ -4496,6 +4810,309 @@
         <v>0.72725107000001499</v>
       </c>
       <c r="E38">
+        <v>1.7310061000000396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C41">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D41">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E41">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>-0.20907174000002415</v>
+      </c>
+      <c r="C42">
+        <v>-0.54760070000002692</v>
+      </c>
+      <c r="D42">
+        <v>0.28005290999998733</v>
+      </c>
+      <c r="E42">
+        <v>-1.6635917900000172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43">
+        <v>0.39439508999997797</v>
+      </c>
+      <c r="C43">
+        <v>-0.72374954000002312</v>
+      </c>
+      <c r="D43">
+        <v>0.6455431900000046</v>
+      </c>
+      <c r="E43">
+        <v>-0.57369748999999137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44">
+        <v>0.17855065000002268</v>
+      </c>
+      <c r="C44">
+        <v>-0.91048215000000177</v>
+      </c>
+      <c r="D44">
+        <v>0.47335465000002541</v>
+      </c>
+      <c r="E44">
+        <v>-9.9856239999970509E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45">
+        <v>9.1546350000033083E-2</v>
+      </c>
+      <c r="C45">
+        <v>-1.2006317699999673</v>
+      </c>
+      <c r="D45">
+        <v>0.16462313999999578</v>
+      </c>
+      <c r="E45">
+        <v>0.52850589000000037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>0.4771517399999996</v>
+      </c>
+      <c r="C46">
+        <v>-1.2387180599999912</v>
+      </c>
+      <c r="D46">
+        <v>0.30282821000002214</v>
+      </c>
+      <c r="E46">
+        <v>0.66190549000001875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47">
+        <v>0.21401460999998134</v>
+      </c>
+      <c r="C47">
+        <v>-1.1046020400000263</v>
+      </c>
+      <c r="D47">
+        <v>0.19173605999997489</v>
+      </c>
+      <c r="E47">
+        <v>0.76648327000001837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>0.6332342100000008</v>
+      </c>
+      <c r="C48">
+        <v>-0.54400558000002697</v>
+      </c>
+      <c r="D48">
+        <v>0.6103417099999926</v>
+      </c>
+      <c r="E48">
+        <v>1.2677218799999914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49">
+        <v>1.2030278100000262</v>
+      </c>
+      <c r="C49">
+        <v>-0.20606281999999432</v>
+      </c>
+      <c r="D49">
+        <v>0.59273791000003184</v>
+      </c>
+      <c r="E49">
+        <v>1.2816491899999769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50">
+        <v>0.45454102000001084</v>
+      </c>
+      <c r="C50">
+        <v>-0.12410134000003303</v>
+      </c>
+      <c r="D50">
+        <v>0.49052082999997237</v>
+      </c>
+      <c r="E50">
+        <v>0.23187475000001223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51">
+        <v>-0.59872628000000505</v>
+      </c>
+      <c r="C51">
+        <v>-0.57492975000001856</v>
+      </c>
+      <c r="D51">
+        <v>0.51704162999998671</v>
+      </c>
+      <c r="E51">
+        <v>-1.3418272600000214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52">
+        <v>8.2241929999998131E-2</v>
+      </c>
+      <c r="C52">
+        <v>-0.70133271999997682</v>
+      </c>
+      <c r="D52">
+        <v>0.5227679200000277</v>
+      </c>
+      <c r="E52">
+        <v>-1.1151017300000112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53">
+        <v>0.13088558999998012</v>
+      </c>
+      <c r="C53">
+        <v>-0.7783340999999897</v>
+      </c>
+      <c r="D53">
+        <v>0.45073336999995872</v>
+      </c>
+      <c r="E53">
+        <v>-0.38701501000004646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54">
+        <v>-8.1079419999991575E-2</v>
+      </c>
+      <c r="C54">
+        <v>-1.0638068200000195</v>
+      </c>
+      <c r="D54">
+        <v>0.20672167999997937</v>
+      </c>
+      <c r="E54">
+        <v>0.20267458999999599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55">
+        <v>0.29668052999999217</v>
+      </c>
+      <c r="C55">
+        <v>-1.3398479800000533</v>
+      </c>
+      <c r="D55">
+        <v>-9.7033170000039082E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.96402385999997842</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56">
+        <v>0.49376295999995845</v>
+      </c>
+      <c r="C56">
+        <v>-0.73753684000001307</v>
+      </c>
+      <c r="D56">
+        <v>0.18362994999994653</v>
+      </c>
+      <c r="E56">
+        <v>1.4440940399999627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57">
+        <v>1.5608885500000045</v>
+      </c>
+      <c r="C57">
+        <v>-0.1035354999999587</v>
+      </c>
+      <c r="D57">
+        <v>0.72725107000001499</v>
+      </c>
+      <c r="E57">
         <v>1.7310061000000396</v>
       </c>
     </row>
@@ -4506,10 +5123,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5070,7 +5687,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B23">
@@ -5189,7 +5806,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B30">
@@ -5206,7 +5823,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B31">
@@ -5223,7 +5840,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B32">
@@ -5240,7 +5857,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B33">
@@ -5325,7 +5942,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B38">
@@ -5338,6 +5955,309 @@
         <v>1.5808018199999689</v>
       </c>
       <c r="E38">
+        <v>1.5076586499999771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C41">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D41">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E41">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>-4.3434530399999964</v>
+      </c>
+      <c r="C42">
+        <v>-3.9117692599999661</v>
+      </c>
+      <c r="D42">
+        <v>-3.463529139999999</v>
+      </c>
+      <c r="E42">
+        <v>-5.1130951099999802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43">
+        <v>0.35867884999997868</v>
+      </c>
+      <c r="C43">
+        <v>-0.71073776000002375</v>
+      </c>
+      <c r="D43">
+        <v>0.79334990999995325</v>
+      </c>
+      <c r="E43">
+        <v>-0.65437589000000207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44">
+        <v>0.18407494000000524</v>
+      </c>
+      <c r="C44">
+        <v>-8.780066999997338E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.36663705000000091</v>
+      </c>
+      <c r="E44">
+        <v>-0.24708799999998154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45">
+        <v>-0.21569508000000015</v>
+      </c>
+      <c r="C45">
+        <v>-1.5869512099999898</v>
+      </c>
+      <c r="D45">
+        <v>6.7274040000021795E-2</v>
+      </c>
+      <c r="E45">
+        <v>-0.61004850000002397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>-1.5655078099999966</v>
+      </c>
+      <c r="C46">
+        <v>-1.6387707199999628</v>
+      </c>
+      <c r="D46">
+        <v>-3.2582499999997072E-2</v>
+      </c>
+      <c r="E46">
+        <v>-5.7044750000007749E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47">
+        <v>-0.73387263000001868</v>
+      </c>
+      <c r="C47">
+        <v>-1.2657133700000092</v>
+      </c>
+      <c r="D47">
+        <v>0.12634653999997836</v>
+      </c>
+      <c r="E47">
+        <v>0.20040155999996978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>-0.43849701000000296</v>
+      </c>
+      <c r="C48">
+        <v>-0.99902953999997557</v>
+      </c>
+      <c r="D48">
+        <v>0.38707785000001804</v>
+      </c>
+      <c r="E48">
+        <v>0.92983988000001228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49">
+        <v>1.1004239500000383</v>
+      </c>
+      <c r="C49">
+        <v>-0.1837807100000024</v>
+      </c>
+      <c r="D49">
+        <v>1.2220835099999969</v>
+      </c>
+      <c r="E49">
+        <v>1.4171589200000008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50">
+        <v>-1.8984687899999924</v>
+      </c>
+      <c r="C50">
+        <v>-2.9733126300000041</v>
+      </c>
+      <c r="D50">
+        <v>-2.8571224799999944</v>
+      </c>
+      <c r="E50">
+        <v>-3.0746677199999985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51">
+        <v>-16.174328099999979</v>
+      </c>
+      <c r="C51">
+        <v>-10.378483560000001</v>
+      </c>
+      <c r="D51">
+        <v>-9.0241084300000196</v>
+      </c>
+      <c r="E51">
+        <v>-10.372659879999977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52">
+        <v>-0.74659743000001955</v>
+      </c>
+      <c r="C52">
+        <v>-0.74826831000000915</v>
+      </c>
+      <c r="D52">
+        <v>-4.0803530000012689E-2</v>
+      </c>
+      <c r="E52">
+        <v>-1.9449134199999967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53">
+        <v>0.51947217000001755</v>
+      </c>
+      <c r="C53">
+        <v>-9.2613959999988893E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.3088068200000218</v>
+      </c>
+      <c r="E53">
+        <v>-0.46533319999999412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54">
+        <v>0.3036590999999933</v>
+      </c>
+      <c r="C54">
+        <v>-1.1555867299999765</v>
+      </c>
+      <c r="D54">
+        <v>1.0455079999978079E-2</v>
+      </c>
+      <c r="E54">
+        <v>-0.17402517000001216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55">
+        <v>-2.7770149999991833E-2</v>
+      </c>
+      <c r="C55">
+        <v>-1.6305337499999784</v>
+      </c>
+      <c r="D55">
+        <v>-0.19441999999998716</v>
+      </c>
+      <c r="E55">
+        <v>0.62712786000001097</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56">
+        <v>0.31295723999999181</v>
+      </c>
+      <c r="C56">
+        <v>-0.8096128999999852</v>
+      </c>
+      <c r="D56">
+        <v>0.17545718000001598</v>
+      </c>
+      <c r="E56">
+        <v>1.3497798900000171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57">
+        <v>1.3630387699999917</v>
+      </c>
+      <c r="C57">
+        <v>-0.30789399000001971</v>
+      </c>
+      <c r="D57">
+        <v>1.5808018199999689</v>
+      </c>
+      <c r="E57">
         <v>1.5076586499999771</v>
       </c>
     </row>
@@ -5386,7 +6306,7 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -5409,7 +6329,7 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
@@ -5430,7 +6350,7 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -5453,7 +6373,7 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -5474,7 +6394,7 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -5497,7 +6417,7 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
@@ -5518,7 +6438,7 @@
       <c r="E8">
         <v>0.14226739000000999</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5541,7 +6461,7 @@
       <c r="E9">
         <v>4.2632153400000252</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
@@ -5562,7 +6482,7 @@
       <c r="E10">
         <v>0.51245177000002196</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -5585,7 +6505,7 @@
       <c r="E11">
         <v>8.3088318700000432</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
@@ -5606,7 +6526,7 @@
       <c r="E12">
         <v>0.62535685999999169</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -5629,7 +6549,7 @@
       <c r="E13">
         <v>6.3772676000000192</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5650,7 +6570,7 @@
       <c r="E14">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -5673,7 +6593,7 @@
       <c r="E15">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
@@ -5694,7 +6614,7 @@
       <c r="E16">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -5717,7 +6637,7 @@
       <c r="E17">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
@@ -5738,7 +6658,7 @@
       <c r="E18">
         <v>-1.8782816399999738</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -5761,7 +6681,7 @@
       <c r="E19">
         <v>-1.8217238399999665</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
@@ -5782,7 +6702,7 @@
       <c r="E20">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -5805,7 +6725,7 @@
       <c r="E21">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
@@ -5869,7 +6789,7 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -5892,7 +6812,7 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
@@ -5913,7 +6833,7 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -5936,7 +6856,7 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -5957,7 +6877,7 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -5980,7 +6900,7 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
@@ -6070,7 +6990,7 @@
       <c r="E11">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -6093,7 +7013,7 @@
       <c r="E12">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
@@ -6114,7 +7034,7 @@
       <c r="E13">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -6137,7 +7057,7 @@
       <c r="E14">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
@@ -6223,7 +7143,7 @@
       <c r="E2">
         <v>1.2935858699999963</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -6246,7 +7166,7 @@
       <c r="E3">
         <v>-3.3286741500000026</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
@@ -6267,7 +7187,7 @@
       <c r="E4">
         <v>-3.1104937299999924</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
@@ -6288,7 +7208,7 @@
       <c r="E5">
         <v>-3.1437701200000183</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
@@ -6309,7 +7229,7 @@
       <c r="E6">
         <v>-3.4894202499999856</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
@@ -6330,7 +7250,7 @@
       <c r="E7">
         <v>-3.421031649999994</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
@@ -6351,7 +7271,7 @@
       <c r="E8">
         <v>1.0416510000008206E-2</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -6374,7 +7294,7 @@
       <c r="E9">
         <v>-4.2314792699999852</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
@@ -6395,7 +7315,7 @@
       <c r="E10">
         <v>-4.2303015099999666</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
@@ -6416,7 +7336,7 @@
       <c r="E11">
         <v>-2.9591973099999982</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
@@ -6437,7 +7357,7 @@
       <c r="E12">
         <v>-4.2312478699999669</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
@@ -6458,7 +7378,7 @@
       <c r="E13">
         <v>-4.2262306999999932</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
@@ -6479,7 +7399,7 @@
       <c r="E14">
         <v>-8.0094700000095109E-3</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -6502,7 +7422,7 @@
       <c r="E15">
         <v>-3.2112205400000184</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
@@ -6523,7 +7443,7 @@
       <c r="E16">
         <v>-3.5570871599999996</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
@@ -6544,7 +7464,7 @@
       <c r="E17">
         <v>-2.2389596200000219</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6565,7 +7485,7 @@
       <c r="E18">
         <v>-3.8757445999999809</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
@@ -6586,7 +7506,7 @@
       <c r="E19">
         <v>-3.2088812299999936</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
@@ -6607,7 +7527,7 @@
       <c r="E20">
         <v>0.2912446800000148</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -6630,7 +7550,7 @@
       <c r="E21">
         <v>-0.61553360000001112</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
@@ -6651,7 +7571,7 @@
       <c r="E22">
         <v>0.69130318999996598</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2" t="s">
         <v>22</v>
       </c>
@@ -6672,7 +7592,7 @@
       <c r="E23">
         <v>-2.8091360300000097</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
@@ -6693,7 +7613,7 @@
       <c r="E24">
         <v>-0.61524676000001</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
@@ -6714,7 +7634,7 @@
       <c r="E25">
         <v>-0.62828945000003023</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="2" t="s">
         <v>25</v>
       </c>
@@ -6735,7 +7655,7 @@
       <c r="E26">
         <v>0.46643433000000778</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -6758,7 +7678,7 @@
       <c r="E27">
         <v>0.903472209999999</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
@@ -6779,7 +7699,7 @@
       <c r="E28">
         <v>0.84148148000000811</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
@@ -6800,7 +7720,7 @@
       <c r="E29">
         <v>0.39160640999998941</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
@@ -6821,7 +7741,7 @@
       <c r="E30">
         <v>0.4598667300000252</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
@@ -6842,7 +7762,7 @@
       <c r="E31">
         <v>0.43486789000000181</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2" t="s">
         <v>25</v>
       </c>
@@ -6863,7 +7783,7 @@
       <c r="E32">
         <v>0.72828822000000537</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -6886,7 +7806,7 @@
       <c r="E33">
         <v>-1.8093774300000027</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
@@ -6907,7 +7827,7 @@
       <c r="E34">
         <v>-2.8888200299999958</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="2" t="s">
         <v>22</v>
       </c>
@@ -6928,7 +7848,7 @@
       <c r="E35">
         <v>-2.920528319999979</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="2" t="s">
         <v>23</v>
       </c>
@@ -6949,7 +7869,7 @@
       <c r="E36">
         <v>-3.7402288500000131</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="2" t="s">
         <v>24</v>
       </c>
@@ -6970,7 +7890,7 @@
       <c r="E37">
         <v>-3.7541400699999676</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="2" t="s">
         <v>25</v>
       </c>
@@ -6991,7 +7911,7 @@
       <c r="E38">
         <v>-0.10956448999998747</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -7014,7 +7934,7 @@
       <c r="E39">
         <v>-3.3781302200000218</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
@@ -7035,7 +7955,7 @@
       <c r="E40">
         <v>-3.0962576600000111</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="2" t="s">
         <v>22</v>
       </c>
@@ -7056,7 +7976,7 @@
       <c r="E41">
         <v>-3.1365675500000143</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="2" t="s">
         <v>23</v>
       </c>
@@ -7077,7 +7997,7 @@
       <c r="E42">
         <v>-3.4310350099999787</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="2" t="s">
         <v>24</v>
       </c>
@@ -7098,7 +8018,7 @@
       <c r="E43">
         <v>-3.2458180800000114</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
@@ -7119,7 +8039,7 @@
       <c r="E44">
         <v>-0.72050734000000238</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -7142,7 +8062,7 @@
       <c r="E45">
         <v>-3.5928139000000292</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="2" t="s">
         <v>21</v>
       </c>
@@ -7163,7 +8083,7 @@
       <c r="E46">
         <v>-2.9767799400000476</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="2" t="s">
         <v>22</v>
       </c>
@@ -7184,7 +8104,7 @@
       <c r="E47">
         <v>-2.9873096500000051</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="2" t="s">
         <v>23</v>
       </c>
@@ -7205,7 +8125,7 @@
       <c r="E48">
         <v>-3.5974591500000392</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="2" t="s">
         <v>24</v>
       </c>
@@ -7226,7 +8146,7 @@
       <c r="E49">
         <v>-3.6436352399999996</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="2" t="s">
         <v>25</v>
       </c>
@@ -7247,7 +8167,7 @@
       <c r="E50">
         <v>-2.3328917399999987</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -7270,7 +8190,7 @@
       <c r="E51">
         <v>-3.4867817600000044</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="2" t="s">
         <v>21</v>
       </c>
@@ -7291,7 +8211,7 @@
       <c r="E52">
         <v>-2.9845752900000284</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="2" t="s">
         <v>22</v>
       </c>
@@ -7312,7 +8232,7 @@
       <c r="E53">
         <v>-2.9731511300000384</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="2" t="s">
         <v>23</v>
       </c>
@@ -7333,7 +8253,7 @@
       <c r="E54">
         <v>-3.487692530000023</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="2" t="s">
         <v>24</v>
       </c>
@@ -7354,7 +8274,7 @@
       <c r="E55">
         <v>-3.5815205400000045</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="2" t="s">
         <v>25</v>
       </c>
@@ -7375,7 +8295,7 @@
       <c r="E56">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -7398,7 +8318,7 @@
       <c r="E57">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="2" t="s">
         <v>18</v>
       </c>
@@ -7461,7 +8381,7 @@
       <c r="E2">
         <v>-8.0094700000095109E-3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7484,7 +8404,7 @@
       <c r="E3">
         <v>-3.2112205400000184</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
@@ -7505,7 +8425,7 @@
       <c r="E4">
         <v>-3.5570871599999996</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
@@ -7526,7 +8446,7 @@
       <c r="E5">
         <v>-3.8757445999999809</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
@@ -7547,7 +8467,7 @@
       <c r="E6">
         <v>-3.2088812299999936</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
@@ -7568,7 +8488,7 @@
       <c r="E7">
         <v>0.46643433000000778</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -7591,7 +8511,7 @@
       <c r="E8">
         <v>0.84148148000000811</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
@@ -7612,7 +8532,7 @@
       <c r="E9">
         <v>0.39160640999998941</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
@@ -7633,7 +8553,7 @@
       <c r="E10">
         <v>0.43486789000000181</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
@@ -7654,7 +8574,7 @@
       <c r="E11">
         <v>-0.72050734000000238</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -7677,7 +8597,7 @@
       <c r="E12">
         <v>-3.5928139000000292</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
@@ -7698,7 +8618,7 @@
       <c r="E13">
         <v>-2.9767799400000476</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2" t="s">
         <v>22</v>
       </c>
@@ -7719,7 +8639,7 @@
       <c r="E14">
         <v>-2.9873096500000051</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
@@ -7740,7 +8660,7 @@
       <c r="E15">
         <v>-3.5974591500000392</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
@@ -7761,7 +8681,7 @@
       <c r="E16">
         <v>-3.6436352399999996</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
@@ -7782,7 +8702,7 @@
       <c r="E17">
         <v>-2.3328917399999987</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -7805,7 +8725,7 @@
       <c r="E18">
         <v>-3.4867817600000044</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
@@ -7826,7 +8746,7 @@
       <c r="E19">
         <v>-2.9845752900000284</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2" t="s">
         <v>22</v>
       </c>
@@ -7847,7 +8767,7 @@
       <c r="E20">
         <v>-2.9731511300000384</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
@@ -7868,7 +8788,7 @@
       <c r="E21">
         <v>-3.487692530000023</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
@@ -7889,7 +8809,7 @@
       <c r="E22">
         <v>-3.5815205400000045</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
@@ -7910,7 +8830,7 @@
       <c r="E23">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -7933,7 +8853,7 @@
       <c r="E24">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2" t="s">
         <v>18</v>
       </c>
@@ -7991,7 +8911,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -8014,7 +8934,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -8035,7 +8955,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="9"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -8056,7 +8976,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -8077,7 +8997,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="9"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -8098,7 +9018,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -8119,7 +9039,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -8142,7 +9062,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -8163,7 +9083,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -8184,7 +9104,7 @@
       <c r="E11">
         <v>0.58237949999998273</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
       <c r="G11" t="s">
         <v>24</v>
       </c>
@@ -8205,7 +9125,7 @@
       <c r="E12">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
       <c r="G12" t="s">
         <v>25</v>
       </c>
@@ -8226,7 +9146,7 @@
       <c r="E13">
         <v>1.573956569999988</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" t="s">
         <v>26</v>
       </c>
@@ -8247,7 +9167,7 @@
       <c r="E14">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
@@ -8270,7 +9190,7 @@
       <c r="E15">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
       <c r="G15" t="s">
         <v>21</v>
       </c>
@@ -8291,7 +9211,7 @@
       <c r="E16">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="9"/>
       <c r="G16" t="s">
         <v>22</v>
       </c>
@@ -8312,7 +9232,7 @@
       <c r="E17">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="9"/>
       <c r="G17" t="s">
         <v>24</v>
       </c>
@@ -8333,7 +9253,7 @@
       <c r="E18">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="9"/>
       <c r="G18" t="s">
         <v>25</v>
       </c>
@@ -8354,7 +9274,7 @@
       <c r="E19">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9"/>
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -8375,7 +9295,7 @@
       <c r="E20">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
@@ -8398,7 +9318,7 @@
       <c r="E21">
         <v>3.3490576900000328</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9"/>
       <c r="G21" t="s">
         <v>21</v>
       </c>
@@ -8419,7 +9339,7 @@
       <c r="E22">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="9"/>
       <c r="G22" t="s">
         <v>22</v>
       </c>
@@ -8440,7 +9360,7 @@
       <c r="E23">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="9"/>
       <c r="G23" t="s">
         <v>24</v>
       </c>
@@ -8461,7 +9381,7 @@
       <c r="E24">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9"/>
       <c r="G24" t="s">
         <v>25</v>
       </c>
@@ -8482,7 +9402,7 @@
       <c r="E25">
         <v>2.0686931599999903</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="9"/>
       <c r="G25" t="s">
         <v>26</v>
       </c>
@@ -8503,7 +9423,7 @@
       <c r="E26">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G26" t="s">
@@ -8526,7 +9446,7 @@
       <c r="E27">
         <v>5.2405252600000072</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="9"/>
       <c r="G27" t="s">
         <v>21</v>
       </c>
@@ -8547,7 +9467,7 @@
       <c r="E28">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="9"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -8568,7 +9488,7 @@
       <c r="E29">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="9"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -8589,7 +9509,7 @@
       <c r="E30">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="9"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -8610,7 +9530,7 @@
       <c r="E31">
         <v>3.9270744799999684</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="9"/>
       <c r="G31" t="s">
         <v>26</v>
       </c>
@@ -8631,7 +9551,7 @@
       <c r="E32">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
@@ -8654,7 +9574,7 @@
       <c r="E33">
         <v>3.7204950799999588</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="9"/>
       <c r="G33" t="s">
         <v>21</v>
       </c>
@@ -8675,7 +9595,7 @@
       <c r="E34">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="9"/>
       <c r="G34" t="s">
         <v>22</v>
       </c>
@@ -8696,7 +9616,7 @@
       <c r="E35">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="9"/>
       <c r="G35" t="s">
         <v>24</v>
       </c>
@@ -8720,7 +9640,7 @@
       <c r="E36">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="9"/>
       <c r="G36" t="s">
         <v>25</v>
       </c>
@@ -8741,7 +9661,7 @@
       <c r="E37">
         <v>2.8620324599999472</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="9"/>
       <c r="G37" t="s">
         <v>26</v>
       </c>
@@ -8762,7 +9682,7 @@
       <c r="E38">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
@@ -8785,7 +9705,7 @@
       <c r="E39">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="9"/>
       <c r="G39" t="s">
         <v>21</v>
       </c>
@@ -8806,7 +9726,7 @@
       <c r="E40">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="9"/>
       <c r="G40" t="s">
         <v>22</v>
       </c>
@@ -8827,7 +9747,7 @@
       <c r="E41">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="9"/>
       <c r="G41" t="s">
         <v>24</v>
       </c>
@@ -8848,7 +9768,7 @@
       <c r="E42">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="9"/>
       <c r="G42" t="s">
         <v>25</v>
       </c>
@@ -8869,7 +9789,7 @@
       <c r="E43">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="9"/>
       <c r="G43" t="s">
         <v>26</v>
       </c>
@@ -8890,7 +9810,7 @@
       <c r="E44">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -8913,7 +9833,7 @@
       <c r="E45">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="9"/>
       <c r="G45" t="s">
         <v>21</v>
       </c>
@@ -8934,7 +9854,7 @@
       <c r="E46">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="9"/>
       <c r="G46" t="s">
         <v>22</v>
       </c>
@@ -8955,7 +9875,7 @@
       <c r="E47">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="9"/>
       <c r="G47" t="s">
         <v>24</v>
       </c>
@@ -8976,7 +9896,7 @@
       <c r="E48">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="9"/>
       <c r="G48" t="s">
         <v>25</v>
       </c>
@@ -8997,7 +9917,7 @@
       <c r="E49">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="9"/>
       <c r="G49" t="s">
         <v>26</v>
       </c>
@@ -9018,7 +9938,7 @@
       <c r="E50">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
@@ -9041,7 +9961,7 @@
       <c r="E51">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="9"/>
       <c r="G51" t="s">
         <v>21</v>
       </c>
@@ -9062,7 +9982,7 @@
       <c r="E52">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="9"/>
       <c r="G52" t="s">
         <v>22</v>
       </c>
@@ -9083,7 +10003,7 @@
       <c r="E53">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="9"/>
       <c r="G53" t="s">
         <v>24</v>
       </c>
@@ -9104,7 +10024,7 @@
       <c r="E54">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="9"/>
       <c r="G54" t="s">
         <v>25</v>
       </c>
@@ -9125,7 +10045,7 @@
       <c r="E55">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="9"/>
       <c r="G55" t="s">
         <v>26</v>
       </c>
@@ -9146,7 +10066,7 @@
       <c r="E56">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -9169,7 +10089,7 @@
       <c r="E57">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="2" t="s">
         <v>18</v>
       </c>
@@ -9480,7 +10400,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -9503,7 +10423,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -9524,7 +10444,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="9"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -9545,7 +10465,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -9566,7 +10486,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="9"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -9587,7 +10507,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -9608,7 +10528,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -9631,7 +10551,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -9652,7 +10572,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -9673,7 +10593,7 @@
       <c r="E11">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
       <c r="G11" t="s">
         <v>25</v>
       </c>
@@ -9694,7 +10614,7 @@
       <c r="E12">
         <v>1.573956569999988</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
       <c r="G12" t="s">
         <v>26</v>
       </c>
@@ -9715,7 +10635,7 @@
       <c r="E13">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
@@ -9738,7 +10658,7 @@
       <c r="E14">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
       <c r="G14" t="s">
         <v>21</v>
       </c>
@@ -9759,7 +10679,7 @@
       <c r="E15">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
       <c r="G15" t="s">
         <v>22</v>
       </c>
@@ -9780,7 +10700,7 @@
       <c r="E16">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="9"/>
       <c r="G16" t="s">
         <v>24</v>
       </c>
@@ -9801,7 +10721,7 @@
       <c r="E17">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="9"/>
       <c r="G17" t="s">
         <v>25</v>
       </c>
@@ -9822,7 +10742,7 @@
       <c r="E18">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="9"/>
       <c r="G18" t="s">
         <v>26</v>
       </c>
@@ -9843,7 +10763,7 @@
       <c r="E19">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G19" t="s">
@@ -9866,7 +10786,7 @@
       <c r="E20">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="9"/>
       <c r="G20" t="s">
         <v>22</v>
       </c>
@@ -9887,7 +10807,7 @@
       <c r="E21">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9"/>
       <c r="G21" t="s">
         <v>24</v>
       </c>
@@ -9908,7 +10828,7 @@
       <c r="E22">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="9"/>
       <c r="G22" t="s">
         <v>25</v>
       </c>
@@ -9929,7 +10849,7 @@
       <c r="E23">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -9952,7 +10872,7 @@
       <c r="E24">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9"/>
       <c r="G24" t="s">
         <v>22</v>
       </c>
@@ -9973,7 +10893,7 @@
       <c r="E25">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="9"/>
       <c r="G25" t="s">
         <v>24</v>
       </c>
@@ -9994,7 +10914,7 @@
       <c r="E26">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="9"/>
       <c r="G26" t="s">
         <v>25</v>
       </c>
@@ -10015,7 +10935,7 @@
       <c r="E27">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
@@ -10038,7 +10958,7 @@
       <c r="E28">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="9"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -10059,7 +10979,7 @@
       <c r="E29">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="9"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -10080,7 +11000,7 @@
       <c r="E30">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="9"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -10101,7 +11021,7 @@
       <c r="E31">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G31" t="s">
@@ -10124,7 +11044,7 @@
       <c r="E32">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="9"/>
       <c r="G32" t="s">
         <v>21</v>
       </c>
@@ -10145,7 +11065,7 @@
       <c r="E33">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="9"/>
       <c r="G33" t="s">
         <v>22</v>
       </c>
@@ -10166,7 +11086,7 @@
       <c r="E34">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="9"/>
       <c r="G34" t="s">
         <v>24</v>
       </c>
@@ -10187,7 +11107,7 @@
       <c r="E35">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="9"/>
       <c r="G35" t="s">
         <v>25</v>
       </c>
@@ -10208,7 +11128,7 @@
       <c r="E36">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="9"/>
       <c r="G36" t="s">
         <v>26</v>
       </c>
@@ -10229,7 +11149,7 @@
       <c r="E37">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
@@ -10252,7 +11172,7 @@
       <c r="E38">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="9"/>
       <c r="G38" t="s">
         <v>21</v>
       </c>
@@ -10273,7 +11193,7 @@
       <c r="E39">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="9"/>
       <c r="G39" t="s">
         <v>22</v>
       </c>
@@ -10294,7 +11214,7 @@
       <c r="E40">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="9"/>
       <c r="G40" t="s">
         <v>24</v>
       </c>
@@ -10315,7 +11235,7 @@
       <c r="E41">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="9"/>
       <c r="G41" t="s">
         <v>25</v>
       </c>
@@ -10336,7 +11256,7 @@
       <c r="E42">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="9"/>
       <c r="G42" t="s">
         <v>26</v>
       </c>
@@ -10357,7 +11277,7 @@
       <c r="E43">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G43" t="s">
@@ -10380,7 +11300,7 @@
       <c r="E44">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="9"/>
       <c r="G44" t="s">
         <v>21</v>
       </c>
@@ -10401,7 +11321,7 @@
       <c r="E45">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="9"/>
       <c r="G45" t="s">
         <v>22</v>
       </c>
@@ -10422,7 +11342,7 @@
       <c r="E46">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="9"/>
       <c r="G46" t="s">
         <v>24</v>
       </c>
@@ -10443,7 +11363,7 @@
       <c r="E47">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="9"/>
       <c r="G47" t="s">
         <v>25</v>
       </c>
@@ -10464,7 +11384,7 @@
       <c r="E48">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="9"/>
       <c r="G48" t="s">
         <v>26</v>
       </c>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="island-new" sheetId="17" r:id="rId12"/>
     <sheet name="paral-new" sheetId="16" r:id="rId13"/>
     <sheet name="overly-new" sheetId="18" r:id="rId14"/>
+    <sheet name="triangle" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="141">
   <si>
     <t>top</t>
   </si>
@@ -5125,8 +5126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:E43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6259,6 +6260,327 @@
       </c>
       <c r="E57">
         <v>1.5076586499999771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.42933610999999727</v>
+      </c>
+      <c r="C2">
+        <v>6.6492219999980673E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.39790908999997709</v>
+      </c>
+      <c r="E2">
+        <v>1.4792182400000038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>0.1082790600000183</v>
+      </c>
+      <c r="C3">
+        <v>-0.58076908999998444</v>
+      </c>
+      <c r="D3">
+        <v>1.0337510300000115</v>
+      </c>
+      <c r="E3">
+        <v>-0.90961544999995203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>0.23992321999996902</v>
+      </c>
+      <c r="C4">
+        <v>-0.77540139000000785</v>
+      </c>
+      <c r="D4">
+        <v>0.64273315999996994</v>
+      </c>
+      <c r="E4">
+        <v>-0.67344986000002427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0.18095419999996265</v>
+      </c>
+      <c r="C5">
+        <v>-1.0690971400000482</v>
+      </c>
+      <c r="D5">
+        <v>-0.30443030000004301</v>
+      </c>
+      <c r="E5">
+        <v>-0.48528545000001122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0.16563608999995294</v>
+      </c>
+      <c r="C6">
+        <v>-1.523302790000054</v>
+      </c>
+      <c r="D6">
+        <v>-0.38657522000000499</v>
+      </c>
+      <c r="E6">
+        <v>-0.17555148000004328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.20688009999996693</v>
+      </c>
+      <c r="C7">
+        <v>-1.467664890000032</v>
+      </c>
+      <c r="D7">
+        <v>-0.3427896300000346</v>
+      </c>
+      <c r="E7">
+        <v>0.66741169999998329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>0.60493281000002552</v>
+      </c>
+      <c r="C8">
+        <v>-0.86882718999998509</v>
+      </c>
+      <c r="D8">
+        <v>-0.10867643000001026</v>
+      </c>
+      <c r="E8">
+        <v>1.1108315500000381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>0.60431406000002452</v>
+      </c>
+      <c r="C9">
+        <v>-0.53113116000002414</v>
+      </c>
+      <c r="D9">
+        <v>-0.36188369000002085</v>
+      </c>
+      <c r="E9">
+        <v>1.3419886299999839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>1.2627092599999972</v>
+      </c>
+      <c r="C10">
+        <v>-0.18782816999998353</v>
+      </c>
+      <c r="D10">
+        <v>-0.16880277999997206</v>
+      </c>
+      <c r="E10">
+        <v>1.075510050000029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0.50593582000003634</v>
+      </c>
+      <c r="C11">
+        <v>-0.12583206999999597</v>
+      </c>
+      <c r="D11">
+        <v>0.51077869000004439</v>
+      </c>
+      <c r="E11">
+        <v>0.26015976000000274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>-0.86507283999999318</v>
+      </c>
+      <c r="C12">
+        <v>-0.55292542000000289</v>
+      </c>
+      <c r="D12">
+        <v>7.0904049999959806E-2</v>
+      </c>
+      <c r="E12">
+        <v>-1.5629907200000352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>4.6822400000112729E-3</v>
+      </c>
+      <c r="C13">
+        <v>-0.69422048000000736</v>
+      </c>
+      <c r="D13">
+        <v>0.49731945000001287</v>
+      </c>
+      <c r="E13">
+        <v>-1.1190874699999731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0.27769622999999255</v>
+      </c>
+      <c r="C14">
+        <v>-0.91720978000000208</v>
+      </c>
+      <c r="D14">
+        <v>0.38173928000002588</v>
+      </c>
+      <c r="E14">
+        <v>-0.6584599900000021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0.43241097999997491</v>
+      </c>
+      <c r="C15">
+        <v>-1.2853371500000268</v>
+      </c>
+      <c r="D15">
+        <v>6.558231999996833E-2</v>
+      </c>
+      <c r="E15">
+        <v>-0.36977170000002024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0.19421808000003038</v>
+      </c>
+      <c r="C16">
+        <v>-1.3739528599999691</v>
+      </c>
+      <c r="D16">
+        <v>-0.16371694999998754</v>
+      </c>
+      <c r="E16">
+        <v>0.71679443000003085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.45720604000000575</v>
+      </c>
+      <c r="C17">
+        <v>-0.68122858999998392</v>
+      </c>
+      <c r="D17">
+        <v>0.20932051999999812</v>
+      </c>
+      <c r="E17">
+        <v>1.4342046399999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>1.5493308699999946</v>
+      </c>
+      <c r="C18">
+        <v>-0.1004536500000146</v>
+      </c>
+      <c r="D18">
+        <v>1.1221180699999915</v>
+      </c>
+      <c r="E18">
+        <v>1.4705671800000268</v>
       </c>
     </row>
   </sheetData>
@@ -6732,16 +7054,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="paral-new" sheetId="16" r:id="rId13"/>
     <sheet name="overly-new" sheetId="18" r:id="rId14"/>
     <sheet name="triangle" sheetId="19" r:id="rId15"/>
+    <sheet name="line" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="141">
   <si>
     <t>top</t>
   </si>
@@ -6271,8 +6272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6581,6 +6582,327 @@
       </c>
       <c r="E18">
         <v>1.4705671800000268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C2">
+        <v>6.7081219999914676E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E2">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>0.30922580000002453</v>
+      </c>
+      <c r="C3">
+        <v>-0.50724405999999966</v>
+      </c>
+      <c r="D3">
+        <v>1.1227244799999805</v>
+      </c>
+      <c r="E3">
+        <v>-0.79625706999998647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>0.40731723999998648</v>
+      </c>
+      <c r="C4">
+        <v>-0.75129536000002339</v>
+      </c>
+      <c r="D4">
+        <v>0.71633808000000654</v>
+      </c>
+      <c r="E4">
+        <v>-0.52605724000001919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0.39723065999997997</v>
+      </c>
+      <c r="C5">
+        <v>-1.0156124100000117</v>
+      </c>
+      <c r="D5">
+        <v>-8.8564840000011191E-2</v>
+      </c>
+      <c r="E5">
+        <v>-0.24103400999998348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0.19402108000001617</v>
+      </c>
+      <c r="C6">
+        <v>-1.3944769999999895</v>
+      </c>
+      <c r="D6">
+        <v>-0.11028453000000882</v>
+      </c>
+      <c r="E6">
+        <v>0.38762592999999379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.44935824999997775</v>
+      </c>
+      <c r="C7">
+        <v>-1.3582484099999821</v>
+      </c>
+      <c r="D7">
+        <v>-0.1263159299999832</v>
+      </c>
+      <c r="E7">
+        <v>0.74448363999997946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>0.62727309000000586</v>
+      </c>
+      <c r="C8">
+        <v>-0.95393236000000492</v>
+      </c>
+      <c r="D8">
+        <v>1.2402199999921315E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.0197237800000303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>0.6537126599999854</v>
+      </c>
+      <c r="C9">
+        <v>-0.49067461999998763</v>
+      </c>
+      <c r="D9">
+        <v>-0.169071760000016</v>
+      </c>
+      <c r="E9">
+        <v>1.2876065500000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>1.2269357600000492</v>
+      </c>
+      <c r="C10">
+        <v>-0.18029668999997206</v>
+      </c>
+      <c r="D10">
+        <v>-1.3470559999980924E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.4946785200000172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0.69575213999995666</v>
+      </c>
+      <c r="C11">
+        <v>-0.12101645000000794</v>
+      </c>
+      <c r="D11">
+        <v>0.70059157999997224</v>
+      </c>
+      <c r="E11">
+        <v>0.46341797999995515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>-6.350723999998964E-2</v>
+      </c>
+      <c r="C12">
+        <v>-0.38909075999998244</v>
+      </c>
+      <c r="D12">
+        <v>0.51466244000004435</v>
+      </c>
+      <c r="E12">
+        <v>-1.102422479999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>0.24859272999997328</v>
+      </c>
+      <c r="C13">
+        <v>-0.72779939999997545</v>
+      </c>
+      <c r="D13">
+        <v>0.78120339999997368</v>
+      </c>
+      <c r="E13">
+        <v>-1.000790440000022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0.36342327999999524</v>
+      </c>
+      <c r="C14">
+        <v>-0.94178050000004454</v>
+      </c>
+      <c r="D14">
+        <v>0.31471486999998133</v>
+      </c>
+      <c r="E14">
+        <v>-0.4766595400000333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0.25874996999998556</v>
+      </c>
+      <c r="C15">
+        <v>-1.1284019899999809</v>
+      </c>
+      <c r="D15">
+        <v>-1.4139339999993172E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.1914719999994308E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0.27505543999994897</v>
+      </c>
+      <c r="C16">
+        <v>-1.3388999700000515</v>
+      </c>
+      <c r="D16">
+        <v>-9.2961600000031286E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.81631702999997424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.5716450100000432</v>
+      </c>
+      <c r="C17">
+        <v>-0.68977320999999314</v>
+      </c>
+      <c r="D17">
+        <v>0.20510239000002839</v>
+      </c>
+      <c r="E17">
+        <v>1.4508651600000158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>1.496674500000029</v>
+      </c>
+      <c r="C18">
+        <v>-9.967770999997505E-2</v>
+      </c>
+      <c r="D18">
+        <v>-3.6222649999964052E-2</v>
+      </c>
+      <c r="E18">
+        <v>-0.35541371999996363</v>
       </c>
     </row>
   </sheetData>
@@ -7054,16 +7376,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -6272,8 +6272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6377,7 +6377,7 @@
         <v>-0.38657522000000499</v>
       </c>
       <c r="E6">
-        <v>-0.17555148000004328</v>
+        <v>-0.19337049000002571</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -6391,7 +6391,7 @@
         <v>-1.467664890000032</v>
       </c>
       <c r="D7">
-        <v>-0.3427896300000346</v>
+        <v>-0.34295249000002359</v>
       </c>
       <c r="E7">
         <v>0.66741169999998329</v>
@@ -6442,10 +6442,10 @@
         <v>-0.18782816999998353</v>
       </c>
       <c r="D10">
-        <v>-0.16880277999997206</v>
+        <v>1.4179616599999956</v>
       </c>
       <c r="E10">
-        <v>1.075510050000029</v>
+        <v>1.3992002500000162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -6476,7 +6476,7 @@
         <v>-0.55292542000000289</v>
       </c>
       <c r="D12">
-        <v>7.0904049999959806E-2</v>
+        <v>7.0642130000002634E-2</v>
       </c>
       <c r="E12">
         <v>-1.5629907200000352</v>
@@ -6578,7 +6578,7 @@
         <v>-0.1004536500000146</v>
       </c>
       <c r="D18">
-        <v>1.1221180699999915</v>
+        <v>1.1212237600000132</v>
       </c>
       <c r="E18">
         <v>1.4705671800000268</v>
@@ -6593,8 +6593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6712,7 +6712,7 @@
         <v>-1.3582484099999821</v>
       </c>
       <c r="D7">
-        <v>-0.1263159299999832</v>
+        <v>-0.18428382999997739</v>
       </c>
       <c r="E7">
         <v>0.74448363999997946</v>
@@ -6780,7 +6780,7 @@
         <v>-0.12101645000000794</v>
       </c>
       <c r="D11">
-        <v>0.70059157999997224</v>
+        <v>0.70502885999996279</v>
       </c>
       <c r="E11">
         <v>0.46341797999995515</v>
@@ -6797,7 +6797,7 @@
         <v>-0.38909075999998244</v>
       </c>
       <c r="D12">
-        <v>0.51466244000004435</v>
+        <v>0.51366598000003405</v>
       </c>
       <c r="E12">
         <v>-1.102422479999992</v>
@@ -6848,7 +6848,7 @@
         <v>-1.1284019899999809</v>
       </c>
       <c r="D15">
-        <v>-1.4139339999993172E-2</v>
+        <v>0.12815438000000468</v>
       </c>
       <c r="E15">
         <v>5.1914719999994308E-2</v>
@@ -6902,7 +6902,7 @@
         <v>-3.6222649999964052E-2</v>
       </c>
       <c r="E18">
-        <v>-0.35541371999996363</v>
+        <v>1.4514259799999913</v>
       </c>
     </row>
   </sheetData>
@@ -7376,16 +7376,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -2836,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" activeCellId="1" sqref="A41:A57 C41:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3982,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6272,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -7376,16 +7376,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="paral-new" sheetId="16" r:id="rId13"/>
     <sheet name="overly-new" sheetId="18" r:id="rId14"/>
     <sheet name="triangle" sheetId="19" r:id="rId15"/>
-    <sheet name="line" sheetId="20" r:id="rId16"/>
+    <sheet name="near-new" sheetId="21" r:id="rId16"/>
+    <sheet name="line" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="142">
   <si>
     <t>top</t>
   </si>
@@ -457,14 +458,25 @@
   </si>
   <si>
     <t>Cor. *H</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -528,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -545,6 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1817,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3982,8 +3995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4868,7 +4881,7 @@
         <v>119</v>
       </c>
       <c r="B43">
-        <v>0.39439508999997797</v>
+        <v>9.4676059999972306E-2</v>
       </c>
       <c r="C43">
         <v>-0.72374954000002312</v>
@@ -5127,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5960,6 +5973,11 @@
         <v>1.5076586499999771</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>13</v>
@@ -6265,331 +6283,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2">
-        <v>0.42933610999999727</v>
-      </c>
-      <c r="C2">
-        <v>6.6492219999980673E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.39790908999997709</v>
-      </c>
-      <c r="E2">
-        <v>1.4792182400000038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3">
-        <v>0.1082790600000183</v>
-      </c>
-      <c r="C3">
-        <v>-0.58076908999998444</v>
-      </c>
-      <c r="D3">
-        <v>1.0337510300000115</v>
-      </c>
-      <c r="E3">
-        <v>-0.90961544999995203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4">
-        <v>0.23992321999996902</v>
-      </c>
-      <c r="C4">
-        <v>-0.77540139000000785</v>
-      </c>
-      <c r="D4">
-        <v>0.64273315999996994</v>
-      </c>
-      <c r="E4">
-        <v>-0.67344986000002427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5">
-        <v>0.18095419999996265</v>
-      </c>
-      <c r="C5">
-        <v>-1.0690971400000482</v>
-      </c>
-      <c r="D5">
-        <v>-0.30443030000004301</v>
-      </c>
-      <c r="E5">
-        <v>-0.48528545000001122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6">
-        <v>0.16563608999995294</v>
-      </c>
-      <c r="C6">
-        <v>-1.523302790000054</v>
-      </c>
-      <c r="D6">
-        <v>-0.38657522000000499</v>
-      </c>
-      <c r="E6">
-        <v>-0.19337049000002571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7">
-        <v>0.20688009999996693</v>
-      </c>
-      <c r="C7">
-        <v>-1.467664890000032</v>
-      </c>
-      <c r="D7">
-        <v>-0.34295249000002359</v>
-      </c>
-      <c r="E7">
-        <v>0.66741169999998329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8">
-        <v>0.60493281000002552</v>
-      </c>
-      <c r="C8">
-        <v>-0.86882718999998509</v>
-      </c>
-      <c r="D8">
-        <v>-0.10867643000001026</v>
-      </c>
-      <c r="E8">
-        <v>1.1108315500000381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9">
-        <v>0.60431406000002452</v>
-      </c>
-      <c r="C9">
-        <v>-0.53113116000002414</v>
-      </c>
-      <c r="D9">
-        <v>-0.36188369000002085</v>
-      </c>
-      <c r="E9">
-        <v>1.3419886299999839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10">
-        <v>1.2627092599999972</v>
-      </c>
-      <c r="C10">
-        <v>-0.18782816999998353</v>
-      </c>
-      <c r="D10">
-        <v>1.4179616599999956</v>
-      </c>
-      <c r="E10">
-        <v>1.3992002500000162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11">
-        <v>0.50593582000003634</v>
-      </c>
-      <c r="C11">
-        <v>-0.12583206999999597</v>
-      </c>
-      <c r="D11">
-        <v>0.51077869000004439</v>
-      </c>
-      <c r="E11">
-        <v>0.26015976000000274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12">
-        <v>-0.86507283999999318</v>
-      </c>
-      <c r="C12">
-        <v>-0.55292542000000289</v>
-      </c>
-      <c r="D12">
-        <v>7.0642130000002634E-2</v>
-      </c>
-      <c r="E12">
-        <v>-1.5629907200000352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13">
-        <v>4.6822400000112729E-3</v>
-      </c>
-      <c r="C13">
-        <v>-0.69422048000000736</v>
-      </c>
-      <c r="D13">
-        <v>0.49731945000001287</v>
-      </c>
-      <c r="E13">
-        <v>-1.1190874699999731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14">
-        <v>0.27769622999999255</v>
-      </c>
-      <c r="C14">
-        <v>-0.91720978000000208</v>
-      </c>
-      <c r="D14">
-        <v>0.38173928000002588</v>
-      </c>
-      <c r="E14">
-        <v>-0.6584599900000021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15">
-        <v>0.43241097999997491</v>
-      </c>
-      <c r="C15">
-        <v>-1.2853371500000268</v>
-      </c>
-      <c r="D15">
-        <v>6.558231999996833E-2</v>
-      </c>
-      <c r="E15">
-        <v>-0.36977170000002024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16">
-        <v>0.19421808000003038</v>
-      </c>
-      <c r="C16">
-        <v>-1.3739528599999691</v>
-      </c>
-      <c r="D16">
-        <v>-0.16371694999998754</v>
-      </c>
-      <c r="E16">
-        <v>0.71679443000003085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17">
-        <v>0.45720604000000575</v>
-      </c>
-      <c r="C17">
-        <v>-0.68122858999998392</v>
-      </c>
-      <c r="D17">
-        <v>0.20932051999999812</v>
-      </c>
-      <c r="E17">
-        <v>1.4342046399999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18">
-        <v>1.5493308699999946</v>
-      </c>
-      <c r="C18">
-        <v>-0.1004536500000146</v>
-      </c>
-      <c r="D18">
-        <v>1.1212237600000132</v>
-      </c>
-      <c r="E18">
-        <v>1.4705671800000268</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -6621,16 +6319,16 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>0.42967677999995457</v>
+        <v>0.42933610999999727</v>
       </c>
       <c r="C2">
-        <v>6.7081219999914676E-2</v>
+        <v>-0.3628438900000166</v>
       </c>
       <c r="D2">
-        <v>0.39785154999997685</v>
+        <v>0.39790908999997709</v>
       </c>
       <c r="E2">
-        <v>1.4792290899999707</v>
+        <v>1.4792182400000038</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6638,16 +6336,16 @@
         <v>126</v>
       </c>
       <c r="B3">
-        <v>0.30922580000002453</v>
+        <v>0.1082790600000183</v>
       </c>
       <c r="C3">
-        <v>-0.50724405999999966</v>
+        <v>-0.58076908999998444</v>
       </c>
       <c r="D3">
-        <v>1.1227244799999805</v>
+        <v>1.0337510300000115</v>
       </c>
       <c r="E3">
-        <v>-0.79625706999998647</v>
+        <v>-0.90961544999995203</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -6655,16 +6353,16 @@
         <v>119</v>
       </c>
       <c r="B4">
-        <v>0.40731723999998648</v>
+        <v>0.23992321999996902</v>
       </c>
       <c r="C4">
-        <v>-0.75129536000002339</v>
+        <v>-0.77540139000000785</v>
       </c>
       <c r="D4">
-        <v>0.71633808000000654</v>
+        <v>0.64273315999996994</v>
       </c>
       <c r="E4">
-        <v>-0.52605724000001919</v>
+        <v>-0.67344986000002427</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -6672,16 +6370,16 @@
         <v>114</v>
       </c>
       <c r="B5">
-        <v>0.39723065999997997</v>
+        <v>0.18095419999996265</v>
       </c>
       <c r="C5">
-        <v>-1.0156124100000117</v>
+        <v>-1.0690971400000482</v>
       </c>
       <c r="D5">
-        <v>-8.8564840000011191E-2</v>
+        <v>-0.30443030000004301</v>
       </c>
       <c r="E5">
-        <v>-0.24103400999998348</v>
+        <v>-0.48528545000001122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -6689,16 +6387,16 @@
         <v>116</v>
       </c>
       <c r="B6">
-        <v>0.19402108000001617</v>
+        <v>0.16563608999995294</v>
       </c>
       <c r="C6">
-        <v>-1.3944769999999895</v>
+        <v>-1.523302790000054</v>
       </c>
       <c r="D6">
-        <v>-0.11028453000000882</v>
+        <v>-0.38657522000000499</v>
       </c>
       <c r="E6">
-        <v>0.38762592999999379</v>
+        <v>-0.19337049000002571</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -6706,16 +6404,16 @@
         <v>117</v>
       </c>
       <c r="B7">
-        <v>0.44935824999997775</v>
+        <v>0.20688009999996693</v>
       </c>
       <c r="C7">
-        <v>-1.3582484099999821</v>
+        <v>-1.467664890000032</v>
       </c>
       <c r="D7">
-        <v>-0.18428382999997739</v>
+        <v>-0.34295249000002359</v>
       </c>
       <c r="E7">
-        <v>0.74448363999997946</v>
+        <v>0.66741169999998329</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -6723,13 +6421,655 @@
         <v>113</v>
       </c>
       <c r="B8">
+        <v>0.60493281000002552</v>
+      </c>
+      <c r="C8">
+        <v>-0.86882718999998509</v>
+      </c>
+      <c r="D8">
+        <v>-0.12058110999999672</v>
+      </c>
+      <c r="E8">
+        <v>1.1108315500000381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>0.60431406000002452</v>
+      </c>
+      <c r="C9">
+        <v>-0.53113116000002414</v>
+      </c>
+      <c r="D9">
+        <v>-0.36188369000002085</v>
+      </c>
+      <c r="E9">
+        <v>1.3419886299999839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>1.2627092599999972</v>
+      </c>
+      <c r="C10">
+        <v>-0.18782816999998353</v>
+      </c>
+      <c r="D10">
+        <v>1.4179616599999956</v>
+      </c>
+      <c r="E10">
+        <v>1.3992002500000162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0.50593582000003634</v>
+      </c>
+      <c r="C11">
+        <v>-0.12583206999999597</v>
+      </c>
+      <c r="D11">
+        <v>0.51077869000004439</v>
+      </c>
+      <c r="E11">
+        <v>0.26015976000000274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>-0.86507283999999318</v>
+      </c>
+      <c r="C12">
+        <v>-0.55292542000000289</v>
+      </c>
+      <c r="D12">
+        <v>7.0642130000002634E-2</v>
+      </c>
+      <c r="E12">
+        <v>-1.5629907200000352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>4.6822400000112729E-3</v>
+      </c>
+      <c r="C13">
+        <v>-0.69422048000000736</v>
+      </c>
+      <c r="D13">
+        <v>0.49731945000001287</v>
+      </c>
+      <c r="E13">
+        <v>-1.1190874699999731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0.27769622999999255</v>
+      </c>
+      <c r="C14">
+        <v>-0.91720978000000208</v>
+      </c>
+      <c r="D14">
+        <v>0.38173928000002588</v>
+      </c>
+      <c r="E14">
+        <v>-0.6584599900000021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0.43241097999997491</v>
+      </c>
+      <c r="C15">
+        <v>-1.2853371500000268</v>
+      </c>
+      <c r="D15">
+        <v>6.558231999996833E-2</v>
+      </c>
+      <c r="E15">
+        <v>-0.36977170000002024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0.19421808000003038</v>
+      </c>
+      <c r="C16">
+        <v>-1.3739528599999691</v>
+      </c>
+      <c r="D16">
+        <v>-0.16371694999998754</v>
+      </c>
+      <c r="E16">
+        <v>0.71679443000003085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.45720604000000575</v>
+      </c>
+      <c r="C17">
+        <v>-0.68122858999998392</v>
+      </c>
+      <c r="D17">
+        <v>0.20932051999999812</v>
+      </c>
+      <c r="E17">
+        <v>1.4342046399999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>1.5493308699999946</v>
+      </c>
+      <c r="C18">
+        <v>-0.1004536500000146</v>
+      </c>
+      <c r="D18">
+        <v>1.1212237600000132</v>
+      </c>
+      <c r="E18">
+        <v>1.4705671800000268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C2">
+        <v>-0.36259556000004001</v>
+      </c>
+      <c r="D2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E2">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>0.82032676999999721</v>
+      </c>
+      <c r="C3">
+        <v>3.9888710000019145E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.77800092000000332</v>
+      </c>
+      <c r="E3">
+        <v>1.7425992700000088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>0.76920251000000261</v>
+      </c>
+      <c r="C4">
+        <v>-2.0139260000002324E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.72296412000002119</v>
+      </c>
+      <c r="E4">
+        <v>1.716130180000031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0.74845220999997109</v>
+      </c>
+      <c r="C5">
+        <v>-0.17601591999999222</v>
+      </c>
+      <c r="D5">
+        <v>0.68415558999998138</v>
+      </c>
+      <c r="E5">
+        <v>1.7867697000000171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0.60694284999998471</v>
+      </c>
+      <c r="C6">
+        <v>-0.24177308000002462</v>
+      </c>
+      <c r="D6">
+        <v>0.58219122000001944</v>
+      </c>
+      <c r="E6">
+        <v>0.84492215999999098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.5809864500000006</v>
+      </c>
+      <c r="C7">
+        <v>-1.3278053600000082</v>
+      </c>
+      <c r="D7">
+        <v>0.54777736999999815</v>
+      </c>
+      <c r="E7">
+        <v>0.83233627000002253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>0.57737323000002361</v>
+      </c>
+      <c r="C8">
+        <v>-0.25307207999997594</v>
+      </c>
+      <c r="D8">
+        <v>0.53144757000000409</v>
+      </c>
+      <c r="E8">
+        <v>1.3293431800000044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>0.56594853000000311</v>
+      </c>
+      <c r="C9">
+        <v>-0.25422828000000131</v>
+      </c>
+      <c r="D9">
+        <v>0.53057023000001591</v>
+      </c>
+      <c r="E9">
+        <v>1.6023087100000262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>0.64559196000003594</v>
+      </c>
+      <c r="C10">
+        <v>-0.13433196999994301</v>
+      </c>
+      <c r="D10">
+        <v>0.57533457000004473</v>
+      </c>
+      <c r="E10">
+        <v>1.6660383300000299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0.69105767000000951</v>
+      </c>
+      <c r="C11">
+        <v>-0.11358427999999243</v>
+      </c>
+      <c r="D11">
+        <v>0.61075143999999382</v>
+      </c>
+      <c r="E11">
+        <v>1.2889797000000081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>0.83568472000000638</v>
+      </c>
+      <c r="C12">
+        <v>-0.18224178000002134</v>
+      </c>
+      <c r="D12">
+        <v>0.77923234999996493</v>
+      </c>
+      <c r="E12">
+        <v>-0.80094190000001708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>0.81041004999996202</v>
+      </c>
+      <c r="C13">
+        <v>-2.0056419999997743E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.788160529999963</v>
+      </c>
+      <c r="E13">
+        <v>-0.85077646000003915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0.83114988000004386</v>
+      </c>
+      <c r="C14">
+        <v>-0.2202639699999569</v>
+      </c>
+      <c r="D14">
+        <v>-0.14063480999994526</v>
+      </c>
+      <c r="E14">
+        <v>1.816897400000054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0.81409053000003295</v>
+      </c>
+      <c r="C15">
+        <v>-0.19479266999996447</v>
+      </c>
+      <c r="D15">
+        <v>0.73197859000003218</v>
+      </c>
+      <c r="E15">
+        <v>1.6435628900000361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0.66880960000002032</v>
+      </c>
+      <c r="C16">
+        <v>-1.2650471399999734</v>
+      </c>
+      <c r="D16">
+        <v>0.60818569000001999</v>
+      </c>
+      <c r="E16">
+        <v>0.76670913000001883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.65844688999998224</v>
+      </c>
+      <c r="C17">
+        <v>-0.20077072000003149</v>
+      </c>
+      <c r="D17">
+        <v>0.64041982999997726</v>
+      </c>
+      <c r="E17">
+        <v>1.7158107999999666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>0.67576065999996926</v>
+      </c>
+      <c r="C18">
+        <v>-9.6502170000002607E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.60338632000001935</v>
+      </c>
+      <c r="E18">
+        <v>1.6733744500000207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C2">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E2">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>0.30922580000002453</v>
+      </c>
+      <c r="C3">
+        <v>-0.50724405999999966</v>
+      </c>
+      <c r="D3">
+        <v>1.1227244799999805</v>
+      </c>
+      <c r="E3">
+        <v>-0.79625706999998647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>0.40731723999998648</v>
+      </c>
+      <c r="C4">
+        <v>-0.75129536000002339</v>
+      </c>
+      <c r="D4">
+        <v>0.71633808000000654</v>
+      </c>
+      <c r="E4">
+        <v>-0.52605724000001919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0.39723065999997997</v>
+      </c>
+      <c r="C5">
+        <v>-1.0156124100000117</v>
+      </c>
+      <c r="D5">
+        <v>-8.8564840000011191E-2</v>
+      </c>
+      <c r="E5">
+        <v>-0.24103400999998348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0.19402108000001617</v>
+      </c>
+      <c r="C6">
+        <v>-1.3944769999999895</v>
+      </c>
+      <c r="D6">
+        <v>-0.11028453000000882</v>
+      </c>
+      <c r="E6">
+        <v>0.38762592999999379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.44935824999997775</v>
+      </c>
+      <c r="C7">
+        <v>-1.3582484099999821</v>
+      </c>
+      <c r="D7">
+        <v>-0.18428382999997739</v>
+      </c>
+      <c r="E7">
+        <v>0.74448363999997946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
         <v>0.62727309000000586</v>
       </c>
       <c r="C8">
         <v>-0.95393236000000492</v>
       </c>
       <c r="D8">
-        <v>1.2402199999921315E-3</v>
+        <v>-1.0802100000053549E-3</v>
       </c>
       <c r="E8">
         <v>1.0197237800000303</v>
@@ -7376,16 +7716,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="142">
   <si>
     <t>top</t>
   </si>
@@ -554,10 +554,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1860,7 +1860,7 @@
       <c r="D2">
         <v>-0.47390528999999937</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1880,7 +1880,7 @@
       <c r="D3">
         <v>-0.2174370699999546</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="D4">
         <v>-0.14964087999998732</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="D5">
         <v>-0.46813244999997927</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="D6">
         <v>-0.85262562000002085</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1954,7 +1954,7 @@
       <c r="D7">
         <v>-0.2269436999999872</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="D8">
         <v>-0.20223598000000642</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="D9">
         <v>-0.89434942999997169</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="D10">
         <v>-0.86357551000002708</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2028,7 +2028,7 @@
       <c r="D11">
         <v>-6.6925000000370716E-3</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="D12">
         <v>-6.8335939999991879E-2</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="D13">
         <v>-0.86053233000000695</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="D14">
         <v>-0.26818239999999527</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2102,7 +2102,7 @@
       <c r="D15">
         <v>-0.11620982000004609</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="D16">
         <v>-9.8632580000009185E-2</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="D17">
         <v>-0.26599593000002564</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="D18">
         <v>-9.815918000003343E-2</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2176,7 +2176,7 @@
       <c r="D19">
         <v>-5.3214160000033317E-2</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="D20">
         <v>-4.8406859999994722E-2</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="D21">
         <v>-5.4062390000007454E-2</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="D22">
         <v>-0.89082682999997509</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2250,7 +2250,7 @@
       <c r="D23">
         <v>-0.1189346599999741</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="D24">
         <v>-7.2080819999991164E-2</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="D25">
         <v>-0.88030807000000699</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="D26">
         <v>-0.12092018999998722</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2324,7 +2324,7 @@
       <c r="D27">
         <v>-0.21580672000004064</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="D28">
         <v>-0.16655131000003998</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="D29">
         <v>-0.40859361000002004</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="D30">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2398,7 +2398,7 @@
       <c r="D31">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="D32">
         <v>-0.36175536000001252</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="D33">
         <v>-0.16012846000000458</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2847,41 +2847,54 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" activeCellId="1" sqref="A41:A57 C41:C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -2897,54 +2910,84 @@
       <c r="E2">
         <v>1.4792290899999707</v>
       </c>
-      <c r="F2">
+      <c r="O2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="Q2">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="R2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="S2">
+        <v>1.4792290899999707</v>
+      </c>
+      <c r="T2">
         <v>0.32753287999996727</v>
       </c>
-      <c r="G2">
+      <c r="U2">
         <v>-0.67229998999999374</v>
       </c>
-      <c r="H2">
+      <c r="V2">
         <v>0.46962667000001757</v>
       </c>
-      <c r="I2">
+      <c r="W2">
         <v>1.408078190000007</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B3">
-        <v>-0.38781861000002182</v>
+        <v>-8.2492090000027662E-2</v>
       </c>
       <c r="C3">
         <v>-0.53887365000002241</v>
       </c>
       <c r="D3">
+        <v>0.83359824999995835</v>
+      </c>
+      <c r="E3">
+        <v>-1.166291920000011</v>
+      </c>
+      <c r="O3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3">
+        <v>-0.38781861000002182</v>
+      </c>
+      <c r="Q3">
+        <v>-0.53887365000002241</v>
+      </c>
+      <c r="R3">
         <v>0.8334788399999904</v>
       </c>
-      <c r="E3">
+      <c r="S3">
         <v>-1.1664817500000217</v>
       </c>
-      <c r="F3">
+      <c r="T3">
         <v>-1.5319765699999945</v>
       </c>
-      <c r="G3">
+      <c r="U3">
         <v>-0.60765136000002862</v>
       </c>
-      <c r="H3">
+      <c r="V3">
         <v>-0.44221555999997308</v>
       </c>
-      <c r="I3">
+      <c r="W3">
         <v>-2.5214690099999948</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B4">
-        <v>0.10669346999997087</v>
+        <v>9.6771250000006415E-2</v>
       </c>
       <c r="C4">
         <v>-0.79540719999999432</v>
@@ -2955,20 +2998,35 @@
       <c r="E4">
         <v>-0.75137249000001338</v>
       </c>
-      <c r="F4">
+      <c r="O4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4">
+        <v>0.10669346999997087</v>
+      </c>
+      <c r="Q4">
+        <v>-0.79540719999999432</v>
+      </c>
+      <c r="R4">
+        <v>0.63232099999998281</v>
+      </c>
+      <c r="S4">
+        <v>-0.75137249000001338</v>
+      </c>
+      <c r="T4">
         <v>-0.60948184000001193</v>
       </c>
-      <c r="G4">
+      <c r="U4">
         <v>-0.94881198000001099</v>
       </c>
-      <c r="H4">
+      <c r="V4">
         <v>0.44002328999999163</v>
       </c>
-      <c r="I4">
+      <c r="W4">
         <v>-1.5196847200000057</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2984,20 +3042,35 @@
       <c r="E5">
         <v>-0.20255842999997276</v>
       </c>
-      <c r="F5">
+      <c r="O5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5">
+        <v>8.057561000002833E-2</v>
+      </c>
+      <c r="Q5">
+        <v>-1.0797074600000034</v>
+      </c>
+      <c r="R5">
+        <v>0.27143843000003853</v>
+      </c>
+      <c r="S5">
+        <v>-0.20255842999997276</v>
+      </c>
+      <c r="T5">
         <v>-0.63957160999997287</v>
       </c>
-      <c r="G5">
+      <c r="U5">
         <v>-1.3245080500000146</v>
       </c>
-      <c r="H5">
+      <c r="V5">
         <v>0.2137763699999975</v>
       </c>
-      <c r="I5">
+      <c r="W5">
         <v>-0.79589939000000731</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -3013,20 +3086,35 @@
       <c r="E6">
         <v>-0.45127994999997645</v>
       </c>
-      <c r="F6">
+      <c r="O6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6">
+        <v>-0.28851254999996145</v>
+      </c>
+      <c r="Q6">
+        <v>-1.3103844799999766</v>
+      </c>
+      <c r="R6">
+        <v>-9.8751220000004469E-2</v>
+      </c>
+      <c r="S6">
+        <v>-0.45127994999997645</v>
+      </c>
+      <c r="T6">
         <v>-0.85071588999995784</v>
       </c>
-      <c r="G6">
+      <c r="U6">
         <v>-1.099591630000015</v>
       </c>
-      <c r="H6">
+      <c r="V6">
         <v>1.7746899999830923E-3</v>
       </c>
-      <c r="I6">
+      <c r="W6">
         <v>-0.64106690000001754</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -3042,20 +3130,35 @@
       <c r="E7">
         <v>-2.8004680000000004E-2</v>
       </c>
-      <c r="F7">
+      <c r="O7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7">
+        <v>-0.15955723000002964</v>
+      </c>
+      <c r="Q7">
+        <v>-1.357516900000002</v>
+      </c>
+      <c r="R7">
+        <v>5.6392789999953674E-2</v>
+      </c>
+      <c r="S7">
+        <v>-2.8004680000000004E-2</v>
+      </c>
+      <c r="T7">
         <v>-0.90778002000002944</v>
       </c>
-      <c r="G7">
+      <c r="U7">
         <v>-1.7930089799999624</v>
       </c>
-      <c r="H7">
+      <c r="V7">
         <v>-7.8368230000031236E-2</v>
       </c>
-      <c r="I7">
+      <c r="W7">
         <v>-0.24764780000000064</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3071,20 +3174,35 @@
       <c r="E8">
         <v>0.8515528100000247</v>
       </c>
-      <c r="F8">
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8">
+        <v>0.47024493000002421</v>
+      </c>
+      <c r="Q8">
+        <v>-0.90030351000000941</v>
+      </c>
+      <c r="R8">
+        <v>0.25367177000003194</v>
+      </c>
+      <c r="S8">
+        <v>0.8515528100000247</v>
+      </c>
+      <c r="T8">
         <v>-6.9105339999975701E-2</v>
       </c>
-      <c r="G8">
+      <c r="U8">
         <v>-1.7312430200000168</v>
       </c>
-      <c r="H8">
+      <c r="V8">
         <v>8.7259730000020408E-2</v>
       </c>
-      <c r="I8">
+      <c r="W8">
         <v>0.23358058000000392</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3100,21 +3218,36 @@
       <c r="E9">
         <v>1.2971274999999687</v>
       </c>
-      <c r="F9">
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9">
+        <v>0.67499473999997717</v>
+      </c>
+      <c r="Q9">
+        <v>-0.49399451999999577</v>
+      </c>
+      <c r="R9">
+        <v>0.6823573599999615</v>
+      </c>
+      <c r="S9">
+        <v>1.2971274999999687</v>
+      </c>
+      <c r="T9">
         <v>0.13813594000002949</v>
       </c>
-      <c r="G9">
+      <c r="U9">
         <v>-1.0773507299999725</v>
       </c>
-      <c r="H9">
+      <c r="V9">
         <v>0.51028068999999432</v>
       </c>
-      <c r="I9">
+      <c r="W9">
         <v>0.73098485000000801</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B10">
@@ -3124,26 +3257,41 @@
         <v>-0.25260202999998604</v>
       </c>
       <c r="D10">
+        <v>0.53106705999999049</v>
+      </c>
+      <c r="E10">
+        <v>1.3093887599999712</v>
+      </c>
+      <c r="O10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10">
+        <v>1.2211955700000092</v>
+      </c>
+      <c r="Q10">
+        <v>-0.25260202999998604</v>
+      </c>
+      <c r="R10">
         <v>-0.3149625099999942</v>
       </c>
-      <c r="E10">
+      <c r="S10">
         <v>1.313962540000015</v>
       </c>
-      <c r="F10">
+      <c r="T10">
         <v>1.0117901000000304</v>
       </c>
-      <c r="G10">
+      <c r="U10">
         <v>-0.66684531999998775</v>
       </c>
-      <c r="H10">
+      <c r="V10">
         <v>-3.1020419099999761</v>
       </c>
-      <c r="I10">
+      <c r="W10">
         <v>0.386793520000007</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B11">
@@ -3153,26 +3301,41 @@
         <v>-0.11389156000000789</v>
       </c>
       <c r="D11">
+        <v>0.69825789000002869</v>
+      </c>
+      <c r="E11">
+        <v>0.49971733999999879</v>
+      </c>
+      <c r="O11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11">
+        <v>0.54101516000001793</v>
+      </c>
+      <c r="Q11">
+        <v>-0.11389156000000789</v>
+      </c>
+      <c r="R11">
         <v>0.69812883000002257</v>
       </c>
-      <c r="E11">
+      <c r="S11">
         <v>0.49900720000003185</v>
       </c>
-      <c r="F11">
+      <c r="T11">
         <v>-0.46244990999998636</v>
       </c>
-      <c r="G11">
+      <c r="U11">
         <v>-0.11454839000003325</v>
       </c>
-      <c r="H11">
+      <c r="V11">
         <v>-0.25020237999996953</v>
       </c>
-      <c r="I11">
+      <c r="W11">
         <v>-0.32701070999998683</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B12">
@@ -3185,30 +3348,45 @@
         <v>-1.3810041499999746</v>
       </c>
       <c r="E12">
+        <v>-3.5177745299999592</v>
+      </c>
+      <c r="O12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12">
+        <v>-2.7684356900000009</v>
+      </c>
+      <c r="Q12">
+        <v>-2.8162229899999662</v>
+      </c>
+      <c r="R12">
+        <v>-1.3810041499999746</v>
+      </c>
+      <c r="S12">
         <v>-2.6493337999999844</v>
       </c>
-      <c r="F12">
+      <c r="T12">
         <v>-1.8654243000000403</v>
       </c>
-      <c r="G12">
+      <c r="U12">
         <v>-0.47012813999998038</v>
       </c>
-      <c r="H12">
+      <c r="V12">
         <v>-0.12990530999997718</v>
       </c>
-      <c r="I12">
+      <c r="W12">
         <v>-2.7556925999999939</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B13">
         <v>-1.4495091499999941</v>
       </c>
       <c r="C13">
-        <v>-1.2740884800000405</v>
+        <v>-0.10195565000003093</v>
       </c>
       <c r="D13">
         <v>-0.60284404000004388</v>
@@ -3216,20 +3394,35 @@
       <c r="E13">
         <v>-2.6112791200000252</v>
       </c>
-      <c r="F13">
+      <c r="O13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13">
+        <v>-1.4495091499999941</v>
+      </c>
+      <c r="Q13">
+        <v>-1.2740884800000405</v>
+      </c>
+      <c r="R13">
+        <v>-0.60284404000004388</v>
+      </c>
+      <c r="S13">
+        <v>-2.6112791200000252</v>
+      </c>
+      <c r="T13">
         <v>-1.2363753699999731</v>
       </c>
-      <c r="G13">
+      <c r="U13">
         <v>-1.0350556300000395</v>
       </c>
-      <c r="H13">
+      <c r="V13">
         <v>-0.40586739000003336</v>
       </c>
-      <c r="I13">
+      <c r="W13">
         <v>-2.4933932899999909</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -3245,20 +3438,35 @@
       <c r="E14">
         <v>-0.65930397999996648</v>
       </c>
-      <c r="F14">
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14">
+        <v>0.14885378000001337</v>
+      </c>
+      <c r="Q14">
+        <v>-0.94465296999998749</v>
+      </c>
+      <c r="R14">
+        <v>0.33234873000002763</v>
+      </c>
+      <c r="S14">
+        <v>-0.65930397999996648</v>
+      </c>
+      <c r="T14">
         <v>-0.73745494000003164</v>
       </c>
-      <c r="G14">
+      <c r="U14">
         <v>-1.3953610500000142</v>
       </c>
-      <c r="H14">
+      <c r="V14">
         <v>7.0450970000016877E-2</v>
       </c>
-      <c r="I14">
+      <c r="W14">
         <v>-1.3372233199999832</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -3274,20 +3482,35 @@
       <c r="E15">
         <v>-0.21816313999996373</v>
       </c>
-      <c r="F15">
+      <c r="O15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15">
+        <v>0.12097152000000078</v>
+      </c>
+      <c r="Q15">
+        <v>-0.76108612999996161</v>
+      </c>
+      <c r="R15">
+        <v>0.32452593000004226</v>
+      </c>
+      <c r="S15">
+        <v>-0.21816313999996373</v>
+      </c>
+      <c r="T15">
         <v>-0.66912063000002009</v>
       </c>
-      <c r="G15">
+      <c r="U15">
         <v>-1.3410227900000056</v>
       </c>
-      <c r="H15">
+      <c r="V15">
         <v>0.12517029000002067</v>
       </c>
-      <c r="I15">
+      <c r="W15">
         <v>-1.0379530500000178</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -3303,20 +3526,35 @@
       <c r="E16">
         <v>0.56544748999997774</v>
       </c>
-      <c r="F16">
+      <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16">
+        <v>0.32770350999998099</v>
+      </c>
+      <c r="Q16">
+        <v>-1.2081979100000186</v>
+      </c>
+      <c r="R16">
+        <v>-8.3344000000313834E-3</v>
+      </c>
+      <c r="S16">
+        <v>0.56544748999997774</v>
+      </c>
+      <c r="T16">
         <v>-0.807931559999997</v>
       </c>
-      <c r="G16">
+      <c r="U16">
         <v>-2.265103250000033</v>
       </c>
-      <c r="H16">
+      <c r="V16">
         <v>-0.16826880000002875</v>
       </c>
-      <c r="I16">
+      <c r="W16">
         <v>9.7713779999973216E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -3332,657 +3570,687 @@
       <c r="E17">
         <v>1.4022053700000279</v>
       </c>
-      <c r="F17">
+      <c r="O17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17">
+        <v>0.53514526999997569</v>
+      </c>
+      <c r="Q17">
+        <v>-0.67420650000001991</v>
+      </c>
+      <c r="R17">
+        <v>0.26152698999998547</v>
+      </c>
+      <c r="S17">
+        <v>1.4022053700000279</v>
+      </c>
+      <c r="T17">
         <v>-0.25557628000002497</v>
       </c>
-      <c r="G17">
+      <c r="U17">
         <v>-1.749524590000016</v>
       </c>
-      <c r="H17">
+      <c r="V17">
         <v>6.0258139999965987E-2</v>
       </c>
-      <c r="I17">
+      <c r="W17">
         <v>0.82335751000003166</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B18">
+        <v>1.5711872200000019</v>
+      </c>
+      <c r="C18">
+        <v>-9.1203010000009854E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.68100772999996861</v>
+      </c>
+      <c r="E18">
+        <v>1.3160303000000035</v>
+      </c>
+      <c r="O18" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18">
         <v>1.5703051699999722</v>
       </c>
-      <c r="C18">
+      <c r="Q18">
         <v>-9.2492750000014112E-2</v>
       </c>
-      <c r="D18">
+      <c r="R18">
         <v>1.7453617199999978</v>
       </c>
-      <c r="E18">
+      <c r="S18">
         <v>-0.5604283400000063</v>
       </c>
-      <c r="F18">
+      <c r="T18">
         <v>1.41649091999999</v>
       </c>
-      <c r="G18">
+      <c r="U18">
         <v>-9.2389270000007073E-2</v>
       </c>
-      <c r="H18">
+      <c r="V18">
         <v>1.5746911799999945</v>
       </c>
-      <c r="I18">
+      <c r="W18">
         <v>-2.886032500000018</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="Q21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="R21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="S21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O22" t="s">
         <v>125</v>
       </c>
-      <c r="B22">
+      <c r="P22">
         <v>0.42967677999995457</v>
       </c>
-      <c r="C22">
+      <c r="Q22">
         <v>-0.3625955600000399</v>
       </c>
-      <c r="D22">
+      <c r="R22">
         <v>0.39785154999997685</v>
       </c>
-      <c r="E22">
+      <c r="S22">
         <v>1.4792290899999707</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B23">
+      <c r="P23">
         <v>-7.312733000004501E-2</v>
       </c>
-      <c r="C23">
+      <c r="Q23">
         <v>-0.53887365000002241</v>
       </c>
-      <c r="D23">
+      <c r="R23">
         <v>0.83333937999997643</v>
       </c>
-      <c r="E23">
+      <c r="S23">
         <v>-1.166291920000011</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B24">
+      <c r="P24">
         <v>9.6771250000006415E-2</v>
       </c>
-      <c r="C24">
+      <c r="Q24">
         <v>-0.79540719999999432</v>
       </c>
-      <c r="D24">
+      <c r="R24">
         <v>0.63232099999998281</v>
       </c>
-      <c r="E24">
+      <c r="S24">
         <v>-0.75137249000001338</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O25" t="s">
         <v>114</v>
       </c>
-      <c r="B25">
+      <c r="P25">
         <v>8.057561000002833E-2</v>
       </c>
-      <c r="C25">
+      <c r="Q25">
         <v>-1.0797074600000034</v>
       </c>
-      <c r="D25">
+      <c r="R25">
         <v>0.27143843000003853</v>
       </c>
-      <c r="E25">
+      <c r="S25">
         <v>-0.20255842999997276</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O26" t="s">
         <v>116</v>
       </c>
-      <c r="B26">
+      <c r="P26">
         <v>-0.28851254999996145</v>
       </c>
-      <c r="C26">
+      <c r="Q26">
         <v>-1.3103844799999766</v>
       </c>
-      <c r="D26">
+      <c r="R26">
         <v>-9.8751220000004469E-2</v>
       </c>
-      <c r="E26">
+      <c r="S26">
         <v>-0.45127994999997645</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O27" t="s">
         <v>117</v>
       </c>
-      <c r="B27">
+      <c r="P27">
         <v>-0.15955723000002964</v>
       </c>
-      <c r="C27">
+      <c r="Q27">
         <v>-1.357516900000002</v>
       </c>
-      <c r="D27">
+      <c r="R27">
         <v>5.6392789999953674E-2</v>
       </c>
-      <c r="E27">
+      <c r="S27">
         <v>-2.8004680000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O28" t="s">
         <v>113</v>
       </c>
-      <c r="B28">
+      <c r="P28">
         <v>0.47024493000002421</v>
       </c>
-      <c r="C28">
+      <c r="Q28">
         <v>-0.90030351000000941</v>
       </c>
-      <c r="D28">
+      <c r="R28">
         <v>0.25367177000003194</v>
       </c>
-      <c r="E28">
+      <c r="S28">
         <v>0.8515528100000247</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O29" t="s">
         <v>112</v>
       </c>
-      <c r="B29">
+      <c r="P29">
         <v>0.67499473999997717</v>
       </c>
-      <c r="C29">
+      <c r="Q29">
         <v>-0.49399451999999577</v>
       </c>
-      <c r="D29">
+      <c r="R29">
         <v>0.6823573599999615</v>
       </c>
-      <c r="E29">
+      <c r="S29">
         <v>1.2971274999999687</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B30">
+      <c r="P30">
         <v>1.2211955700000092</v>
       </c>
-      <c r="C30">
+      <c r="Q30">
         <v>-0.25260202999998604</v>
       </c>
-      <c r="D30">
+      <c r="R30">
         <v>0.53106705999999049</v>
       </c>
-      <c r="E30">
+      <c r="S30">
         <v>1.3093887599999712</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O31" t="s">
         <v>128</v>
       </c>
-      <c r="B31">
+      <c r="P31">
         <v>0.54101516000001793</v>
       </c>
-      <c r="C31">
+      <c r="Q31">
         <v>-0.11389156000000789</v>
       </c>
-      <c r="D31">
+      <c r="R31">
         <v>0.69812883000002257</v>
       </c>
-      <c r="E31">
+      <c r="S31">
         <v>0.49900720000003185</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O32" t="s">
         <v>129</v>
       </c>
-      <c r="B32">
+      <c r="P32">
         <v>-2.7684356900000009</v>
       </c>
-      <c r="C32">
+      <c r="Q32">
         <v>-2.8162229899999662</v>
       </c>
-      <c r="D32">
+      <c r="R32">
         <v>-1.3810041499999746</v>
       </c>
-      <c r="E32">
+      <c r="S32">
         <v>-2.6493337999999844</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O33" t="s">
         <v>130</v>
       </c>
-      <c r="B33">
+      <c r="P33">
         <v>-1.4495091499999941</v>
       </c>
-      <c r="C33">
+      <c r="Q33">
         <v>-1.2740884800000405</v>
       </c>
-      <c r="D33">
+      <c r="R33">
         <v>-0.60284404000004388</v>
       </c>
-      <c r="E33">
+      <c r="S33">
         <v>-2.6112791200000252</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O34" t="s">
         <v>131</v>
       </c>
-      <c r="B34">
+      <c r="P34">
         <v>0.14885378000001337</v>
       </c>
-      <c r="C34">
+      <c r="Q34">
         <v>-0.94465296999998749</v>
       </c>
-      <c r="D34">
+      <c r="R34">
         <v>0.33234873000002763</v>
       </c>
-      <c r="E34">
+      <c r="S34">
         <v>-0.65930397999996648</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
         <v>132</v>
       </c>
-      <c r="B35">
+      <c r="P35">
         <v>0.12097152000000078</v>
       </c>
-      <c r="C35">
+      <c r="Q35">
         <v>-0.76108612999996161</v>
       </c>
-      <c r="D35">
+      <c r="R35">
         <v>0.32452593000004226</v>
       </c>
-      <c r="E35">
+      <c r="S35">
         <v>-0.21816313999996373</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
         <v>133</v>
       </c>
-      <c r="B36">
+      <c r="P36">
         <v>0.32770350999998099</v>
       </c>
-      <c r="C36">
+      <c r="Q36">
         <v>-1.2081979100000186</v>
       </c>
-      <c r="D36">
+      <c r="R36">
         <v>-8.3344000000313834E-3</v>
       </c>
-      <c r="E36">
+      <c r="S36">
         <v>0.56544748999997774</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O37" t="s">
         <v>134</v>
       </c>
-      <c r="B37">
+      <c r="P37">
         <v>0.53514526999997569</v>
       </c>
-      <c r="C37">
+      <c r="Q37">
         <v>-0.67420650000001991</v>
       </c>
-      <c r="D37">
+      <c r="R37">
         <v>0.26152698999998547</v>
       </c>
-      <c r="E37">
+      <c r="S37">
         <v>1.4022053700000279</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B38">
+      <c r="P38">
         <v>1.5711872200000019</v>
       </c>
-      <c r="C38">
+      <c r="Q38">
         <v>-9.1203010000009854E-2</v>
       </c>
-      <c r="D38">
+      <c r="R38">
         <v>1.7453617199999978</v>
       </c>
-      <c r="E38">
+      <c r="S38">
         <v>1.3177451499999884</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O40" s="8"/>
+      <c r="P40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="Q40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="R40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="S40" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O41" t="s">
         <v>125</v>
       </c>
-      <c r="B41">
+      <c r="P41">
         <v>0.42967677999995457</v>
       </c>
-      <c r="C41">
+      <c r="Q41">
         <v>-0.3625955600000399</v>
       </c>
-      <c r="D41">
+      <c r="R41">
         <v>0.39785154999997685</v>
       </c>
-      <c r="E41">
+      <c r="S41">
         <v>1.4792290899999707</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B42">
+      <c r="P42">
         <v>-8.2492090000027662E-2</v>
       </c>
-      <c r="C42">
+      <c r="Q42">
         <v>-0.53887365000002241</v>
       </c>
-      <c r="D42">
+      <c r="R42">
         <v>0.83359824999995835</v>
       </c>
-      <c r="E42">
+      <c r="S42">
         <v>-1.166291920000011</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O43" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B43">
+      <c r="P43">
         <v>9.6771250000006415E-2</v>
       </c>
-      <c r="C43">
+      <c r="Q43">
         <v>-0.79540719999999432</v>
       </c>
-      <c r="D43">
+      <c r="R43">
         <v>0.63232099999998281</v>
       </c>
-      <c r="E43">
+      <c r="S43">
         <v>-0.75137249000001338</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O44" t="s">
         <v>114</v>
       </c>
-      <c r="B44">
+      <c r="P44">
         <v>8.057561000002833E-2</v>
       </c>
-      <c r="C44">
+      <c r="Q44">
         <v>-1.0797074600000034</v>
       </c>
-      <c r="D44">
+      <c r="R44">
         <v>0.27143843000003853</v>
       </c>
-      <c r="E44">
+      <c r="S44">
         <v>-0.20255842999997276</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O45" t="s">
         <v>116</v>
       </c>
-      <c r="B45">
+      <c r="P45">
         <v>-0.28851254999996145</v>
       </c>
-      <c r="C45">
+      <c r="Q45">
         <v>-1.3103844799999766</v>
       </c>
-      <c r="D45">
+      <c r="R45">
         <v>-9.8751220000004469E-2</v>
       </c>
-      <c r="E45">
+      <c r="S45">
         <v>-0.45127994999997645</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O46" t="s">
         <v>117</v>
       </c>
-      <c r="B46">
+      <c r="P46">
         <v>-0.15955723000002964</v>
       </c>
-      <c r="C46">
+      <c r="Q46">
         <v>-1.357516900000002</v>
       </c>
-      <c r="D46">
+      <c r="R46">
         <v>5.6392789999953674E-2</v>
       </c>
-      <c r="E46">
+      <c r="S46">
         <v>-2.8004680000000004E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O47" t="s">
         <v>113</v>
       </c>
-      <c r="B47">
+      <c r="P47">
         <v>0.47024493000002421</v>
       </c>
-      <c r="C47">
+      <c r="Q47">
         <v>-0.90030351000000941</v>
       </c>
-      <c r="D47">
+      <c r="R47">
         <v>0.25367177000003194</v>
       </c>
-      <c r="E47">
+      <c r="S47">
         <v>0.8515528100000247</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O48" t="s">
         <v>112</v>
       </c>
-      <c r="B48">
+      <c r="P48">
         <v>0.67499473999997717</v>
       </c>
-      <c r="C48">
+      <c r="Q48">
         <v>-0.49399451999999577</v>
       </c>
-      <c r="D48">
+      <c r="R48">
         <v>0.6823573599999615</v>
       </c>
-      <c r="E48">
+      <c r="S48">
         <v>1.2971274999999687</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O49" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B49">
+      <c r="P49">
         <v>1.2211955700000092</v>
       </c>
-      <c r="C49">
+      <c r="Q49">
         <v>-0.25260202999998604</v>
       </c>
-      <c r="D49">
+      <c r="R49">
         <v>0.53106705999999049</v>
       </c>
-      <c r="E49">
+      <c r="S49">
         <v>1.3093887599999712</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O50" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B50">
+      <c r="P50">
         <v>0.54101516000001793</v>
       </c>
-      <c r="C50">
+      <c r="Q50">
         <v>-0.11389156000000789</v>
       </c>
-      <c r="D50">
+      <c r="R50">
         <v>0.69825789000002869</v>
       </c>
-      <c r="E50">
+      <c r="S50">
         <v>0.49971733999999879</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O51" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B51">
+      <c r="P51">
         <v>-2.7684356900000009</v>
       </c>
-      <c r="C51">
+      <c r="Q51">
         <v>-2.8162229899999662</v>
       </c>
-      <c r="D51">
+      <c r="R51">
         <v>-1.3810041499999746</v>
       </c>
-      <c r="E51">
+      <c r="S51">
         <v>-3.5177745299999592</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O52" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B52">
+      <c r="P52">
         <v>-1.4495091499999941</v>
       </c>
-      <c r="C52">
+      <c r="Q52">
         <v>-0.10195565000003093</v>
       </c>
-      <c r="D52">
+      <c r="R52">
         <v>-0.60284404000004388</v>
       </c>
-      <c r="E52">
+      <c r="S52">
         <v>-2.6112791200000252</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O53" t="s">
         <v>131</v>
       </c>
-      <c r="B53">
+      <c r="P53">
         <v>0.14885378000001337</v>
       </c>
-      <c r="C53">
+      <c r="Q53">
         <v>-0.94465296999998749</v>
       </c>
-      <c r="D53">
+      <c r="R53">
         <v>0.33234873000002763</v>
       </c>
-      <c r="E53">
+      <c r="S53">
         <v>-0.65930397999996648</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O54" t="s">
         <v>132</v>
       </c>
-      <c r="B54">
+      <c r="P54">
         <v>0.12097152000000078</v>
       </c>
-      <c r="C54">
+      <c r="Q54">
         <v>-0.76108612999996161</v>
       </c>
-      <c r="D54">
+      <c r="R54">
         <v>0.32452593000004226</v>
       </c>
-      <c r="E54">
+      <c r="S54">
         <v>-0.21816313999996373</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O55" t="s">
         <v>133</v>
       </c>
-      <c r="B55">
+      <c r="P55">
         <v>0.32770350999998099</v>
       </c>
-      <c r="C55">
+      <c r="Q55">
         <v>-1.2081979100000186</v>
       </c>
-      <c r="D55">
+      <c r="R55">
         <v>-8.3344000000313834E-3</v>
       </c>
-      <c r="E55">
+      <c r="S55">
         <v>0.56544748999997774</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O56" t="s">
         <v>134</v>
       </c>
-      <c r="B56">
+      <c r="P56">
         <v>0.53514526999997569</v>
       </c>
-      <c r="C56">
+      <c r="Q56">
         <v>-0.67420650000001991</v>
       </c>
-      <c r="D56">
+      <c r="R56">
         <v>0.26152698999998547</v>
       </c>
-      <c r="E56">
+      <c r="S56">
         <v>1.4022053700000279</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O57" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B57">
+      <c r="P57">
         <v>1.5711872200000019</v>
       </c>
-      <c r="C57">
+      <c r="Q57">
         <v>-9.1203010000009854E-2</v>
       </c>
-      <c r="D57">
+      <c r="R57">
         <v>0.68100772999996861</v>
       </c>
-      <c r="E57">
+      <c r="S57">
         <v>1.3160303000000035</v>
       </c>
     </row>
@@ -3993,15 +4261,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:E43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -4014,20 +4282,32 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -4043,50 +4323,80 @@
       <c r="E2">
         <v>1.4792290899999707</v>
       </c>
-      <c r="F2">
+      <c r="O2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="Q2">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="R2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="S2">
+        <v>1.4792290899999707</v>
+      </c>
+      <c r="T2">
         <v>0.32753287999996727</v>
       </c>
-      <c r="G2">
+      <c r="U2">
         <v>-0.67229998999999374</v>
       </c>
-      <c r="H2">
+      <c r="V2">
         <v>0.46962667000001757</v>
       </c>
-      <c r="I2">
+      <c r="W2">
         <v>1.408078190000007</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B3">
         <v>-0.20907174000002415</v>
       </c>
       <c r="C3">
-        <v>-0.87727053999997828</v>
+        <v>-0.54760070000002692</v>
       </c>
       <c r="D3">
-        <v>0.281680849999979</v>
+        <v>0.28005290999998733</v>
       </c>
       <c r="E3">
         <v>-1.6635917900000172</v>
       </c>
-      <c r="F3">
+      <c r="O3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3">
+        <v>-0.20907174000002415</v>
+      </c>
+      <c r="Q3">
+        <v>-0.87727053999997828</v>
+      </c>
+      <c r="R3">
+        <v>0.281680849999979</v>
+      </c>
+      <c r="S3">
+        <v>-1.6635917900000172</v>
+      </c>
+      <c r="T3">
         <v>-1.2442060100000387</v>
       </c>
-      <c r="G3">
+      <c r="U3">
         <v>-0.62952824999995904</v>
       </c>
-      <c r="H3">
+      <c r="V3">
         <v>0.14427075999997596</v>
       </c>
-      <c r="I3">
+      <c r="W3">
         <v>-1.9718484399999929</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B4">
@@ -4099,23 +4409,38 @@
         <v>0.6455431900000046</v>
       </c>
       <c r="E4">
+        <v>-0.57369748999999137</v>
+      </c>
+      <c r="O4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4">
+        <v>9.4676059999972306E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-0.72374954000002312</v>
+      </c>
+      <c r="R4">
+        <v>0.6455431900000046</v>
+      </c>
+      <c r="S4">
         <v>-0.55343082000003596</v>
       </c>
-      <c r="F4">
+      <c r="T4">
         <v>-0.93754771000000092</v>
       </c>
-      <c r="G4">
+      <c r="U4">
         <v>-0.87450112999999341</v>
       </c>
-      <c r="H4">
+      <c r="V4">
         <v>0.51519477999999408</v>
       </c>
-      <c r="I4">
+      <c r="W4">
         <v>-1.4442760900000358</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B5">
@@ -4128,22 +4453,37 @@
         <v>0.47335465000002541</v>
       </c>
       <c r="E5">
+        <v>-9.9856239999970509E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5">
+        <v>0.17855065000002268</v>
+      </c>
+      <c r="Q5">
+        <v>-0.91048215000000177</v>
+      </c>
+      <c r="R5">
+        <v>0.47335465000002541</v>
+      </c>
+      <c r="S5">
         <v>-0.1212371599999833</v>
       </c>
-      <c r="F5">
+      <c r="T5">
         <v>-0.64982373999999909</v>
       </c>
-      <c r="G5">
+      <c r="U5">
         <v>-1.2691390600000378</v>
       </c>
-      <c r="H5">
+      <c r="V5">
         <v>0.31154147000000121</v>
       </c>
-      <c r="I5">
+      <c r="W5">
         <v>-1.0279575799999825</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4159,20 +4499,35 @@
       <c r="E6">
         <v>0.52850589000000037</v>
       </c>
-      <c r="F6">
+      <c r="O6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6">
+        <v>9.1546350000033083E-2</v>
+      </c>
+      <c r="Q6">
+        <v>-1.2006317699999673</v>
+      </c>
+      <c r="R6">
+        <v>0.16462313999999578</v>
+      </c>
+      <c r="S6">
+        <v>0.52850589000000037</v>
+      </c>
+      <c r="T6">
         <v>-1.0028811499999617</v>
       </c>
-      <c r="G6">
+      <c r="U6">
         <v>-1.9006452400000118</v>
       </c>
-      <c r="H6">
+      <c r="V6">
         <v>-8.1290500000439359E-3</v>
       </c>
-      <c r="I6">
+      <c r="W6">
         <v>-0.94947126000001481</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -4188,20 +4543,35 @@
       <c r="E7">
         <v>0.66190549000001875</v>
       </c>
-      <c r="F7">
+      <c r="O7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7">
+        <v>0.4771517399999996</v>
+      </c>
+      <c r="Q7">
+        <v>-1.2387180599999912</v>
+      </c>
+      <c r="R7">
+        <v>0.30282821000002214</v>
+      </c>
+      <c r="S7">
+        <v>0.66190549000001875</v>
+      </c>
+      <c r="T7">
         <v>2.5132729999984615E-2</v>
       </c>
-      <c r="G7">
+      <c r="U7">
         <v>-2.0845421999999818</v>
       </c>
-      <c r="H7">
+      <c r="V7">
         <v>-8.2156349999998657E-2</v>
       </c>
-      <c r="I7">
+      <c r="W7">
         <v>-0.2206903099999713</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -4217,20 +4587,35 @@
       <c r="E8">
         <v>0.76648327000001837</v>
       </c>
-      <c r="F8">
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8">
+        <v>0.21401460999998134</v>
+      </c>
+      <c r="Q8">
+        <v>-1.1046020400000263</v>
+      </c>
+      <c r="R8">
+        <v>0.19173605999997489</v>
+      </c>
+      <c r="S8">
+        <v>0.76648327000001837</v>
+      </c>
+      <c r="T8">
         <v>-0.18136762000001427</v>
       </c>
-      <c r="G8">
+      <c r="U8">
         <v>-1.7528062600000514</v>
       </c>
-      <c r="H8">
+      <c r="V8">
         <v>7.4059859999969557E-2</v>
       </c>
-      <c r="I8">
+      <c r="W8">
         <v>0.18106297000000859</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -4246,20 +4631,35 @@
       <c r="E9">
         <v>1.2677218799999914</v>
       </c>
-      <c r="F9">
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9">
+        <v>0.6332342100000008</v>
+      </c>
+      <c r="Q9">
+        <v>-0.54400558000002697</v>
+      </c>
+      <c r="R9">
+        <v>0.6103417099999926</v>
+      </c>
+      <c r="S9">
+        <v>1.2677218799999914</v>
+      </c>
+      <c r="T9">
         <v>0.12213422000000973</v>
       </c>
-      <c r="G9">
+      <c r="U9">
         <v>-1.129300730000006</v>
       </c>
-      <c r="H9">
+      <c r="V9">
         <v>0.48796076000001376</v>
       </c>
-      <c r="I9">
+      <c r="W9">
         <v>0.80671528000002946</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -4275,112 +4675,172 @@
       <c r="E10">
         <v>1.2816491899999769</v>
       </c>
-      <c r="F10">
+      <c r="O10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10">
+        <v>1.2030278100000262</v>
+      </c>
+      <c r="Q10">
+        <v>-0.20606281999999432</v>
+      </c>
+      <c r="R10">
+        <v>0.59273791000003184</v>
+      </c>
+      <c r="S10">
+        <v>1.2816491899999769</v>
+      </c>
+      <c r="T10">
         <v>0.86870337000003728</v>
       </c>
-      <c r="G10">
+      <c r="U10">
         <v>-0.64019848999998352</v>
       </c>
-      <c r="H10">
+      <c r="V10">
         <v>0.1452859000000255</v>
       </c>
-      <c r="I10">
+      <c r="W10">
         <v>0.13304903999998396</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B11">
+        <v>0.45454102000001084</v>
+      </c>
+      <c r="C11">
+        <v>-0.12410134000003303</v>
+      </c>
+      <c r="D11">
+        <v>0.49052082999997237</v>
+      </c>
+      <c r="E11">
+        <v>0.23187475000001223</v>
+      </c>
+      <c r="O11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11">
         <v>0.43932067000001807</v>
       </c>
-      <c r="C11">
+      <c r="Q11">
         <v>-0.16780110000001436</v>
       </c>
-      <c r="D11">
+      <c r="R11">
         <v>0.49108611999996965</v>
       </c>
-      <c r="E11">
+      <c r="S11">
         <v>0.25009572999997909</v>
       </c>
-      <c r="F11">
+      <c r="T11">
         <v>-0.47642840999999381</v>
       </c>
-      <c r="G11">
+      <c r="U11">
         <v>-0.12472618999998453</v>
       </c>
-      <c r="H11">
+      <c r="V11">
         <v>-0.27441047000002827</v>
       </c>
-      <c r="I11">
+      <c r="W11">
         <v>-0.44537363000002506</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B12">
+        <v>-0.59872628000000505</v>
+      </c>
+      <c r="C12">
+        <v>-0.57492975000001856</v>
+      </c>
+      <c r="D12">
+        <v>0.51704162999998671</v>
+      </c>
+      <c r="E12">
+        <v>-1.3418272600000214</v>
+      </c>
+      <c r="O12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12">
         <v>-0.48236713000001119</v>
       </c>
-      <c r="C12">
+      <c r="Q12">
         <v>-0.46473922000000734</v>
       </c>
-      <c r="D12">
+      <c r="R12">
         <v>0.86292896000002584</v>
       </c>
-      <c r="E12">
+      <c r="S12">
         <v>-1.0514199599999947</v>
       </c>
-      <c r="F12">
+      <c r="T12">
         <v>-1.6754570499999883</v>
       </c>
-      <c r="G12">
+      <c r="U12">
         <v>-0.48652057999998455</v>
       </c>
-      <c r="H12">
+      <c r="V12">
         <v>-0.15612454999996617</v>
       </c>
-      <c r="I12">
+      <c r="W12">
         <v>-2.2723194099999851</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B13">
+        <v>8.2241929999998131E-2</v>
+      </c>
+      <c r="C13">
+        <v>-0.70133271999997682</v>
+      </c>
+      <c r="D13">
+        <v>0.5227679200000277</v>
+      </c>
+      <c r="E13">
+        <v>-1.1151017300000112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13">
         <v>0.20238396000000902</v>
       </c>
-      <c r="C13">
+      <c r="Q13">
         <v>-0.69836635000000946</v>
       </c>
-      <c r="D13">
+      <c r="R13">
         <v>0.63594735000003011</v>
       </c>
-      <c r="E13">
+      <c r="S13">
         <v>-1.1041934599999954</v>
       </c>
-      <c r="F13">
+      <c r="T13">
         <v>-1.461039709999977</v>
       </c>
-      <c r="G13">
+      <c r="U13">
         <v>-0.80664298000004386</v>
       </c>
-      <c r="H13">
+      <c r="V13">
         <v>0.22181323000000175</v>
       </c>
-      <c r="I13">
+      <c r="W13">
         <v>-2.2132419600000239</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B14">
-        <v>0.12731257000000396</v>
+        <v>0.13088558999998012</v>
       </c>
       <c r="C14">
         <v>-0.7783340999999897</v>
@@ -4389,22 +4849,37 @@
         <v>0.45073336999995872</v>
       </c>
       <c r="E14">
+        <v>-0.38701501000004646</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14">
+        <v>0.12731257000000396</v>
+      </c>
+      <c r="Q14">
+        <v>-0.7783340999999897</v>
+      </c>
+      <c r="R14">
+        <v>0.45073336999995872</v>
+      </c>
+      <c r="S14">
         <v>-0.36898894000002747</v>
       </c>
-      <c r="F14">
+      <c r="T14">
         <v>-0.84600715999995346</v>
       </c>
-      <c r="G14">
+      <c r="U14">
         <v>-1.2214633199999927</v>
       </c>
-      <c r="H14">
+      <c r="V14">
         <v>0.25528392000000322</v>
       </c>
-      <c r="I14">
+      <c r="W14">
         <v>-1.7300939400000366</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -4420,20 +4895,35 @@
       <c r="E15">
         <v>0.20267458999999599</v>
       </c>
-      <c r="F15">
+      <c r="O15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15">
+        <v>-8.1079419999991575E-2</v>
+      </c>
+      <c r="Q15">
+        <v>-1.0638068200000195</v>
+      </c>
+      <c r="R15">
+        <v>0.20672167999997937</v>
+      </c>
+      <c r="S15">
+        <v>0.20267458999999599</v>
+      </c>
+      <c r="T15">
         <v>-0.93119288999998817</v>
       </c>
-      <c r="G15">
+      <c r="U15">
         <v>-1.7109974900000058</v>
       </c>
-      <c r="H15">
+      <c r="V15">
         <v>-6.3408330000023216E-2</v>
       </c>
-      <c r="I15">
+      <c r="W15">
         <v>-0.85105846999996038</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -4449,20 +4939,35 @@
       <c r="E16">
         <v>0.96402385999997842</v>
       </c>
-      <c r="F16">
+      <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16">
+        <v>0.29668052999999217</v>
+      </c>
+      <c r="Q16">
+        <v>-1.3398479800000533</v>
+      </c>
+      <c r="R16">
+        <v>-9.7033170000039082E-2</v>
+      </c>
+      <c r="S16">
+        <v>0.96402385999997842</v>
+      </c>
+      <c r="T16">
         <v>-0.22593761999997897</v>
       </c>
-      <c r="G16">
+      <c r="U16">
         <v>-2.0626854100000234</v>
       </c>
-      <c r="H16">
+      <c r="V16">
         <v>-0.3032589900000251</v>
       </c>
-      <c r="I16">
+      <c r="W16">
         <v>0.52909068000000525</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -4478,20 +4983,35 @@
       <c r="E17">
         <v>1.4440940399999627</v>
       </c>
-      <c r="F17">
+      <c r="O17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17">
+        <v>0.49376295999995845</v>
+      </c>
+      <c r="Q17">
+        <v>-0.73753684000001307</v>
+      </c>
+      <c r="R17">
+        <v>0.18362994999994653</v>
+      </c>
+      <c r="S17">
+        <v>1.4440940399999627</v>
+      </c>
+      <c r="T17">
         <v>-0.21578098999999584</v>
       </c>
-      <c r="G17">
+      <c r="U17">
         <v>-1.6957887199999906</v>
       </c>
-      <c r="H17">
+      <c r="V17">
         <v>4.3952699999674216E-3</v>
       </c>
-      <c r="I17">
+      <c r="W17">
         <v>1.048753739999976</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -4507,627 +5027,339 @@
       <c r="E18">
         <v>1.7310061000000396</v>
       </c>
-      <c r="F18">
+      <c r="O18" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18">
+        <v>1.5608885500000045</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1035354999999587</v>
+      </c>
+      <c r="R18">
+        <v>0.72725107000001499</v>
+      </c>
+      <c r="S18">
+        <v>1.7310061000000396</v>
+      </c>
+      <c r="T18">
         <v>1.4272948899999736</v>
       </c>
-      <c r="G18">
+      <c r="U18">
         <v>-0.10421939999997143</v>
       </c>
-      <c r="H18">
+      <c r="V18">
         <v>-2.4622060000020429E-2</v>
       </c>
-      <c r="I18">
+      <c r="W18">
         <v>0.98088866999999391</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="Q21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="R21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="S21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O22" t="s">
         <v>125</v>
       </c>
-      <c r="B22">
+      <c r="P22">
         <v>0.42967677999995457</v>
       </c>
-      <c r="C22">
+      <c r="Q22">
         <v>-0.3625955600000399</v>
       </c>
-      <c r="D22">
+      <c r="R22">
         <v>0.39785154999997685</v>
       </c>
-      <c r="E22">
+      <c r="S22">
         <v>1.4792290899999707</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O23" t="s">
         <v>126</v>
       </c>
-      <c r="B23">
+      <c r="P23">
         <v>-0.20907174000002415</v>
       </c>
-      <c r="C23">
+      <c r="Q23">
         <v>-0.87727053999997828</v>
       </c>
-      <c r="D23">
+      <c r="R23">
         <v>0.281680849999979</v>
       </c>
-      <c r="E23">
+      <c r="S23">
         <v>-1.6635917900000172</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O24" t="s">
         <v>119</v>
       </c>
-      <c r="B24">
+      <c r="P24">
         <v>9.4676059999972306E-2</v>
       </c>
-      <c r="C24">
+      <c r="Q24">
         <v>-0.72374954000002312</v>
       </c>
-      <c r="D24">
+      <c r="R24">
         <v>0.6455431900000046</v>
       </c>
-      <c r="E24">
+      <c r="S24">
         <v>-0.55343082000003596</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O25" t="s">
         <v>114</v>
       </c>
-      <c r="B25">
+      <c r="P25">
         <v>0.17855065000002268</v>
       </c>
-      <c r="C25">
+      <c r="Q25">
         <v>-0.91048215000000177</v>
       </c>
-      <c r="D25">
+      <c r="R25">
         <v>0.47335465000002541</v>
       </c>
-      <c r="E25">
+      <c r="S25">
         <v>-0.1212371599999833</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O26" t="s">
         <v>116</v>
       </c>
-      <c r="B26">
+      <c r="P26">
         <v>9.1546350000033083E-2</v>
       </c>
-      <c r="C26">
+      <c r="Q26">
         <v>-1.2006317699999673</v>
       </c>
-      <c r="D26">
+      <c r="R26">
         <v>0.16462313999999578</v>
       </c>
-      <c r="E26">
+      <c r="S26">
         <v>0.52850589000000037</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O27" t="s">
         <v>117</v>
       </c>
-      <c r="B27">
+      <c r="P27">
         <v>0.4771517399999996</v>
       </c>
-      <c r="C27">
+      <c r="Q27">
         <v>-1.2387180599999912</v>
       </c>
-      <c r="D27">
+      <c r="R27">
         <v>0.30282821000002214</v>
       </c>
-      <c r="E27">
+      <c r="S27">
         <v>0.66190549000001875</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O28" t="s">
         <v>113</v>
       </c>
-      <c r="B28">
+      <c r="P28">
         <v>0.21401460999998134</v>
       </c>
-      <c r="C28">
+      <c r="Q28">
         <v>-1.1046020400000263</v>
       </c>
-      <c r="D28">
+      <c r="R28">
         <v>0.19173605999997489</v>
       </c>
-      <c r="E28">
+      <c r="S28">
         <v>0.76648327000001837</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O29" t="s">
         <v>112</v>
       </c>
-      <c r="B29">
+      <c r="P29">
         <v>0.6332342100000008</v>
       </c>
-      <c r="C29">
+      <c r="Q29">
         <v>-0.54400558000002697</v>
       </c>
-      <c r="D29">
+      <c r="R29">
         <v>0.6103417099999926</v>
       </c>
-      <c r="E29">
+      <c r="S29">
         <v>1.2677218799999914</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O30" t="s">
         <v>127</v>
       </c>
-      <c r="B30">
+      <c r="P30">
         <v>1.2030278100000262</v>
       </c>
-      <c r="C30">
+      <c r="Q30">
         <v>-0.20606281999999432</v>
       </c>
-      <c r="D30">
+      <c r="R30">
         <v>0.59273791000003184</v>
       </c>
-      <c r="E30">
+      <c r="S30">
         <v>1.2816491899999769</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B31">
+      <c r="P31">
         <v>0.45454102000001084</v>
       </c>
-      <c r="C31">
+      <c r="Q31">
         <v>-0.12410134000003303</v>
       </c>
-      <c r="D31">
+      <c r="R31">
         <v>0.49052082999997237</v>
       </c>
-      <c r="E31">
+      <c r="S31">
         <v>0.23187475000001223</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B32">
+      <c r="P32">
         <v>-0.59872628000000505</v>
       </c>
-      <c r="C32">
+      <c r="Q32">
         <v>-0.57492975000001856</v>
       </c>
-      <c r="D32">
+      <c r="R32">
         <v>0.51704162999998671</v>
       </c>
-      <c r="E32">
+      <c r="S32">
         <v>-1.3418272600000214</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B33">
+      <c r="P33">
         <v>-1.5981389999990103E-2</v>
       </c>
-      <c r="C33">
+      <c r="Q33">
         <v>-0.70133271999997682</v>
       </c>
-      <c r="D33">
+      <c r="R33">
         <v>0.5227679200000277</v>
       </c>
-      <c r="E33">
+      <c r="S33">
         <v>-1.1151017300000112</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O34" t="s">
         <v>131</v>
       </c>
-      <c r="B34">
+      <c r="P34">
         <v>0.12731257000000396</v>
       </c>
-      <c r="C34">
+      <c r="Q34">
         <v>-0.7783340999999897</v>
       </c>
-      <c r="D34">
+      <c r="R34">
         <v>0.45073336999995872</v>
       </c>
-      <c r="E34">
+      <c r="S34">
         <v>-0.36898894000002747</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
         <v>132</v>
       </c>
-      <c r="B35">
+      <c r="P35">
         <v>-8.1079419999991575E-2</v>
       </c>
-      <c r="C35">
+      <c r="Q35">
         <v>-1.0638068200000195</v>
       </c>
-      <c r="D35">
+      <c r="R35">
         <v>0.20672167999997937</v>
       </c>
-      <c r="E35">
+      <c r="S35">
         <v>0.20267458999999599</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
         <v>133</v>
       </c>
-      <c r="B36">
+      <c r="P36">
         <v>0.29668052999999217</v>
       </c>
-      <c r="C36">
+      <c r="Q36">
         <v>-1.3398479800000533</v>
       </c>
-      <c r="D36">
+      <c r="R36">
         <v>-9.7033170000039082E-2</v>
       </c>
-      <c r="E36">
+      <c r="S36">
         <v>0.96402385999997842</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O37" t="s">
         <v>134</v>
       </c>
-      <c r="B37">
+      <c r="P37">
         <v>0.49376295999995845</v>
       </c>
-      <c r="C37">
+      <c r="Q37">
         <v>-0.73753684000001307</v>
       </c>
-      <c r="D37">
+      <c r="R37">
         <v>0.18362994999994653</v>
       </c>
-      <c r="E37">
+      <c r="S37">
         <v>1.4440940399999627</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O38" t="s">
         <v>135</v>
       </c>
-      <c r="B38">
+      <c r="P38">
         <v>1.5608885500000045</v>
       </c>
-      <c r="C38">
+      <c r="Q38">
         <v>-0.1035354999999587</v>
       </c>
-      <c r="D38">
+      <c r="R38">
         <v>0.72725107000001499</v>
       </c>
-      <c r="E38">
-        <v>1.7310061000000396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41">
-        <v>0.42967677999995457</v>
-      </c>
-      <c r="C41">
-        <v>-0.3625955600000399</v>
-      </c>
-      <c r="D41">
-        <v>0.39785154999997685</v>
-      </c>
-      <c r="E41">
-        <v>1.4792290899999707</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42">
-        <v>-0.20907174000002415</v>
-      </c>
-      <c r="C42">
-        <v>-0.54760070000002692</v>
-      </c>
-      <c r="D42">
-        <v>0.28005290999998733</v>
-      </c>
-      <c r="E42">
-        <v>-1.6635917900000172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43">
-        <v>9.4676059999972306E-2</v>
-      </c>
-      <c r="C43">
-        <v>-0.72374954000002312</v>
-      </c>
-      <c r="D43">
-        <v>0.6455431900000046</v>
-      </c>
-      <c r="E43">
-        <v>-0.57369748999999137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44">
-        <v>0.17855065000002268</v>
-      </c>
-      <c r="C44">
-        <v>-0.91048215000000177</v>
-      </c>
-      <c r="D44">
-        <v>0.47335465000002541</v>
-      </c>
-      <c r="E44">
-        <v>-9.9856239999970509E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45">
-        <v>9.1546350000033083E-2</v>
-      </c>
-      <c r="C45">
-        <v>-1.2006317699999673</v>
-      </c>
-      <c r="D45">
-        <v>0.16462313999999578</v>
-      </c>
-      <c r="E45">
-        <v>0.52850589000000037</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46">
-        <v>0.4771517399999996</v>
-      </c>
-      <c r="C46">
-        <v>-1.2387180599999912</v>
-      </c>
-      <c r="D46">
-        <v>0.30282821000002214</v>
-      </c>
-      <c r="E46">
-        <v>0.66190549000001875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47">
-        <v>0.21401460999998134</v>
-      </c>
-      <c r="C47">
-        <v>-1.1046020400000263</v>
-      </c>
-      <c r="D47">
-        <v>0.19173605999997489</v>
-      </c>
-      <c r="E47">
-        <v>0.76648327000001837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48">
-        <v>0.6332342100000008</v>
-      </c>
-      <c r="C48">
-        <v>-0.54400558000002697</v>
-      </c>
-      <c r="D48">
-        <v>0.6103417099999926</v>
-      </c>
-      <c r="E48">
-        <v>1.2677218799999914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49">
-        <v>1.2030278100000262</v>
-      </c>
-      <c r="C49">
-        <v>-0.20606281999999432</v>
-      </c>
-      <c r="D49">
-        <v>0.59273791000003184</v>
-      </c>
-      <c r="E49">
-        <v>1.2816491899999769</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50">
-        <v>0.45454102000001084</v>
-      </c>
-      <c r="C50">
-        <v>-0.12410134000003303</v>
-      </c>
-      <c r="D50">
-        <v>0.49052082999997237</v>
-      </c>
-      <c r="E50">
-        <v>0.23187475000001223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51">
-        <v>-0.59872628000000505</v>
-      </c>
-      <c r="C51">
-        <v>-0.57492975000001856</v>
-      </c>
-      <c r="D51">
-        <v>0.51704162999998671</v>
-      </c>
-      <c r="E51">
-        <v>-1.3418272600000214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52">
-        <v>8.2241929999998131E-2</v>
-      </c>
-      <c r="C52">
-        <v>-0.70133271999997682</v>
-      </c>
-      <c r="D52">
-        <v>0.5227679200000277</v>
-      </c>
-      <c r="E52">
-        <v>-1.1151017300000112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53">
-        <v>0.13088558999998012</v>
-      </c>
-      <c r="C53">
-        <v>-0.7783340999999897</v>
-      </c>
-      <c r="D53">
-        <v>0.45073336999995872</v>
-      </c>
-      <c r="E53">
-        <v>-0.38701501000004646</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54">
-        <v>-8.1079419999991575E-2</v>
-      </c>
-      <c r="C54">
-        <v>-1.0638068200000195</v>
-      </c>
-      <c r="D54">
-        <v>0.20672167999997937</v>
-      </c>
-      <c r="E54">
-        <v>0.20267458999999599</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55">
-        <v>0.29668052999999217</v>
-      </c>
-      <c r="C55">
-        <v>-1.3398479800000533</v>
-      </c>
-      <c r="D55">
-        <v>-9.7033170000039082E-2</v>
-      </c>
-      <c r="E55">
-        <v>0.96402385999997842</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56">
-        <v>0.49376295999995845</v>
-      </c>
-      <c r="C56">
-        <v>-0.73753684000001307</v>
-      </c>
-      <c r="D56">
-        <v>0.18362994999994653</v>
-      </c>
-      <c r="E56">
-        <v>1.4440940399999627</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57">
-        <v>1.5608885500000045</v>
-      </c>
-      <c r="C57">
-        <v>-0.1035354999999587</v>
-      </c>
-      <c r="D57">
-        <v>0.72725107000001499</v>
-      </c>
-      <c r="E57">
+      <c r="S38">
         <v>1.7310061000000396</v>
       </c>
     </row>
@@ -5138,15 +5370,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -5159,20 +5391,32 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -5188,49 +5432,79 @@
       <c r="E2">
         <v>1.4792290899999707</v>
       </c>
-      <c r="F2">
+      <c r="O2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="Q2">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="R2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="S2">
+        <v>1.4792290899999707</v>
+      </c>
+      <c r="T2">
         <v>0.32753287999996727</v>
       </c>
-      <c r="G2">
+      <c r="U2">
         <v>-0.67229998999999374</v>
       </c>
-      <c r="H2">
+      <c r="V2">
         <v>0.46962667000001757</v>
       </c>
-      <c r="I2">
+      <c r="W2">
         <v>1.408078190000007</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B3">
+        <v>-4.3434530399999964</v>
+      </c>
+      <c r="C3">
+        <v>-3.9117692599999661</v>
+      </c>
+      <c r="D3">
+        <v>-3.463529139999999</v>
+      </c>
+      <c r="E3">
+        <v>-5.1130951099999802</v>
+      </c>
+      <c r="O3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3">
         <v>-4.3438673199999691</v>
       </c>
-      <c r="C3">
+      <c r="Q3">
         <v>-3.9108463999999632</v>
       </c>
-      <c r="D3">
+      <c r="R3">
         <v>-3.4633793999999587</v>
       </c>
-      <c r="E3">
+      <c r="S3">
         <v>-5.1614301599999717</v>
       </c>
-      <c r="F3">
+      <c r="T3">
         <v>-1.4081693700000071</v>
       </c>
-      <c r="G3">
+      <c r="U3">
         <v>-0.80558371999995337</v>
       </c>
-      <c r="H3">
+      <c r="V3">
         <v>-0.73233050999994775</v>
       </c>
-      <c r="I3">
+      <c r="W3">
         <v>-2.4722736099999643</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -5244,30 +5518,45 @@
         <v>0.79334990999995325</v>
       </c>
       <c r="E4">
+        <v>-0.65437589000000207</v>
+      </c>
+      <c r="O4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4">
+        <v>0.35867884999997868</v>
+      </c>
+      <c r="Q4">
+        <v>-0.71073776000002375</v>
+      </c>
+      <c r="R4">
+        <v>0.79334990999995325</v>
+      </c>
+      <c r="S4">
         <v>-0.61319269000002441</v>
       </c>
-      <c r="F4">
+      <c r="T4">
         <v>-0.63983961999998629</v>
       </c>
-      <c r="G4">
+      <c r="U4">
         <v>-0.9790504699999989</v>
       </c>
-      <c r="H4">
+      <c r="V4">
         <v>0.46789903999995586</v>
       </c>
-      <c r="I4">
+      <c r="W4">
         <v>-1.6258048699999867</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B5">
         <v>0.18407494000000524</v>
       </c>
       <c r="C5">
-        <v>-0.92650837000001651</v>
+        <v>-8.780066999997338E-2</v>
       </c>
       <c r="D5">
         <v>0.36663705000000091</v>
@@ -5275,20 +5564,35 @@
       <c r="E5">
         <v>-0.24708799999998154</v>
       </c>
-      <c r="F5">
+      <c r="O5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5">
+        <v>0.18407494000000524</v>
+      </c>
+      <c r="Q5">
+        <v>-0.92650837000001651</v>
+      </c>
+      <c r="R5">
+        <v>0.36663705000000091</v>
+      </c>
+      <c r="S5">
+        <v>-0.24708799999998154</v>
+      </c>
+      <c r="T5">
         <v>-0.50602614000002832</v>
       </c>
-      <c r="G5">
+      <c r="U5">
         <v>-1.206210710000045</v>
       </c>
-      <c r="H5">
+      <c r="V5">
         <v>0.25705606000001735</v>
       </c>
-      <c r="I5">
+      <c r="W5">
         <v>-0.88002437999997118</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -5304,20 +5608,35 @@
       <c r="E6">
         <v>-0.61004850000002397</v>
       </c>
-      <c r="F6">
+      <c r="O6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6">
+        <v>-0.21569508000000015</v>
+      </c>
+      <c r="Q6">
+        <v>-1.5869512099999898</v>
+      </c>
+      <c r="R6">
+        <v>6.7274040000021795E-2</v>
+      </c>
+      <c r="S6">
+        <v>-0.61004850000002397</v>
+      </c>
+      <c r="T6">
         <v>-0.8771793199999931</v>
       </c>
-      <c r="G6">
+      <c r="U6">
         <v>-1.8971270799999562</v>
       </c>
-      <c r="H6">
+      <c r="V6">
         <v>-6.896849999983079E-3</v>
       </c>
-      <c r="I6">
+      <c r="W6">
         <v>-0.61750697999999238</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -5333,20 +5652,35 @@
       <c r="E7">
         <v>-5.7044750000007749E-2</v>
       </c>
-      <c r="F7">
+      <c r="O7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7">
+        <v>-1.5655078099999966</v>
+      </c>
+      <c r="Q7">
+        <v>-1.6387707199999628</v>
+      </c>
+      <c r="R7">
+        <v>-3.2582499999997072E-2</v>
+      </c>
+      <c r="S7">
+        <v>-5.7044750000007749E-2</v>
+      </c>
+      <c r="T7">
         <v>-1.1696375999999984</v>
       </c>
-      <c r="G7">
+      <c r="U7">
         <v>-1.9576993999999619</v>
       </c>
-      <c r="H7">
+      <c r="V7">
         <v>-0.10208909000000022</v>
       </c>
-      <c r="I7">
+      <c r="W7">
         <v>-0.47468590000001631</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5362,20 +5696,35 @@
       <c r="E8">
         <v>0.20040155999996978</v>
       </c>
-      <c r="F8">
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8">
+        <v>-0.73387263000001868</v>
+      </c>
+      <c r="Q8">
+        <v>-1.2657133700000092</v>
+      </c>
+      <c r="R8">
+        <v>0.12634653999997836</v>
+      </c>
+      <c r="S8">
+        <v>0.20040155999996978</v>
+      </c>
+      <c r="T8">
         <v>-0.92794552999999924</v>
       </c>
-      <c r="G8">
+      <c r="U8">
         <v>-1.7396563500000131</v>
       </c>
-      <c r="H8">
+      <c r="V8">
         <v>4.5555659999983344E-2</v>
       </c>
-      <c r="I8">
+      <c r="W8">
         <v>-0.10764647999999033</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -5391,50 +5740,80 @@
       <c r="E9">
         <v>0.92983988000001228</v>
       </c>
-      <c r="F9">
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9">
+        <v>-0.43849701000000296</v>
+      </c>
+      <c r="Q9">
+        <v>-0.99902953999997557</v>
+      </c>
+      <c r="R9">
+        <v>0.38707785000001804</v>
+      </c>
+      <c r="S9">
+        <v>0.92983988000001228</v>
+      </c>
+      <c r="T9">
         <v>-0.32043048999998947</v>
       </c>
-      <c r="G9">
+      <c r="U9">
         <v>-1.3418457499999992</v>
       </c>
-      <c r="H9">
+      <c r="V9">
         <v>0.38003903000002692</v>
       </c>
-      <c r="I9">
+      <c r="W9">
         <v>0.63691536999997789</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B10">
-        <v>0.97426141999999372</v>
+        <v>1.1004239500000383</v>
       </c>
       <c r="C10">
-        <v>-0.33272759999999302</v>
+        <v>-0.1837807100000024</v>
       </c>
       <c r="D10">
         <v>1.2220835099999969</v>
       </c>
       <c r="E10">
+        <v>1.4171589200000008</v>
+      </c>
+      <c r="O10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10">
+        <v>0.97426141999999372</v>
+      </c>
+      <c r="Q10">
+        <v>-0.33272759999999302</v>
+      </c>
+      <c r="R10">
+        <v>1.2220835099999969</v>
+      </c>
+      <c r="S10">
         <v>-0.10200532000000839</v>
       </c>
-      <c r="F10">
+      <c r="T10">
         <v>0.70530452999996696</v>
       </c>
-      <c r="G10">
+      <c r="U10">
         <v>-0.69882904000001567</v>
       </c>
-      <c r="H10">
+      <c r="V10">
         <v>1.1020942700000016</v>
       </c>
-      <c r="I10">
+      <c r="W10">
         <v>-0.42335687000003963</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B11">
@@ -5444,91 +5823,136 @@
         <v>-2.9733126300000041</v>
       </c>
       <c r="D11">
+        <v>-2.8571224799999944</v>
+      </c>
+      <c r="E11">
+        <v>-3.0746677199999985</v>
+      </c>
+      <c r="O11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11">
+        <v>-1.8984687899999924</v>
+      </c>
+      <c r="Q11">
+        <v>-2.9733126300000041</v>
+      </c>
+      <c r="R11">
         <v>-2.2996927999999817</v>
       </c>
-      <c r="E11">
+      <c r="S11">
         <v>-3.1554107600000143</v>
       </c>
-      <c r="F11">
+      <c r="T11">
         <v>0.20122116999998552</v>
       </c>
-      <c r="G11">
+      <c r="U11">
         <v>-0.15853783000002331</v>
       </c>
-      <c r="H11">
+      <c r="V11">
         <v>-0.27293974999998527</v>
       </c>
-      <c r="I11">
+      <c r="W11">
         <v>-1.2715316700000208</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B12">
+        <v>-16.174328099999979</v>
+      </c>
+      <c r="C12">
+        <v>-10.378483560000001</v>
+      </c>
+      <c r="D12">
+        <v>-9.0241084300000196</v>
+      </c>
+      <c r="E12">
+        <v>-10.372659879999977</v>
+      </c>
+      <c r="O12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12">
         <v>-17.298802149999982</v>
       </c>
-      <c r="C12">
+      <c r="Q12">
         <v>-9.8140458500000083</v>
       </c>
-      <c r="D12">
+      <c r="R12">
         <v>-15.120310050000008</v>
       </c>
-      <c r="E12">
+      <c r="S12">
         <v>-10.372831719999985</v>
       </c>
-      <c r="F12">
+      <c r="T12">
         <v>-1.7908969299999851</v>
       </c>
-      <c r="G12">
+      <c r="U12">
         <v>-1.2306495700000202</v>
       </c>
-      <c r="H12">
+      <c r="V12">
         <v>-1.2849941200000292</v>
       </c>
-      <c r="I12">
+      <c r="W12">
         <v>-2.3041859099999633</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B13">
+        <v>-0.74659743000001955</v>
+      </c>
+      <c r="C13">
+        <v>-0.74826831000000915</v>
+      </c>
+      <c r="D13">
+        <v>-4.0803530000012689E-2</v>
+      </c>
+      <c r="E13">
+        <v>-1.9449134199999967</v>
+      </c>
+      <c r="O13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13">
         <v>-1.2524896100000089</v>
       </c>
-      <c r="C13">
+      <c r="Q13">
         <v>-0.7486588800000451</v>
       </c>
-      <c r="D13">
+      <c r="R13">
         <v>-4.0701800000029653E-2</v>
       </c>
-      <c r="E13">
+      <c r="S13">
         <v>-1.9453657700000426</v>
       </c>
-      <c r="F13">
+      <c r="T13">
         <v>-1.7821494200000072</v>
       </c>
-      <c r="G13">
+      <c r="U13">
         <v>-1.1242173300000164</v>
       </c>
-      <c r="H13">
+      <c r="V13">
         <v>-0.59798846000001804</v>
       </c>
-      <c r="I13">
+      <c r="W13">
         <v>-2.5816604400000265</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B14">
         <v>0.51947217000001755</v>
       </c>
       <c r="C14">
-        <v>-0.67962783999996113</v>
+        <v>-9.2613959999988893E-2</v>
       </c>
       <c r="D14">
         <v>0.3088068200000218</v>
@@ -5536,20 +5960,35 @@
       <c r="E14">
         <v>-0.46533319999999412</v>
       </c>
-      <c r="F14">
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14">
+        <v>0.51947217000001755</v>
+      </c>
+      <c r="Q14">
+        <v>-0.67962783999996113</v>
+      </c>
+      <c r="R14">
+        <v>0.3088068200000218</v>
+      </c>
+      <c r="S14">
+        <v>-0.46533319999999412</v>
+      </c>
+      <c r="T14">
         <v>2.7944979999961372E-2</v>
       </c>
-      <c r="G14">
+      <c r="U14">
         <v>-1.0870236999999694</v>
       </c>
-      <c r="H14">
+      <c r="V14">
         <v>6.0956699999716868E-3</v>
       </c>
-      <c r="I14">
+      <c r="W14">
         <v>-1.396778540000033</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -5565,20 +6004,35 @@
       <c r="E15">
         <v>-0.17402517000001216</v>
       </c>
-      <c r="F15">
+      <c r="O15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15">
+        <v>0.3036590999999933</v>
+      </c>
+      <c r="Q15">
+        <v>-1.1555867299999765</v>
+      </c>
+      <c r="R15">
+        <v>1.0455079999978079E-2</v>
+      </c>
+      <c r="S15">
+        <v>-0.17402517000001216</v>
+      </c>
+      <c r="T15">
         <v>-5.8041959999979742E-2</v>
       </c>
-      <c r="G15">
+      <c r="U15">
         <v>-1.6600709699999872</v>
       </c>
-      <c r="H15">
+      <c r="V15">
         <v>-0.1539065000000126</v>
       </c>
-      <c r="I15">
+      <c r="W15">
         <v>-0.90011341000003631</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -5594,20 +6048,35 @@
       <c r="E16">
         <v>0.62712786000001097</v>
       </c>
-      <c r="F16">
+      <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16">
+        <v>-2.7770149999991833E-2</v>
+      </c>
+      <c r="Q16">
+        <v>-1.6305337499999784</v>
+      </c>
+      <c r="R16">
+        <v>-0.19441999999998716</v>
+      </c>
+      <c r="S16">
+        <v>0.62712786000001097</v>
+      </c>
+      <c r="T16">
         <v>-0.2528645900000126</v>
       </c>
-      <c r="G16">
+      <c r="U16">
         <v>-2.0717989599999616</v>
       </c>
-      <c r="H16">
+      <c r="V16">
         <v>-0.30146715000001523</v>
       </c>
-      <c r="I16">
+      <c r="W16">
         <v>0.2736145400000205</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -5623,661 +6092,691 @@
       <c r="E17">
         <v>1.3497798900000171</v>
       </c>
-      <c r="F17">
+      <c r="O17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17">
+        <v>0.31295723999999181</v>
+      </c>
+      <c r="Q17">
+        <v>-0.8096128999999852</v>
+      </c>
+      <c r="R17">
+        <v>0.17545718000001598</v>
+      </c>
+      <c r="S17">
+        <v>1.3497798900000171</v>
+      </c>
+      <c r="T17">
         <v>-6.2121699999988511E-2</v>
       </c>
-      <c r="G17">
+      <c r="U17">
         <v>-1.5208988499999752</v>
       </c>
-      <c r="H17">
+      <c r="V17">
         <v>2.9486850000004505E-2</v>
       </c>
-      <c r="I17">
+      <c r="W17">
         <v>1.083855689999988</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B18">
-        <v>-1.06012740000001</v>
+        <v>1.3630387699999917</v>
       </c>
       <c r="C18">
-        <v>-0.21840278000001412</v>
+        <v>-0.30789399000001971</v>
       </c>
       <c r="D18">
         <v>1.5808018199999689</v>
       </c>
       <c r="E18">
+        <v>1.5076586499999771</v>
+      </c>
+      <c r="O18" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18">
+        <v>-1.06012740000001</v>
+      </c>
+      <c r="Q18">
+        <v>-0.21840278000001412</v>
+      </c>
+      <c r="R18">
+        <v>1.5808018199999689</v>
+      </c>
+      <c r="S18">
         <v>-1.085685290000034</v>
       </c>
-      <c r="F18">
+      <c r="T18">
         <v>-3.1845146099999906</v>
       </c>
-      <c r="G18">
+      <c r="U18">
         <v>-9.5289889999998323E-2</v>
       </c>
-      <c r="H18">
+      <c r="V18">
         <v>1.6431593299999956</v>
       </c>
-      <c r="I18">
+      <c r="W18">
         <v>-3.1116073700000206</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="Q21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="R21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="S21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O22" t="s">
         <v>125</v>
       </c>
-      <c r="B22">
+      <c r="P22">
         <v>0.42967677999995457</v>
       </c>
-      <c r="C22">
+      <c r="Q22">
         <v>-0.3625955600000399</v>
       </c>
-      <c r="D22">
+      <c r="R22">
         <v>0.39785154999997685</v>
       </c>
-      <c r="E22">
+      <c r="S22">
         <v>1.4792290899999707</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B23">
+      <c r="P23">
         <v>-4.3434530399999964</v>
       </c>
-      <c r="C23">
+      <c r="Q23">
         <v>-3.9117692599999661</v>
       </c>
-      <c r="D23">
+      <c r="R23">
         <v>-3.463529139999999</v>
       </c>
-      <c r="E23">
+      <c r="S23">
         <v>-5.161355260000013</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O24" t="s">
         <v>119</v>
       </c>
-      <c r="B24">
+      <c r="P24">
         <v>0.35867884999997868</v>
       </c>
-      <c r="C24">
+      <c r="Q24">
         <v>-0.71073776000002375</v>
       </c>
-      <c r="D24">
+      <c r="R24">
         <v>0.79334990999995325</v>
       </c>
-      <c r="E24">
+      <c r="S24">
         <v>-0.61319269000002441</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O25" t="s">
         <v>114</v>
       </c>
-      <c r="B25">
+      <c r="P25">
         <v>0.18407494000000524</v>
       </c>
-      <c r="C25">
+      <c r="Q25">
         <v>-0.92650837000001651</v>
       </c>
-      <c r="D25">
+      <c r="R25">
         <v>0.36663705000000091</v>
       </c>
-      <c r="E25">
+      <c r="S25">
         <v>-0.24708799999998154</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O26" t="s">
         <v>116</v>
       </c>
-      <c r="B26">
+      <c r="P26">
         <v>-0.21569508000000015</v>
       </c>
-      <c r="C26">
+      <c r="Q26">
         <v>-1.5869512099999898</v>
       </c>
-      <c r="D26">
+      <c r="R26">
         <v>6.7274040000021795E-2</v>
       </c>
-      <c r="E26">
+      <c r="S26">
         <v>-0.61004850000002397</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O27" t="s">
         <v>117</v>
       </c>
-      <c r="B27">
+      <c r="P27">
         <v>-1.5655078099999966</v>
       </c>
-      <c r="C27">
+      <c r="Q27">
         <v>-1.6387707199999628</v>
       </c>
-      <c r="D27">
+      <c r="R27">
         <v>-3.2582499999997072E-2</v>
       </c>
-      <c r="E27">
+      <c r="S27">
         <v>-5.7044750000007749E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O28" t="s">
         <v>113</v>
       </c>
-      <c r="B28">
+      <c r="P28">
         <v>-0.73387263000001868</v>
       </c>
-      <c r="C28">
+      <c r="Q28">
         <v>-1.2657133700000092</v>
       </c>
-      <c r="D28">
+      <c r="R28">
         <v>0.12634653999997836</v>
       </c>
-      <c r="E28">
+      <c r="S28">
         <v>0.20040155999996978</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O29" t="s">
         <v>112</v>
       </c>
-      <c r="B29">
+      <c r="P29">
         <v>-0.43849701000000296</v>
       </c>
-      <c r="C29">
+      <c r="Q29">
         <v>-0.99902953999997557</v>
       </c>
-      <c r="D29">
+      <c r="R29">
         <v>0.38707785000001804</v>
       </c>
-      <c r="E29">
+      <c r="S29">
         <v>0.92983988000001228</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B30">
+      <c r="P30">
         <v>0.97376396000003096</v>
       </c>
-      <c r="C30">
+      <c r="Q30">
         <v>-0.33272759999999302</v>
       </c>
-      <c r="D30">
+      <c r="R30">
         <v>1.2220835099999969</v>
       </c>
-      <c r="E30">
+      <c r="S30">
         <v>1.4171589200000008</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B31">
+      <c r="P31">
         <v>-1.8984687899999924</v>
       </c>
-      <c r="C31">
+      <c r="Q31">
         <v>-2.9733126300000041</v>
       </c>
-      <c r="D31">
+      <c r="R31">
         <v>-2.8571224799999944</v>
       </c>
-      <c r="E31">
+      <c r="S31">
         <v>-3.0746677199999985</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B32">
+      <c r="P32">
         <v>-16.174328099999979</v>
       </c>
-      <c r="C32">
+      <c r="Q32">
         <v>-10.378483560000001</v>
       </c>
-      <c r="D32">
+      <c r="R32">
         <v>-9.2785791100000168</v>
       </c>
-      <c r="E32">
+      <c r="S32">
         <v>-10.372659879999977</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B33">
+      <c r="P33">
         <v>-0.74659743000001955</v>
       </c>
-      <c r="C33">
+      <c r="Q33">
         <v>-0.74826831000000915</v>
       </c>
-      <c r="D33">
+      <c r="R33">
         <v>-4.0803530000012689E-2</v>
       </c>
-      <c r="E33">
+      <c r="S33">
         <v>-1.9449134199999967</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O34" t="s">
         <v>131</v>
       </c>
-      <c r="B34">
+      <c r="P34">
         <v>0.51947217000001755</v>
       </c>
-      <c r="C34">
+      <c r="Q34">
         <v>-0.67962783999996113</v>
       </c>
-      <c r="D34">
+      <c r="R34">
         <v>0.3088068200000218</v>
       </c>
-      <c r="E34">
+      <c r="S34">
         <v>-0.46533319999999412</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
         <v>132</v>
       </c>
-      <c r="B35">
+      <c r="P35">
         <v>0.3036590999999933</v>
       </c>
-      <c r="C35">
+      <c r="Q35">
         <v>-1.1555867299999765</v>
       </c>
-      <c r="D35">
+      <c r="R35">
         <v>1.0455079999978079E-2</v>
       </c>
-      <c r="E35">
+      <c r="S35">
         <v>-0.17402517000001216</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
         <v>133</v>
       </c>
-      <c r="B36">
+      <c r="P36">
         <v>-2.7770149999991833E-2</v>
       </c>
-      <c r="C36">
+      <c r="Q36">
         <v>-1.6305337499999784</v>
       </c>
-      <c r="D36">
+      <c r="R36">
         <v>-0.19441999999998716</v>
       </c>
-      <c r="E36">
+      <c r="S36">
         <v>0.62712786000001097</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O37" t="s">
         <v>134</v>
       </c>
-      <c r="B37">
+      <c r="P37">
         <v>0.31295723999999181</v>
       </c>
-      <c r="C37">
+      <c r="Q37">
         <v>-0.8096128999999852</v>
       </c>
-      <c r="D37">
+      <c r="R37">
         <v>0.17545718000001598</v>
       </c>
-      <c r="E37">
+      <c r="S37">
         <v>1.3497798900000171</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B38">
+      <c r="P38">
         <v>1.3828378499999761</v>
       </c>
-      <c r="C38">
+      <c r="Q38">
         <v>-0.30789399000001971</v>
       </c>
-      <c r="D38">
+      <c r="R38">
         <v>1.5808018199999689</v>
       </c>
-      <c r="E38">
+      <c r="S38">
         <v>1.5076586499999771</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O39" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+    <row r="40" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P40" t="s">
         <v>13</v>
       </c>
-      <c r="C40" t="s">
+      <c r="Q40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" t="s">
+      <c r="R40" t="s">
         <v>12</v>
       </c>
-      <c r="E40" t="s">
+      <c r="S40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O41" t="s">
         <v>125</v>
       </c>
-      <c r="B41">
+      <c r="P41">
         <v>0.42967677999995457</v>
       </c>
-      <c r="C41">
+      <c r="Q41">
         <v>-0.3625955600000399</v>
       </c>
-      <c r="D41">
+      <c r="R41">
         <v>0.39785154999997685</v>
       </c>
-      <c r="E41">
+      <c r="S41">
         <v>1.4792290899999707</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B42">
+      <c r="P42">
         <v>-4.3434530399999964</v>
       </c>
-      <c r="C42">
+      <c r="Q42">
         <v>-3.9117692599999661</v>
       </c>
-      <c r="D42">
+      <c r="R42">
         <v>-3.463529139999999</v>
       </c>
-      <c r="E42">
+      <c r="S42">
         <v>-5.1130951099999802</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O43" t="s">
         <v>119</v>
       </c>
-      <c r="B43">
+      <c r="P43">
         <v>0.35867884999997868</v>
       </c>
-      <c r="C43">
+      <c r="Q43">
         <v>-0.71073776000002375</v>
       </c>
-      <c r="D43">
+      <c r="R43">
         <v>0.79334990999995325</v>
       </c>
-      <c r="E43">
+      <c r="S43">
         <v>-0.65437589000000207</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O44" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B44">
+      <c r="P44">
         <v>0.18407494000000524</v>
       </c>
-      <c r="C44">
+      <c r="Q44">
         <v>-8.780066999997338E-2</v>
       </c>
-      <c r="D44">
+      <c r="R44">
         <v>0.36663705000000091</v>
       </c>
-      <c r="E44">
+      <c r="S44">
         <v>-0.24708799999998154</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O45" t="s">
         <v>116</v>
       </c>
-      <c r="B45">
+      <c r="P45">
         <v>-0.21569508000000015</v>
       </c>
-      <c r="C45">
+      <c r="Q45">
         <v>-1.5869512099999898</v>
       </c>
-      <c r="D45">
+      <c r="R45">
         <v>6.7274040000021795E-2</v>
       </c>
-      <c r="E45">
+      <c r="S45">
         <v>-0.61004850000002397</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O46" t="s">
         <v>117</v>
       </c>
-      <c r="B46">
+      <c r="P46">
         <v>-1.5655078099999966</v>
       </c>
-      <c r="C46">
+      <c r="Q46">
         <v>-1.6387707199999628</v>
       </c>
-      <c r="D46">
+      <c r="R46">
         <v>-3.2582499999997072E-2</v>
       </c>
-      <c r="E46">
+      <c r="S46">
         <v>-5.7044750000007749E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O47" t="s">
         <v>113</v>
       </c>
-      <c r="B47">
+      <c r="P47">
         <v>-0.73387263000001868</v>
       </c>
-      <c r="C47">
+      <c r="Q47">
         <v>-1.2657133700000092</v>
       </c>
-      <c r="D47">
+      <c r="R47">
         <v>0.12634653999997836</v>
       </c>
-      <c r="E47">
+      <c r="S47">
         <v>0.20040155999996978</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O48" t="s">
         <v>112</v>
       </c>
-      <c r="B48">
+      <c r="P48">
         <v>-0.43849701000000296</v>
       </c>
-      <c r="C48">
+      <c r="Q48">
         <v>-0.99902953999997557</v>
       </c>
-      <c r="D48">
+      <c r="R48">
         <v>0.38707785000001804</v>
       </c>
-      <c r="E48">
+      <c r="S48">
         <v>0.92983988000001228</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O49" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B49">
+      <c r="P49">
         <v>1.1004239500000383</v>
       </c>
-      <c r="C49">
+      <c r="Q49">
         <v>-0.1837807100000024</v>
       </c>
-      <c r="D49">
+      <c r="R49">
         <v>1.2220835099999969</v>
       </c>
-      <c r="E49">
+      <c r="S49">
         <v>1.4171589200000008</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O50" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B50">
+      <c r="P50">
         <v>-1.8984687899999924</v>
       </c>
-      <c r="C50">
+      <c r="Q50">
         <v>-2.9733126300000041</v>
       </c>
-      <c r="D50">
+      <c r="R50">
         <v>-2.8571224799999944</v>
       </c>
-      <c r="E50">
+      <c r="S50">
         <v>-3.0746677199999985</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O51" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B51">
+      <c r="P51">
         <v>-16.174328099999979</v>
       </c>
-      <c r="C51">
+      <c r="Q51">
         <v>-10.378483560000001</v>
       </c>
-      <c r="D51">
+      <c r="R51">
         <v>-9.0241084300000196</v>
       </c>
-      <c r="E51">
+      <c r="S51">
         <v>-10.372659879999977</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O52" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B52">
+      <c r="P52">
         <v>-0.74659743000001955</v>
       </c>
-      <c r="C52">
+      <c r="Q52">
         <v>-0.74826831000000915</v>
       </c>
-      <c r="D52">
+      <c r="R52">
         <v>-4.0803530000012689E-2</v>
       </c>
-      <c r="E52">
+      <c r="S52">
         <v>-1.9449134199999967</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O53" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B53">
+      <c r="P53">
         <v>0.51947217000001755</v>
       </c>
-      <c r="C53">
+      <c r="Q53">
         <v>-9.2613959999988893E-2</v>
       </c>
-      <c r="D53">
+      <c r="R53">
         <v>0.3088068200000218</v>
       </c>
-      <c r="E53">
+      <c r="S53">
         <v>-0.46533319999999412</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O54" t="s">
         <v>132</v>
       </c>
-      <c r="B54">
+      <c r="P54">
         <v>0.3036590999999933</v>
       </c>
-      <c r="C54">
+      <c r="Q54">
         <v>-1.1555867299999765</v>
       </c>
-      <c r="D54">
+      <c r="R54">
         <v>1.0455079999978079E-2</v>
       </c>
-      <c r="E54">
+      <c r="S54">
         <v>-0.17402517000001216</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O55" t="s">
         <v>133</v>
       </c>
-      <c r="B55">
+      <c r="P55">
         <v>-2.7770149999991833E-2</v>
       </c>
-      <c r="C55">
+      <c r="Q55">
         <v>-1.6305337499999784</v>
       </c>
-      <c r="D55">
+      <c r="R55">
         <v>-0.19441999999998716</v>
       </c>
-      <c r="E55">
+      <c r="S55">
         <v>0.62712786000001097</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O56" t="s">
         <v>134</v>
       </c>
-      <c r="B56">
+      <c r="P56">
         <v>0.31295723999999181</v>
       </c>
-      <c r="C56">
+      <c r="Q56">
         <v>-0.8096128999999852</v>
       </c>
-      <c r="D56">
+      <c r="R56">
         <v>0.17545718000001598</v>
       </c>
-      <c r="E56">
+      <c r="S56">
         <v>1.3497798900000171</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O57" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B57">
+      <c r="P57">
         <v>1.3630387699999917</v>
       </c>
-      <c r="C57">
+      <c r="Q57">
         <v>-0.30789399000001971</v>
       </c>
-      <c r="D57">
+      <c r="R57">
         <v>1.5808018199999689</v>
       </c>
-      <c r="E57">
+      <c r="S57">
         <v>1.5076586499999771</v>
       </c>
     </row>
@@ -6292,7 +6791,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6933,7 +7432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -7290,7 +7789,7 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7313,7 +7812,7 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7334,7 +7833,7 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -7357,7 +7856,7 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -7378,7 +7877,7 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -7401,7 +7900,7 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
@@ -7422,7 +7921,7 @@
       <c r="E8">
         <v>0.14226739000000999</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -7445,7 +7944,7 @@
       <c r="E9">
         <v>4.2632153400000252</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
@@ -7466,7 +7965,7 @@
       <c r="E10">
         <v>0.51245177000002196</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -7489,7 +7988,7 @@
       <c r="E11">
         <v>8.3088318700000432</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
@@ -7510,7 +8009,7 @@
       <c r="E12">
         <v>0.62535685999999169</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -7533,7 +8032,7 @@
       <c r="E13">
         <v>6.3772676000000192</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
@@ -7554,7 +8053,7 @@
       <c r="E14">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -7577,7 +8076,7 @@
       <c r="E15">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
@@ -7598,7 +8097,7 @@
       <c r="E16">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -7621,7 +8120,7 @@
       <c r="E17">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
@@ -7642,7 +8141,7 @@
       <c r="E18">
         <v>-1.8782816399999738</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -7665,7 +8164,7 @@
       <c r="E19">
         <v>-1.8217238399999665</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
@@ -7686,7 +8185,7 @@
       <c r="E20">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -7709,23 +8208,23 @@
       <c r="E21">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7773,7 +8272,7 @@
       <c r="E2">
         <v>-0.27984726999996701</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7796,7 +8295,7 @@
       <c r="E3">
         <v>-0.37056136999998079</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7817,7 +8316,7 @@
       <c r="E4">
         <v>-0.29561961000003611</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -7840,7 +8339,7 @@
       <c r="E5">
         <v>1.2850195799999633</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
@@ -7861,7 +8360,7 @@
       <c r="E6">
         <v>-0.15854144000004089</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -7884,7 +8383,7 @@
       <c r="E7">
         <v>0.40432277999995359</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
@@ -7974,7 +8473,7 @@
       <c r="E11">
         <v>0.90940075000001253</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -7997,7 +8496,7 @@
       <c r="E12">
         <v>-6.6554759999993163E-2</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
@@ -8018,7 +8517,7 @@
       <c r="E13">
         <v>-0.66133237999999528</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -8041,7 +8540,7 @@
       <c r="E14">
         <v>-0.52880232000003025</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
@@ -8127,7 +8626,7 @@
       <c r="E2">
         <v>1.2935858699999963</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -8150,7 +8649,7 @@
       <c r="E3">
         <v>-3.3286741500000026</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
@@ -8171,7 +8670,7 @@
       <c r="E4">
         <v>-3.1104937299999924</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
@@ -8192,7 +8691,7 @@
       <c r="E5">
         <v>-3.1437701200000183</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
@@ -8213,7 +8712,7 @@
       <c r="E6">
         <v>-3.4894202499999856</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
@@ -8234,7 +8733,7 @@
       <c r="E7">
         <v>-3.421031649999994</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
@@ -8255,7 +8754,7 @@
       <c r="E8">
         <v>1.0416510000008206E-2</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -8278,7 +8777,7 @@
       <c r="E9">
         <v>-4.2314792699999852</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
@@ -8299,7 +8798,7 @@
       <c r="E10">
         <v>-4.2303015099999666</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
@@ -8320,7 +8819,7 @@
       <c r="E11">
         <v>-2.9591973099999982</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
@@ -8341,7 +8840,7 @@
       <c r="E12">
         <v>-4.2312478699999669</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
@@ -8362,7 +8861,7 @@
       <c r="E13">
         <v>-4.2262306999999932</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
@@ -8383,7 +8882,7 @@
       <c r="E14">
         <v>-8.0094700000095109E-3</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -8406,7 +8905,7 @@
       <c r="E15">
         <v>-3.2112205400000184</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
@@ -8427,7 +8926,7 @@
       <c r="E16">
         <v>-3.5570871599999996</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
@@ -8448,7 +8947,7 @@
       <c r="E17">
         <v>-2.2389596200000219</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
@@ -8469,7 +8968,7 @@
       <c r="E18">
         <v>-3.8757445999999809</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
@@ -8490,7 +8989,7 @@
       <c r="E19">
         <v>-3.2088812299999936</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
@@ -8511,7 +9010,7 @@
       <c r="E20">
         <v>0.2912446800000148</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -8534,7 +9033,7 @@
       <c r="E21">
         <v>-0.61553360000001112</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
@@ -8555,7 +9054,7 @@
       <c r="E22">
         <v>0.69130318999996598</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="2" t="s">
         <v>22</v>
       </c>
@@ -8576,7 +9075,7 @@
       <c r="E23">
         <v>-2.8091360300000097</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
@@ -8597,7 +9096,7 @@
       <c r="E24">
         <v>-0.61524676000001</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
@@ -8618,7 +9117,7 @@
       <c r="E25">
         <v>-0.62828945000003023</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="2" t="s">
         <v>25</v>
       </c>
@@ -8639,7 +9138,7 @@
       <c r="E26">
         <v>0.46643433000000778</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -8662,7 +9161,7 @@
       <c r="E27">
         <v>0.903472209999999</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
@@ -8683,7 +9182,7 @@
       <c r="E28">
         <v>0.84148148000000811</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
@@ -8704,7 +9203,7 @@
       <c r="E29">
         <v>0.39160640999998941</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
@@ -8725,7 +9224,7 @@
       <c r="E30">
         <v>0.4598667300000252</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
@@ -8746,7 +9245,7 @@
       <c r="E31">
         <v>0.43486789000000181</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="2" t="s">
         <v>25</v>
       </c>
@@ -8767,7 +9266,7 @@
       <c r="E32">
         <v>0.72828822000000537</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -8790,7 +9289,7 @@
       <c r="E33">
         <v>-1.8093774300000027</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="2" t="s">
         <v>21</v>
       </c>
@@ -8811,7 +9310,7 @@
       <c r="E34">
         <v>-2.8888200299999958</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="2" t="s">
         <v>22</v>
       </c>
@@ -8832,7 +9331,7 @@
       <c r="E35">
         <v>-2.920528319999979</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="2" t="s">
         <v>23</v>
       </c>
@@ -8853,7 +9352,7 @@
       <c r="E36">
         <v>-3.7402288500000131</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="2" t="s">
         <v>24</v>
       </c>
@@ -8874,7 +9373,7 @@
       <c r="E37">
         <v>-3.7541400699999676</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="2" t="s">
         <v>25</v>
       </c>
@@ -8895,7 +9394,7 @@
       <c r="E38">
         <v>-0.10956448999998747</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -8918,7 +9417,7 @@
       <c r="E39">
         <v>-3.3781302200000218</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
@@ -8939,7 +9438,7 @@
       <c r="E40">
         <v>-3.0962576600000111</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="2" t="s">
         <v>22</v>
       </c>
@@ -8960,7 +9459,7 @@
       <c r="E41">
         <v>-3.1365675500000143</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="2" t="s">
         <v>23</v>
       </c>
@@ -8981,7 +9480,7 @@
       <c r="E42">
         <v>-3.4310350099999787</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="2" t="s">
         <v>24</v>
       </c>
@@ -9002,7 +9501,7 @@
       <c r="E43">
         <v>-3.2458180800000114</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
@@ -9023,7 +9522,7 @@
       <c r="E44">
         <v>-0.72050734000000238</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -9046,7 +9545,7 @@
       <c r="E45">
         <v>-3.5928139000000292</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="2" t="s">
         <v>21</v>
       </c>
@@ -9067,7 +9566,7 @@
       <c r="E46">
         <v>-2.9767799400000476</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="2" t="s">
         <v>22</v>
       </c>
@@ -9088,7 +9587,7 @@
       <c r="E47">
         <v>-2.9873096500000051</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="2" t="s">
         <v>23</v>
       </c>
@@ -9109,7 +9608,7 @@
       <c r="E48">
         <v>-3.5974591500000392</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="2" t="s">
         <v>24</v>
       </c>
@@ -9130,7 +9629,7 @@
       <c r="E49">
         <v>-3.6436352399999996</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="2" t="s">
         <v>25</v>
       </c>
@@ -9151,7 +9650,7 @@
       <c r="E50">
         <v>-2.3328917399999987</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -9174,7 +9673,7 @@
       <c r="E51">
         <v>-3.4867817600000044</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="2" t="s">
         <v>21</v>
       </c>
@@ -9195,7 +9694,7 @@
       <c r="E52">
         <v>-2.9845752900000284</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="2" t="s">
         <v>22</v>
       </c>
@@ -9216,7 +9715,7 @@
       <c r="E53">
         <v>-2.9731511300000384</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="2" t="s">
         <v>23</v>
       </c>
@@ -9237,7 +9736,7 @@
       <c r="E54">
         <v>-3.487692530000023</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="2" t="s">
         <v>24</v>
       </c>
@@ -9258,7 +9757,7 @@
       <c r="E55">
         <v>-3.5815205400000045</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="2" t="s">
         <v>25</v>
       </c>
@@ -9279,7 +9778,7 @@
       <c r="E56">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -9302,7 +9801,7 @@
       <c r="E57">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="2" t="s">
         <v>18</v>
       </c>
@@ -9365,7 +9864,7 @@
       <c r="E2">
         <v>-8.0094700000095109E-3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -9388,7 +9887,7 @@
       <c r="E3">
         <v>-3.2112205400000184</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
@@ -9409,7 +9908,7 @@
       <c r="E4">
         <v>-3.5570871599999996</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
@@ -9430,7 +9929,7 @@
       <c r="E5">
         <v>-3.8757445999999809</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
@@ -9451,7 +9950,7 @@
       <c r="E6">
         <v>-3.2088812299999936</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
@@ -9472,7 +9971,7 @@
       <c r="E7">
         <v>0.46643433000000778</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -9495,7 +9994,7 @@
       <c r="E8">
         <v>0.84148148000000811</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
@@ -9516,7 +10015,7 @@
       <c r="E9">
         <v>0.39160640999998941</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
@@ -9537,7 +10036,7 @@
       <c r="E10">
         <v>0.43486789000000181</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
@@ -9558,7 +10057,7 @@
       <c r="E11">
         <v>-0.72050734000000238</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -9581,7 +10080,7 @@
       <c r="E12">
         <v>-3.5928139000000292</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
@@ -9602,7 +10101,7 @@
       <c r="E13">
         <v>-2.9767799400000476</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2" t="s">
         <v>22</v>
       </c>
@@ -9623,7 +10122,7 @@
       <c r="E14">
         <v>-2.9873096500000051</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
@@ -9644,7 +10143,7 @@
       <c r="E15">
         <v>-3.5974591500000392</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
@@ -9665,7 +10164,7 @@
       <c r="E16">
         <v>-3.6436352399999996</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
@@ -9686,7 +10185,7 @@
       <c r="E17">
         <v>-2.3328917399999987</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -9709,7 +10208,7 @@
       <c r="E18">
         <v>-3.4867817600000044</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
@@ -9730,7 +10229,7 @@
       <c r="E19">
         <v>-2.9845752900000284</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
         <v>22</v>
       </c>
@@ -9751,7 +10250,7 @@
       <c r="E20">
         <v>-2.9731511300000384</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
@@ -9772,7 +10271,7 @@
       <c r="E21">
         <v>-3.487692530000023</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
@@ -9793,7 +10292,7 @@
       <c r="E22">
         <v>-3.5815205400000045</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
@@ -9814,7 +10313,7 @@
       <c r="E23">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -9837,7 +10336,7 @@
       <c r="E24">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="2" t="s">
         <v>18</v>
       </c>
@@ -9895,7 +10394,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -9918,7 +10417,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -9939,7 +10438,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -9960,7 +10459,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -9981,7 +10480,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -10002,7 +10501,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -10023,7 +10522,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -10046,7 +10545,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -10067,7 +10566,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -10088,7 +10587,7 @@
       <c r="E11">
         <v>0.58237949999998273</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" t="s">
         <v>24</v>
       </c>
@@ -10109,7 +10608,7 @@
       <c r="E12">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" t="s">
         <v>25</v>
       </c>
@@ -10130,7 +10629,7 @@
       <c r="E13">
         <v>1.573956569999988</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" t="s">
         <v>26</v>
       </c>
@@ -10151,7 +10650,7 @@
       <c r="E14">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
@@ -10174,7 +10673,7 @@
       <c r="E15">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" t="s">
         <v>21</v>
       </c>
@@ -10195,7 +10694,7 @@
       <c r="E16">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" t="s">
         <v>22</v>
       </c>
@@ -10216,7 +10715,7 @@
       <c r="E17">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" t="s">
         <v>24</v>
       </c>
@@ -10237,7 +10736,7 @@
       <c r="E18">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" t="s">
         <v>25</v>
       </c>
@@ -10258,7 +10757,7 @@
       <c r="E19">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -10279,7 +10778,7 @@
       <c r="E20">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
@@ -10302,7 +10801,7 @@
       <c r="E21">
         <v>3.3490576900000328</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" t="s">
         <v>21</v>
       </c>
@@ -10323,7 +10822,7 @@
       <c r="E22">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" t="s">
         <v>22</v>
       </c>
@@ -10344,7 +10843,7 @@
       <c r="E23">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" t="s">
         <v>24</v>
       </c>
@@ -10365,7 +10864,7 @@
       <c r="E24">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" t="s">
         <v>25</v>
       </c>
@@ -10386,7 +10885,7 @@
       <c r="E25">
         <v>2.0686931599999903</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25" t="s">
         <v>26</v>
       </c>
@@ -10407,7 +10906,7 @@
       <c r="E26">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G26" t="s">
@@ -10430,7 +10929,7 @@
       <c r="E27">
         <v>5.2405252600000072</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="10"/>
       <c r="G27" t="s">
         <v>21</v>
       </c>
@@ -10451,7 +10950,7 @@
       <c r="E28">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -10472,7 +10971,7 @@
       <c r="E29">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -10493,7 +10992,7 @@
       <c r="E30">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -10514,7 +11013,7 @@
       <c r="E31">
         <v>3.9270744799999684</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31" t="s">
         <v>26</v>
       </c>
@@ -10535,7 +11034,7 @@
       <c r="E32">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
@@ -10558,7 +11057,7 @@
       <c r="E33">
         <v>3.7204950799999588</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33" t="s">
         <v>21</v>
       </c>
@@ -10579,7 +11078,7 @@
       <c r="E34">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34" t="s">
         <v>22</v>
       </c>
@@ -10600,7 +11099,7 @@
       <c r="E35">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35" t="s">
         <v>24</v>
       </c>
@@ -10624,7 +11123,7 @@
       <c r="E36">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36" t="s">
         <v>25</v>
       </c>
@@ -10645,7 +11144,7 @@
       <c r="E37">
         <v>2.8620324599999472</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37" t="s">
         <v>26</v>
       </c>
@@ -10666,7 +11165,7 @@
       <c r="E38">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
@@ -10689,7 +11188,7 @@
       <c r="E39">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39" t="s">
         <v>21</v>
       </c>
@@ -10710,7 +11209,7 @@
       <c r="E40">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" t="s">
         <v>22</v>
       </c>
@@ -10731,7 +11230,7 @@
       <c r="E41">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" t="s">
         <v>24</v>
       </c>
@@ -10752,7 +11251,7 @@
       <c r="E42">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42" t="s">
         <v>25</v>
       </c>
@@ -10773,7 +11272,7 @@
       <c r="E43">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43" t="s">
         <v>26</v>
       </c>
@@ -10794,7 +11293,7 @@
       <c r="E44">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -10817,7 +11316,7 @@
       <c r="E45">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45" t="s">
         <v>21</v>
       </c>
@@ -10838,7 +11337,7 @@
       <c r="E46">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46" t="s">
         <v>22</v>
       </c>
@@ -10859,7 +11358,7 @@
       <c r="E47">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="G47" t="s">
         <v>24</v>
       </c>
@@ -10880,7 +11379,7 @@
       <c r="E48">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48" t="s">
         <v>25</v>
       </c>
@@ -10901,7 +11400,7 @@
       <c r="E49">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="G49" t="s">
         <v>26</v>
       </c>
@@ -10922,7 +11421,7 @@
       <c r="E50">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
@@ -10945,7 +11444,7 @@
       <c r="E51">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51" t="s">
         <v>21</v>
       </c>
@@ -10966,7 +11465,7 @@
       <c r="E52">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="G52" t="s">
         <v>22</v>
       </c>
@@ -10987,7 +11486,7 @@
       <c r="E53">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53" t="s">
         <v>24</v>
       </c>
@@ -11008,7 +11507,7 @@
       <c r="E54">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54" t="s">
         <v>25</v>
       </c>
@@ -11029,7 +11528,7 @@
       <c r="E55">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55" t="s">
         <v>26</v>
       </c>
@@ -11050,7 +11549,7 @@
       <c r="E56">
         <v>1.4798479900000339</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -11073,7 +11572,7 @@
       <c r="E57">
         <v>2.0275838700000386</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="2" t="s">
         <v>18</v>
       </c>
@@ -11384,7 +11883,7 @@
       <c r="E2">
         <v>1.2299022499999901</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -11407,7 +11906,7 @@
       <c r="E3">
         <v>1.470715210000018</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -11428,7 +11927,7 @@
       <c r="E4">
         <v>1.3878590099999806</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -11449,7 +11948,7 @@
       <c r="E5">
         <v>0.65479119000000674</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -11470,7 +11969,7 @@
       <c r="E6">
         <v>0.86129865999996946</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -11491,7 +11990,7 @@
       <c r="E7">
         <v>-0.11025560999998651</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -11512,7 +12011,7 @@
       <c r="E8">
         <v>0.93416346000001704</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
@@ -11535,7 +12034,7 @@
       <c r="E9">
         <v>1.6414095599999805</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -11556,7 +12055,7 @@
       <c r="E10">
         <v>1.6071912799999759</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -11577,7 +12076,7 @@
       <c r="E11">
         <v>0.43672489999998243</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" t="s">
         <v>25</v>
       </c>
@@ -11598,7 +12097,7 @@
       <c r="E12">
         <v>1.573956569999988</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" t="s">
         <v>26</v>
       </c>
@@ -11619,7 +12118,7 @@
       <c r="E13">
         <v>4.6465610000022028E-2</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
@@ -11642,7 +12141,7 @@
       <c r="E14">
         <v>0.29045546000001332</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" t="s">
         <v>21</v>
       </c>
@@ -11663,7 +12162,7 @@
       <c r="E15">
         <v>1.7979863699999705</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" t="s">
         <v>22</v>
       </c>
@@ -11684,7 +12183,7 @@
       <c r="E16">
         <v>0.31027335999997741</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" t="s">
         <v>24</v>
       </c>
@@ -11705,7 +12204,7 @@
       <c r="E17">
         <v>-7.0613829999975675E-2</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" t="s">
         <v>25</v>
       </c>
@@ -11726,7 +12225,7 @@
       <c r="E18">
         <v>-3.2665100000222047E-3</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" t="s">
         <v>26</v>
       </c>
@@ -11747,7 +12246,7 @@
       <c r="E19">
         <v>0.26844295999999668</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G19" t="s">
@@ -11770,7 +12269,7 @@
       <c r="E20">
         <v>1.7014405799999772</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" t="s">
         <v>22</v>
       </c>
@@ -11791,7 +12290,7 @@
       <c r="E21">
         <v>2.4076566199999925</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" t="s">
         <v>24</v>
       </c>
@@ -11812,7 +12311,7 @@
       <c r="E22">
         <v>2.3771613400000242</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" t="s">
         <v>25</v>
       </c>
@@ -11833,7 +12332,7 @@
       <c r="E23">
         <v>0.46824588000002132</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -11856,7 +12355,7 @@
       <c r="E24">
         <v>5.7844258699999873</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" t="s">
         <v>22</v>
       </c>
@@ -11877,7 +12376,7 @@
       <c r="E25">
         <v>0.14794896999999674</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25" t="s">
         <v>24</v>
       </c>
@@ -11898,7 +12397,7 @@
       <c r="E26">
         <v>3.7336846099999925</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26" t="s">
         <v>25</v>
       </c>
@@ -11919,7 +12418,7 @@
       <c r="E27">
         <v>0.64677657999997473</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
@@ -11942,7 +12441,7 @@
       <c r="E28">
         <v>1.7456980099999932</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" t="s">
         <v>22</v>
       </c>
@@ -11963,7 +12462,7 @@
       <c r="E29">
         <v>0.60982276999997476</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" t="s">
         <v>24</v>
       </c>
@@ -11984,7 +12483,7 @@
       <c r="E30">
         <v>-0.63753083000002198</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30" t="s">
         <v>25</v>
       </c>
@@ -12005,7 +12504,7 @@
       <c r="E31">
         <v>1.6088602099999698</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G31" t="s">
@@ -12028,7 +12527,7 @@
       <c r="E32">
         <v>-0.13324891000003936</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32" t="s">
         <v>21</v>
       </c>
@@ -12049,7 +12548,7 @@
       <c r="E33">
         <v>-0.28357075000004306</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33" t="s">
         <v>22</v>
       </c>
@@ -12070,7 +12569,7 @@
       <c r="E34">
         <v>1.4401756199999718</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34" t="s">
         <v>24</v>
       </c>
@@ -12091,7 +12590,7 @@
       <c r="E35">
         <v>1.4887386899999719</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35" t="s">
         <v>25</v>
       </c>
@@ -12112,7 +12611,7 @@
       <c r="E36">
         <v>1.5604734199999748</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36" t="s">
         <v>26</v>
       </c>
@@ -12133,7 +12632,7 @@
       <c r="E37">
         <v>-0.56529000000002361</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
@@ -12156,7 +12655,7 @@
       <c r="E38">
         <v>1.8384678999999928</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38" t="s">
         <v>21</v>
       </c>
@@ -12177,7 +12676,7 @@
       <c r="E39">
         <v>-0.56569605000000456</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39" t="s">
         <v>22</v>
       </c>
@@ -12198,7 +12697,7 @@
       <c r="E40">
         <v>-1.0822460000004863E-2</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" t="s">
         <v>24</v>
       </c>
@@ -12219,7 +12718,7 @@
       <c r="E41">
         <v>-0.4410166600000216</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" t="s">
         <v>25</v>
       </c>
@@ -12240,7 +12739,7 @@
       <c r="E42">
         <v>-0.56637766000001966</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42" t="s">
         <v>26</v>
       </c>
@@ -12261,7 +12760,7 @@
       <c r="E43">
         <v>-1.2161505699999871</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G43" t="s">
@@ -12284,7 +12783,7 @@
       <c r="E44">
         <v>-0.58085573000001522</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44" t="s">
         <v>21</v>
       </c>
@@ -12305,7 +12804,7 @@
       <c r="E45">
         <v>1.1674259499999757</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45" t="s">
         <v>22</v>
       </c>
@@ -12326,7 +12825,7 @@
       <c r="E46">
         <v>-0.45704716000002099</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46" t="s">
         <v>24</v>
       </c>
@@ -12347,7 +12846,7 @@
       <c r="E47">
         <v>-0.5858055300000351</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="G47" t="s">
         <v>25</v>
       </c>
@@ -12368,7 +12867,7 @@
       <c r="E48">
         <v>-1.2460428700000157</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48" t="s">
         <v>26</v>
       </c>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -2850,7 +2850,7 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4264,7 +4264,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8215,16 +8215,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="triangle" sheetId="19" r:id="rId15"/>
     <sheet name="near-new" sheetId="21" r:id="rId16"/>
     <sheet name="line" sheetId="20" r:id="rId17"/>
+    <sheet name="top-new" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="142">
   <si>
     <t>top</t>
   </si>
@@ -7432,8 +7433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7742,6 +7743,327 @@
       </c>
       <c r="E18">
         <v>1.4514259799999913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0.42967677999995457</v>
+      </c>
+      <c r="C2">
+        <v>-0.3625955600000399</v>
+      </c>
+      <c r="D2">
+        <v>0.39785154999997685</v>
+      </c>
+      <c r="E2">
+        <v>1.4792290899999707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>0.65771118000002415</v>
+      </c>
+      <c r="C3">
+        <v>-0.55272765999995421</v>
+      </c>
+      <c r="D3">
+        <v>1.2636858300000351</v>
+      </c>
+      <c r="E3">
+        <v>-0.61552664000000368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>0.50252426999996969</v>
+      </c>
+      <c r="C4">
+        <v>-0.78625387999999852</v>
+      </c>
+      <c r="D4">
+        <v>0.69338810999999323</v>
+      </c>
+      <c r="E4">
+        <v>-0.32353986000000168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0.42342687000000323</v>
+      </c>
+      <c r="C5">
+        <v>-1.0223930700000157</v>
+      </c>
+      <c r="D5">
+        <v>0.31179256000000732</v>
+      </c>
+      <c r="E5">
+        <v>-0.24233647000001701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0.49143159999998742</v>
+      </c>
+      <c r="C6">
+        <v>-1.6077874500000409</v>
+      </c>
+      <c r="D6">
+        <v>-7.7821000000036111E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.43711337000000094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>0.41991301000000503</v>
+      </c>
+      <c r="C7">
+        <v>-1.4595080999999883</v>
+      </c>
+      <c r="D7">
+        <v>-0.12278147000001427</v>
+      </c>
+      <c r="E7">
+        <v>0.80983971999999449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>0.60481570999995737</v>
+      </c>
+      <c r="C8">
+        <v>-0.95866808000004688</v>
+      </c>
+      <c r="D8">
+        <v>0.13792760999995535</v>
+      </c>
+      <c r="E8">
+        <v>1.2047218599999874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>0.64676082000004298</v>
+      </c>
+      <c r="C9">
+        <v>-0.42267365999998141</v>
+      </c>
+      <c r="D9">
+        <v>0.6245299200000356</v>
+      </c>
+      <c r="E9">
+        <v>1.3095738300000144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>1.1762810700000048</v>
+      </c>
+      <c r="C10">
+        <v>-0.19074070999999471</v>
+      </c>
+      <c r="D10">
+        <v>1.3546675699999962</v>
+      </c>
+      <c r="E10">
+        <v>1.4817370200000064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>1.190757469999983</v>
+      </c>
+      <c r="C11">
+        <v>-0.1116828500000171</v>
+      </c>
+      <c r="D11">
+        <v>1.080315449999993</v>
+      </c>
+      <c r="E11">
+        <v>0.67065179000000308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>0.47307647000001252</v>
+      </c>
+      <c r="C12">
+        <v>-0.54981170999996642</v>
+      </c>
+      <c r="D12">
+        <v>1.2229447200000361</v>
+      </c>
+      <c r="E12">
+        <v>-0.79983175999998002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>0.35003078000004306</v>
+      </c>
+      <c r="C13">
+        <v>-0.81706155999995111</v>
+      </c>
+      <c r="D13">
+        <v>0.70122983000003769</v>
+      </c>
+      <c r="E13">
+        <v>-0.83648847999997633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0.340525819999971</v>
+      </c>
+      <c r="C14">
+        <v>-1.0093818999999886</v>
+      </c>
+      <c r="D14">
+        <v>0.31058960000000679</v>
+      </c>
+      <c r="E14">
+        <v>-0.41363487000002896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0.43456946000002317</v>
+      </c>
+      <c r="C15">
+        <v>-1.3041421799999799</v>
+      </c>
+      <c r="D15">
+        <v>-1.2675659999964228E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.8620349999984231E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0.25478358000002599</v>
+      </c>
+      <c r="C16">
+        <v>-1.4202055599999941</v>
+      </c>
+      <c r="D16">
+        <v>-0.23060491000001848</v>
+      </c>
+      <c r="E16">
+        <v>0.91984719000002224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.57432451999999357</v>
+      </c>
+      <c r="C17">
+        <v>-0.66482795000001182</v>
+      </c>
+      <c r="D17">
+        <v>0.20457299000002349</v>
+      </c>
+      <c r="E17">
+        <v>1.499344149999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>1.4164179400000196</v>
+      </c>
+      <c r="C18">
+        <v>-0.10547402999997679</v>
+      </c>
+      <c r="D18">
+        <v>1.6220655700000104</v>
+      </c>
+      <c r="E18">
+        <v>1.9700020300000269</v>
       </c>
     </row>
   </sheetData>
@@ -8215,16 +8537,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -7755,7 +7755,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8537,16 +8537,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/plotpackage/data/binding_energy.xlsx
+++ b/plotpackage/data/binding_energy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="146">
   <si>
     <t>top</t>
   </si>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>$E_{HOCO*}$</t>
+  </si>
+  <si>
+    <t>$E_{H*}$</t>
+  </si>
+  <si>
+    <t>$E_{CO*}$</t>
+  </si>
+  <si>
+    <t>$E_{OH*}$</t>
   </si>
 </sst>
 </file>
@@ -2850,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2897,7 +2909,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.42967677999995457</v>
@@ -4265,7 +4277,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4310,7 +4322,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.42967677999995457</v>
@@ -5374,7 +5386,7 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5419,7 +5431,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.42967677999995457</v>
@@ -6792,7 +6804,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6816,7 +6828,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.42933610999999727</v>
@@ -7113,7 +7125,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7137,7 +7149,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.42967677999995457</v>
@@ -7434,7 +7446,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7458,7 +7470,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.42967677999995457</v>
@@ -7752,15 +7764,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -7776,10 +7788,22 @@
       <c r="G1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.42967677999995457</v>
@@ -7794,7 +7818,7 @@
         <v>1.4792290899999707</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -7811,7 +7835,7 @@
         <v>-0.61552664000000368</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -7828,7 +7852,7 @@
         <v>-0.32353986000000168</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -7845,7 +7869,7 @@
         <v>-0.24233647000001701</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -7862,7 +7886,7 @@
         <v>0.43711337000000094</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -7879,7 +7903,7 @@
         <v>0.80983971999999449</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -7896,7 +7920,7 @@
         <v>1.2047218599999874</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -7913,7 +7937,7 @@
         <v>1.3095738300000144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -7930,7 +7954,7 @@
         <v>1.4817370200000064</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -7947,7 +7971,7 @@
         <v>0.67065179000000308</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -7964,7 +7988,7 @@
         <v>-0.79983175999998002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -7981,7 +8005,7 @@
         <v>-0.83648847999997633</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -7998,7 +8022,7 @@
         <v>-0.41363487000002896</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -8015,7 +8039,7 @@
         <v>6.8620349999984231E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -8537,16 +8561,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
